--- a/model-data/ramping_detail.xlsx
+++ b/model-data/ramping_detail.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\SpineOptNordic\MESSO\model-data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99E6D4A4-020E-4A33-A4FA-513037F4F84C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F21596B3-F252-4FA1-99CC-D6D336DCAED4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{1D69CA77-C923-1149-8A4F-669FB957D274}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{1D69CA77-C923-1149-8A4F-669FB957D274}"/>
   </bookViews>
   <sheets>
     <sheet name="ramping_data" sheetId="2" r:id="rId1"/>
@@ -38,8 +38,42 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Huang  Jiangyi</author>
+  </authors>
+  <commentList>
+    <comment ref="H12" authorId="0" shapeId="0" xr:uid="{BE3B32FC-DC8C-44C8-8ED1-DF12BE5C38FB}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Huang  Jiangyi:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+0.3 technically, but here hourly production from ENTSO-E is used.</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="40">
   <si>
     <t>BAL</t>
   </si>
@@ -151,12 +185,21 @@
   <si>
     <t>shut_down_cost</t>
   </si>
+  <si>
+    <t>References</t>
+  </si>
+  <si>
+    <t>All hydroelectric power</t>
+  </si>
+  <si>
+    <t>EU HYPERBOLE</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -206,6 +249,27 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -246,13 +310,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -268,9 +333,11 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="4"/>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="5">
     <cellStyle name="Gut 2" xfId="1" xr:uid="{4971B245-68E0-5349-9F69-2E7984AD53BF}"/>
+    <cellStyle name="Hyperlink" xfId="4" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Schlecht 2" xfId="2" xr:uid="{29E57799-1D7B-584E-A1FD-81FF41699E51}"/>
     <cellStyle name="Standard 2" xfId="3" xr:uid="{5913DD96-8963-A444-AE63-480E6733A2D6}"/>
@@ -584,11 +651,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1021CBF5-2EE4-A84D-844F-88372C6685C6}">
-  <dimension ref="A1:N21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1021CBF5-2EE4-A84D-844F-88372C6685C6}">
+  <dimension ref="A1:N24"/>
   <sheetViews>
-    <sheetView zoomScale="125" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1071,7 +1138,7 @@
         <v>1</v>
       </c>
       <c r="H12">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -1448,8 +1515,25 @@
       <c r="M21" s="4"/>
       <c r="N21" s="7"/>
     </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>38</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B24" r:id="rId1" xr:uid="{868C5248-1133-49B6-ADE2-EE1C827D22A3}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -1458,7 +1542,7 @@
   <dimension ref="A1:M21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:M21"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2084,7 +2168,7 @@
       </c>
       <c r="I12">
         <f>ramping_data!H12</f>
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="J12">
         <f>ramping_data!I12</f>
@@ -3216,7 +3300,7 @@
       </c>
       <c r="I12">
         <f>ramping_data!H12</f>
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="J12">
         <f>ramping_data!I12</f>
@@ -4348,7 +4432,7 @@
       </c>
       <c r="I12">
         <f>ramping_data!H12</f>
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="J12">
         <f>ramping_data!I12</f>
@@ -4854,7 +4938,7 @@
   <dimension ref="A1:M21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:M21"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -5480,7 +5564,7 @@
       </c>
       <c r="I12">
         <f>ramping_data!H12</f>
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="J12">
         <f>ramping_data!I12</f>
@@ -5985,8 +6069,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB96295C-BD32-6F47-8A38-40C16F9B0550}">
   <dimension ref="A1:M21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:M21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -6612,7 +6696,7 @@
       </c>
       <c r="I12">
         <f>ramping_data!H12</f>
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="J12">
         <f>ramping_data!I12</f>

--- a/model-data/ramping_detail.xlsx
+++ b/model-data/ramping_detail.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\SpineOptNordic\MESSO\model-data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F21596B3-F252-4FA1-99CC-D6D336DCAED4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AC94D68-ECC2-4AF8-8D77-F2CC324212FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{1D69CA77-C923-1149-8A4F-669FB957D274}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="5" xr2:uid="{1D69CA77-C923-1149-8A4F-669FB957D274}"/>
   </bookViews>
   <sheets>
     <sheet name="ramping_data" sheetId="2" r:id="rId1"/>
@@ -654,8 +654,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1021CBF5-2EE4-A84D-844F-88372C6685C6}">
   <dimension ref="A1:N24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView zoomScale="125" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1539,1138 +1539,6 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B00212AE-BC11-B248-BF1F-D6F6E7736FD3}">
-  <dimension ref="A1:M21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="32.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="23.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="28.625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="H1" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="L1" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="M1" s="8" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" t="str">
-        <f>$A$1&amp;"_biomass"</f>
-        <v>BAL_biomass</v>
-      </c>
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2">
-        <f>ramping_data!B2</f>
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <f>ramping_data!C2</f>
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <f>ramping_data!D2</f>
-        <v>1</v>
-      </c>
-      <c r="F2">
-        <f>ramping_data!E2</f>
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <f>ramping_data!F2</f>
-        <v>1</v>
-      </c>
-      <c r="H2">
-        <f>ramping_data!G2</f>
-        <v>1</v>
-      </c>
-      <c r="I2">
-        <f>ramping_data!H2</f>
-        <v>0.2</v>
-      </c>
-      <c r="J2">
-        <f>ramping_data!I2</f>
-        <v>1.8</v>
-      </c>
-      <c r="K2">
-        <f>ramping_data!J2</f>
-        <v>1.8</v>
-      </c>
-      <c r="L2">
-        <f>ramping_data!K2</f>
-        <v>36</v>
-      </c>
-      <c r="M2">
-        <f>ramping_data!L2</f>
-        <v>17.5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" t="str">
-        <f>$A$1&amp;"_brown-coal_lignite"</f>
-        <v>BAL_brown-coal_lignite</v>
-      </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3">
-        <f>ramping_data!B3</f>
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <f>ramping_data!C3</f>
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <f>ramping_data!D3</f>
-        <v>0.5</v>
-      </c>
-      <c r="F3">
-        <f>ramping_data!E3</f>
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <f>ramping_data!F3</f>
-        <v>0.5</v>
-      </c>
-      <c r="H3">
-        <f>ramping_data!G3</f>
-        <v>0.5</v>
-      </c>
-      <c r="I3">
-        <f>ramping_data!H3</f>
-        <v>0.4</v>
-      </c>
-      <c r="J3">
-        <f>ramping_data!I3</f>
-        <v>1.8</v>
-      </c>
-      <c r="K3">
-        <f>ramping_data!J3</f>
-        <v>1.8</v>
-      </c>
-      <c r="L3">
-        <f>ramping_data!K3</f>
-        <v>58</v>
-      </c>
-      <c r="M3">
-        <f>ramping_data!L3</f>
-        <v>17.5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" t="str">
-        <f>$A$1&amp;"_gas-coal-derived"</f>
-        <v>BAL_gas-coal-derived</v>
-      </c>
-      <c r="B4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4">
-        <f>ramping_data!B4</f>
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <f>ramping_data!C4</f>
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <f>ramping_data!D4</f>
-        <v>0.5</v>
-      </c>
-      <c r="F4">
-        <f>ramping_data!E4</f>
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <f>ramping_data!F4</f>
-        <v>0.5</v>
-      </c>
-      <c r="H4">
-        <f>ramping_data!G4</f>
-        <v>0.5</v>
-      </c>
-      <c r="I4">
-        <f>ramping_data!H4</f>
-        <v>0.4</v>
-      </c>
-      <c r="J4">
-        <f>ramping_data!I4</f>
-        <v>0.52500000000000002</v>
-      </c>
-      <c r="K4">
-        <f>ramping_data!J4</f>
-        <v>0.52500000000000002</v>
-      </c>
-      <c r="L4">
-        <f>ramping_data!K4</f>
-        <v>85</v>
-      </c>
-      <c r="M4">
-        <f>ramping_data!L4</f>
-        <v>8.5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" t="str">
-        <f>$A$1&amp;"_gas"</f>
-        <v>BAL_gas</v>
-      </c>
-      <c r="B5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5">
-        <f>ramping_data!B5</f>
-        <v>1</v>
-      </c>
-      <c r="D5">
-        <f>ramping_data!C5</f>
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <f>ramping_data!D5</f>
-        <v>0.5</v>
-      </c>
-      <c r="F5">
-        <f>ramping_data!E5</f>
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <f>ramping_data!F5</f>
-        <v>0.5</v>
-      </c>
-      <c r="H5">
-        <f>ramping_data!G5</f>
-        <v>0.5</v>
-      </c>
-      <c r="I5">
-        <f>ramping_data!H5</f>
-        <v>0.4</v>
-      </c>
-      <c r="J5">
-        <f>ramping_data!I5</f>
-        <v>0.52500000000000002</v>
-      </c>
-      <c r="K5">
-        <f>ramping_data!J5</f>
-        <v>0.52500000000000002</v>
-      </c>
-      <c r="L5">
-        <f>ramping_data!K5</f>
-        <v>85</v>
-      </c>
-      <c r="M5">
-        <f>ramping_data!L5</f>
-        <v>8.5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" t="str">
-        <f>$A$1&amp;"_hard-coal"</f>
-        <v>BAL_hard-coal</v>
-      </c>
-      <c r="B6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6">
-        <f>ramping_data!B6</f>
-        <v>1</v>
-      </c>
-      <c r="D6">
-        <f>ramping_data!C6</f>
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <f>ramping_data!D6</f>
-        <v>0.3</v>
-      </c>
-      <c r="F6">
-        <f>ramping_data!E6</f>
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <f>ramping_data!F6</f>
-        <v>0.5</v>
-      </c>
-      <c r="H6">
-        <f>ramping_data!G6</f>
-        <v>0.5</v>
-      </c>
-      <c r="I6">
-        <f>ramping_data!H6</f>
-        <v>0.25</v>
-      </c>
-      <c r="J6">
-        <f>ramping_data!I6</f>
-        <v>1.8</v>
-      </c>
-      <c r="K6">
-        <f>ramping_data!J6</f>
-        <v>1.8</v>
-      </c>
-      <c r="L6">
-        <f>ramping_data!K6</f>
-        <v>35</v>
-      </c>
-      <c r="M6">
-        <f>ramping_data!L6</f>
-        <v>17.5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" t="str">
-        <f>$A$1&amp;"_oil"</f>
-        <v>BAL_oil</v>
-      </c>
-      <c r="B7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7">
-        <f>ramping_data!B7</f>
-        <v>1</v>
-      </c>
-      <c r="D7">
-        <f>ramping_data!C7</f>
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <f>ramping_data!D7</f>
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <f>ramping_data!E7</f>
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <f>ramping_data!F7</f>
-        <v>1</v>
-      </c>
-      <c r="H7">
-        <f>ramping_data!G7</f>
-        <v>1</v>
-      </c>
-      <c r="I7">
-        <f>ramping_data!H7</f>
-        <v>0.3</v>
-      </c>
-      <c r="J7">
-        <f>ramping_data!I7</f>
-        <v>1.8</v>
-      </c>
-      <c r="K7">
-        <f>ramping_data!J7</f>
-        <v>1.8</v>
-      </c>
-      <c r="L7">
-        <f>ramping_data!K7</f>
-        <v>46</v>
-      </c>
-      <c r="M7">
-        <f>ramping_data!L7</f>
-        <v>17.5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" t="str">
-        <f>$A$1&amp;"_oil-shale"</f>
-        <v>BAL_oil-shale</v>
-      </c>
-      <c r="B8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8">
-        <f>ramping_data!B8</f>
-        <v>1</v>
-      </c>
-      <c r="D8">
-        <f>ramping_data!C8</f>
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <f>ramping_data!D8</f>
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <f>ramping_data!E8</f>
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <f>ramping_data!F8</f>
-        <v>1</v>
-      </c>
-      <c r="H8">
-        <f>ramping_data!G8</f>
-        <v>1</v>
-      </c>
-      <c r="I8">
-        <f>ramping_data!H8</f>
-        <v>0.3</v>
-      </c>
-      <c r="J8">
-        <f>ramping_data!I8</f>
-        <v>1.8</v>
-      </c>
-      <c r="K8">
-        <f>ramping_data!J8</f>
-        <v>1.8</v>
-      </c>
-      <c r="L8">
-        <f>ramping_data!K8</f>
-        <v>46</v>
-      </c>
-      <c r="M8">
-        <f>ramping_data!L8</f>
-        <v>17.5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" t="str">
-        <f>$A$1&amp;"_peat"</f>
-        <v>BAL_peat</v>
-      </c>
-      <c r="B9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9">
-        <f>ramping_data!B9</f>
-        <v>1</v>
-      </c>
-      <c r="D9">
-        <f>ramping_data!C9</f>
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <f>ramping_data!D9</f>
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <f>ramping_data!E9</f>
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <f>ramping_data!F9</f>
-        <v>1</v>
-      </c>
-      <c r="H9">
-        <f>ramping_data!G9</f>
-        <v>1</v>
-      </c>
-      <c r="I9">
-        <f>ramping_data!H9</f>
-        <v>0.2</v>
-      </c>
-      <c r="J9">
-        <f>ramping_data!I9</f>
-        <v>1.8</v>
-      </c>
-      <c r="K9">
-        <f>ramping_data!J9</f>
-        <v>1.8</v>
-      </c>
-      <c r="L9">
-        <f>ramping_data!K9</f>
-        <v>58</v>
-      </c>
-      <c r="M9">
-        <f>ramping_data!L9</f>
-        <v>17.5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" t="str">
-        <f>$A$1&amp;"_geothermal"</f>
-        <v>BAL_geothermal</v>
-      </c>
-      <c r="B10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10">
-        <f>ramping_data!B10</f>
-        <v>1</v>
-      </c>
-      <c r="D10">
-        <f>ramping_data!C10</f>
-        <v>0</v>
-      </c>
-      <c r="E10">
-        <f>ramping_data!D10</f>
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <f>ramping_data!E10</f>
-        <v>0</v>
-      </c>
-      <c r="G10">
-        <f>ramping_data!F10</f>
-        <v>1</v>
-      </c>
-      <c r="H10">
-        <f>ramping_data!G10</f>
-        <v>1</v>
-      </c>
-      <c r="I10">
-        <f>ramping_data!H10</f>
-        <v>0</v>
-      </c>
-      <c r="J10">
-        <f>ramping_data!I10</f>
-        <v>0</v>
-      </c>
-      <c r="K10">
-        <f>ramping_data!J10</f>
-        <v>0</v>
-      </c>
-      <c r="L10">
-        <f>ramping_data!K10</f>
-        <v>0</v>
-      </c>
-      <c r="M10">
-        <f>ramping_data!L10</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" t="str">
-        <f>$A$1&amp;"_hydro-pumped"</f>
-        <v>BAL_hydro-pumped</v>
-      </c>
-      <c r="B11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11">
-        <f>ramping_data!B11</f>
-        <v>1</v>
-      </c>
-      <c r="D11">
-        <f>ramping_data!C11</f>
-        <v>0</v>
-      </c>
-      <c r="E11">
-        <f>ramping_data!D11</f>
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <f>ramping_data!E11</f>
-        <v>0</v>
-      </c>
-      <c r="G11">
-        <f>ramping_data!F11</f>
-        <v>1</v>
-      </c>
-      <c r="H11">
-        <f>ramping_data!G11</f>
-        <v>1</v>
-      </c>
-      <c r="I11">
-        <f>ramping_data!H11</f>
-        <v>0.3</v>
-      </c>
-      <c r="J11">
-        <f>ramping_data!I11</f>
-        <v>0</v>
-      </c>
-      <c r="K11">
-        <f>ramping_data!J11</f>
-        <v>0</v>
-      </c>
-      <c r="L11">
-        <f>ramping_data!K11</f>
-        <v>2.5</v>
-      </c>
-      <c r="M11">
-        <f>ramping_data!L11</f>
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" t="str">
-        <f>$A$1&amp;"_hydro-ror"</f>
-        <v>BAL_hydro-ror</v>
-      </c>
-      <c r="B12" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12">
-        <f>ramping_data!B12</f>
-        <v>1</v>
-      </c>
-      <c r="D12">
-        <f>ramping_data!C12</f>
-        <v>0</v>
-      </c>
-      <c r="E12">
-        <f>ramping_data!D12</f>
-        <v>1</v>
-      </c>
-      <c r="F12">
-        <f>ramping_data!E12</f>
-        <v>0</v>
-      </c>
-      <c r="G12">
-        <f>ramping_data!F12</f>
-        <v>1</v>
-      </c>
-      <c r="H12">
-        <f>ramping_data!G12</f>
-        <v>1</v>
-      </c>
-      <c r="I12">
-        <f>ramping_data!H12</f>
-        <v>0</v>
-      </c>
-      <c r="J12">
-        <f>ramping_data!I12</f>
-        <v>0</v>
-      </c>
-      <c r="K12">
-        <f>ramping_data!J12</f>
-        <v>0</v>
-      </c>
-      <c r="L12">
-        <f>ramping_data!K12</f>
-        <v>2.5</v>
-      </c>
-      <c r="M12">
-        <f>ramping_data!L12</f>
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" t="str">
-        <f>$A$1&amp;"_marine"</f>
-        <v>BAL_marine</v>
-      </c>
-      <c r="B13" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13">
-        <f>ramping_data!B13</f>
-        <v>1</v>
-      </c>
-      <c r="D13">
-        <f>ramping_data!C13</f>
-        <v>0</v>
-      </c>
-      <c r="E13">
-        <f>ramping_data!D13</f>
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <f>ramping_data!E13</f>
-        <v>0</v>
-      </c>
-      <c r="G13">
-        <f>ramping_data!F13</f>
-        <v>1</v>
-      </c>
-      <c r="H13">
-        <f>ramping_data!G13</f>
-        <v>1</v>
-      </c>
-      <c r="I13">
-        <f>ramping_data!H13</f>
-        <v>0</v>
-      </c>
-      <c r="J13">
-        <f>ramping_data!I13</f>
-        <v>0</v>
-      </c>
-      <c r="K13">
-        <f>ramping_data!J13</f>
-        <v>0</v>
-      </c>
-      <c r="L13">
-        <f>ramping_data!K13</f>
-        <v>0</v>
-      </c>
-      <c r="M13">
-        <f>ramping_data!L13</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" t="str">
-        <f>$A$1&amp;"_nuclear"</f>
-        <v>BAL_nuclear</v>
-      </c>
-      <c r="B14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14">
-        <f>ramping_data!B14</f>
-        <v>1</v>
-      </c>
-      <c r="D14">
-        <f>ramping_data!C14</f>
-        <v>0</v>
-      </c>
-      <c r="E14">
-        <f>ramping_data!D14</f>
-        <v>0.05</v>
-      </c>
-      <c r="F14">
-        <f>ramping_data!E14</f>
-        <v>0</v>
-      </c>
-      <c r="G14">
-        <f>ramping_data!F14</f>
-        <v>0.15</v>
-      </c>
-      <c r="H14">
-        <f>ramping_data!G14</f>
-        <v>0.15</v>
-      </c>
-      <c r="I14">
-        <f>ramping_data!H14</f>
-        <v>0.5</v>
-      </c>
-      <c r="J14">
-        <f>ramping_data!I14</f>
-        <v>0</v>
-      </c>
-      <c r="K14">
-        <f>ramping_data!J14</f>
-        <v>0</v>
-      </c>
-      <c r="L14">
-        <f>ramping_data!K14</f>
-        <v>35</v>
-      </c>
-      <c r="M14">
-        <f>ramping_data!L14</f>
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" t="str">
-        <f>$A$1&amp;"_other"</f>
-        <v>BAL_other</v>
-      </c>
-      <c r="B15" t="s">
-        <v>15</v>
-      </c>
-      <c r="C15">
-        <f>ramping_data!B15</f>
-        <v>1</v>
-      </c>
-      <c r="D15">
-        <f>ramping_data!C15</f>
-        <v>0</v>
-      </c>
-      <c r="E15">
-        <f>ramping_data!D15</f>
-        <v>1</v>
-      </c>
-      <c r="F15">
-        <f>ramping_data!E15</f>
-        <v>0</v>
-      </c>
-      <c r="G15">
-        <f>ramping_data!F15</f>
-        <v>1</v>
-      </c>
-      <c r="H15">
-        <f>ramping_data!G15</f>
-        <v>1</v>
-      </c>
-      <c r="I15">
-        <f>ramping_data!H15</f>
-        <v>0</v>
-      </c>
-      <c r="J15">
-        <f>ramping_data!I15</f>
-        <v>1</v>
-      </c>
-      <c r="K15">
-        <f>ramping_data!J15</f>
-        <v>1</v>
-      </c>
-      <c r="L15">
-        <f>ramping_data!K15</f>
-        <v>0</v>
-      </c>
-      <c r="M15">
-        <f>ramping_data!L15</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" t="str">
-        <f>$A$1&amp;"_other-ren"</f>
-        <v>BAL_other-ren</v>
-      </c>
-      <c r="B16" t="s">
-        <v>16</v>
-      </c>
-      <c r="C16">
-        <f>ramping_data!B16</f>
-        <v>1</v>
-      </c>
-      <c r="D16">
-        <f>ramping_data!C16</f>
-        <v>0</v>
-      </c>
-      <c r="E16">
-        <f>ramping_data!D16</f>
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <f>ramping_data!E16</f>
-        <v>0</v>
-      </c>
-      <c r="G16">
-        <f>ramping_data!F16</f>
-        <v>1</v>
-      </c>
-      <c r="H16">
-        <f>ramping_data!G16</f>
-        <v>1</v>
-      </c>
-      <c r="I16">
-        <f>ramping_data!H16</f>
-        <v>0</v>
-      </c>
-      <c r="J16">
-        <f>ramping_data!I16</f>
-        <v>0</v>
-      </c>
-      <c r="K16">
-        <f>ramping_data!J16</f>
-        <v>0</v>
-      </c>
-      <c r="L16">
-        <f>ramping_data!K16</f>
-        <v>0</v>
-      </c>
-      <c r="M16">
-        <f>ramping_data!L16</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" t="str">
-        <f>$A$1&amp;"_solar"</f>
-        <v>BAL_solar</v>
-      </c>
-      <c r="B17" t="s">
-        <v>17</v>
-      </c>
-      <c r="C17">
-        <f>ramping_data!B17</f>
-        <v>1</v>
-      </c>
-      <c r="D17">
-        <f>ramping_data!C17</f>
-        <v>0</v>
-      </c>
-      <c r="E17">
-        <f>ramping_data!D17</f>
-        <v>1</v>
-      </c>
-      <c r="F17">
-        <f>ramping_data!E17</f>
-        <v>0</v>
-      </c>
-      <c r="G17">
-        <f>ramping_data!F17</f>
-        <v>1</v>
-      </c>
-      <c r="H17">
-        <f>ramping_data!G17</f>
-        <v>1</v>
-      </c>
-      <c r="I17">
-        <f>ramping_data!H17</f>
-        <v>0</v>
-      </c>
-      <c r="J17">
-        <f>ramping_data!I17</f>
-        <v>0</v>
-      </c>
-      <c r="K17">
-        <f>ramping_data!J17</f>
-        <v>0</v>
-      </c>
-      <c r="L17">
-        <f>ramping_data!K17</f>
-        <v>0</v>
-      </c>
-      <c r="M17">
-        <f>ramping_data!L17</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" t="str">
-        <f>$A$1&amp;"_waste"</f>
-        <v>BAL_waste</v>
-      </c>
-      <c r="B18" t="s">
-        <v>18</v>
-      </c>
-      <c r="C18">
-        <f>ramping_data!B18</f>
-        <v>1</v>
-      </c>
-      <c r="D18">
-        <f>ramping_data!C18</f>
-        <v>0</v>
-      </c>
-      <c r="E18">
-        <f>ramping_data!D18</f>
-        <v>1</v>
-      </c>
-      <c r="F18">
-        <f>ramping_data!E18</f>
-        <v>0</v>
-      </c>
-      <c r="G18">
-        <f>ramping_data!F18</f>
-        <v>1</v>
-      </c>
-      <c r="H18">
-        <f>ramping_data!G18</f>
-        <v>1</v>
-      </c>
-      <c r="I18">
-        <f>ramping_data!H18</f>
-        <v>0.2</v>
-      </c>
-      <c r="J18">
-        <f>ramping_data!I18</f>
-        <v>1.8</v>
-      </c>
-      <c r="K18">
-        <f>ramping_data!J18</f>
-        <v>1.8</v>
-      </c>
-      <c r="L18">
-        <f>ramping_data!K18</f>
-        <v>36</v>
-      </c>
-      <c r="M18">
-        <f>ramping_data!L18</f>
-        <v>17.5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" t="str">
-        <f>$A$1&amp;"_wind-off"</f>
-        <v>BAL_wind-off</v>
-      </c>
-      <c r="B19" t="s">
-        <v>19</v>
-      </c>
-      <c r="C19">
-        <f>ramping_data!B19</f>
-        <v>1</v>
-      </c>
-      <c r="D19">
-        <f>ramping_data!C19</f>
-        <v>0</v>
-      </c>
-      <c r="E19">
-        <f>ramping_data!D19</f>
-        <v>1</v>
-      </c>
-      <c r="F19">
-        <f>ramping_data!E19</f>
-        <v>0</v>
-      </c>
-      <c r="G19">
-        <f>ramping_data!F19</f>
-        <v>1</v>
-      </c>
-      <c r="H19">
-        <f>ramping_data!G19</f>
-        <v>1</v>
-      </c>
-      <c r="I19">
-        <f>ramping_data!H19</f>
-        <v>0</v>
-      </c>
-      <c r="J19">
-        <f>ramping_data!I19</f>
-        <v>0</v>
-      </c>
-      <c r="K19">
-        <f>ramping_data!J19</f>
-        <v>0</v>
-      </c>
-      <c r="L19">
-        <f>ramping_data!K19</f>
-        <v>0</v>
-      </c>
-      <c r="M19">
-        <f>ramping_data!L19</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" t="str">
-        <f>$A$1&amp;"_wind-on"</f>
-        <v>BAL_wind-on</v>
-      </c>
-      <c r="B20" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20">
-        <f>ramping_data!B20</f>
-        <v>1</v>
-      </c>
-      <c r="D20">
-        <f>ramping_data!C20</f>
-        <v>0</v>
-      </c>
-      <c r="E20">
-        <f>ramping_data!D20</f>
-        <v>1</v>
-      </c>
-      <c r="F20">
-        <f>ramping_data!E20</f>
-        <v>0</v>
-      </c>
-      <c r="G20">
-        <f>ramping_data!F20</f>
-        <v>1</v>
-      </c>
-      <c r="H20">
-        <f>ramping_data!G20</f>
-        <v>1</v>
-      </c>
-      <c r="I20">
-        <f>ramping_data!H20</f>
-        <v>0</v>
-      </c>
-      <c r="J20">
-        <f>ramping_data!I20</f>
-        <v>0</v>
-      </c>
-      <c r="K20">
-        <f>ramping_data!J20</f>
-        <v>0</v>
-      </c>
-      <c r="L20">
-        <f>ramping_data!K20</f>
-        <v>0</v>
-      </c>
-      <c r="M20">
-        <f>ramping_data!L20</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" t="str">
-        <f>$A$1&amp;"_hydro-reservoir"</f>
-        <v>BAL_hydro-reservoir</v>
-      </c>
-      <c r="B21" t="s">
-        <v>27</v>
-      </c>
-      <c r="C21">
-        <f>ramping_data!B21</f>
-        <v>1</v>
-      </c>
-      <c r="D21">
-        <f>ramping_data!C21</f>
-        <v>0</v>
-      </c>
-      <c r="E21">
-        <f>ramping_data!D21</f>
-        <v>0.4</v>
-      </c>
-      <c r="F21">
-        <f>ramping_data!E21</f>
-        <v>0</v>
-      </c>
-      <c r="G21">
-        <f>ramping_data!F21</f>
-        <v>1</v>
-      </c>
-      <c r="H21">
-        <f>ramping_data!G21</f>
-        <v>1</v>
-      </c>
-      <c r="I21">
-        <f>ramping_data!H21</f>
-        <v>0.3</v>
-      </c>
-      <c r="J21">
-        <f>ramping_data!I21</f>
-        <v>0</v>
-      </c>
-      <c r="K21">
-        <f>ramping_data!J21</f>
-        <v>0</v>
-      </c>
-      <c r="L21">
-        <f>ramping_data!K21</f>
-        <v>2.5</v>
-      </c>
-      <c r="M21">
-        <f>ramping_data!L21</f>
-        <v>0.25</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F09CC386-88C9-544E-99C3-482192C10718}">
   <dimension ref="A1:M21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2697,6 +1565,1138 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L1" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="M1" s="8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" t="str">
+        <f>$A$1&amp;"_biomass"</f>
+        <v>BAL_biomass</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2">
+        <f>IF(ramping_data!B2&lt;&gt;0,ramping_data!B2,"")</f>
+        <v>1</v>
+      </c>
+      <c r="D2" t="str">
+        <f>IF(ramping_data!C2&lt;&gt;0,ramping_data!C2,"")</f>
+        <v/>
+      </c>
+      <c r="E2">
+        <f>IF(ramping_data!D2&lt;&gt;0,ramping_data!D2,"")</f>
+        <v>1</v>
+      </c>
+      <c r="F2" t="str">
+        <f>IF(ramping_data!E2&lt;&gt;0,ramping_data!E2,"")</f>
+        <v/>
+      </c>
+      <c r="G2">
+        <f>IF(ramping_data!F2&lt;&gt;0,ramping_data!F2,"")</f>
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <f>IF(ramping_data!G2&lt;&gt;0,ramping_data!G2,"")</f>
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <f>IF(ramping_data!H2&lt;&gt;0,ramping_data!H2,"")</f>
+        <v>0.2</v>
+      </c>
+      <c r="J2">
+        <f>IF(ramping_data!I2&lt;&gt;0,ramping_data!I2,"")</f>
+        <v>1.8</v>
+      </c>
+      <c r="K2">
+        <f>IF(ramping_data!J2&lt;&gt;0,ramping_data!J2,"")</f>
+        <v>1.8</v>
+      </c>
+      <c r="L2">
+        <f>IF(ramping_data!K2&lt;&gt;0,ramping_data!K2,"")</f>
+        <v>36</v>
+      </c>
+      <c r="M2">
+        <f>IF(ramping_data!L2&lt;&gt;0,ramping_data!L2,"")</f>
+        <v>17.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" t="str">
+        <f>$A$1&amp;"_brown-coal_lignite"</f>
+        <v>BAL_brown-coal_lignite</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3">
+        <f>IF(ramping_data!B3&lt;&gt;0,ramping_data!B3,"")</f>
+        <v>1</v>
+      </c>
+      <c r="D3" t="str">
+        <f>IF(ramping_data!C3&lt;&gt;0,ramping_data!C3,"")</f>
+        <v/>
+      </c>
+      <c r="E3">
+        <f>IF(ramping_data!D3&lt;&gt;0,ramping_data!D3,"")</f>
+        <v>0.5</v>
+      </c>
+      <c r="F3" t="str">
+        <f>IF(ramping_data!E3&lt;&gt;0,ramping_data!E3,"")</f>
+        <v/>
+      </c>
+      <c r="G3">
+        <f>IF(ramping_data!F3&lt;&gt;0,ramping_data!F3,"")</f>
+        <v>0.5</v>
+      </c>
+      <c r="H3">
+        <f>IF(ramping_data!G3&lt;&gt;0,ramping_data!G3,"")</f>
+        <v>0.5</v>
+      </c>
+      <c r="I3">
+        <f>IF(ramping_data!H3&lt;&gt;0,ramping_data!H3,"")</f>
+        <v>0.4</v>
+      </c>
+      <c r="J3">
+        <f>IF(ramping_data!I3&lt;&gt;0,ramping_data!I3,"")</f>
+        <v>1.8</v>
+      </c>
+      <c r="K3">
+        <f>IF(ramping_data!J3&lt;&gt;0,ramping_data!J3,"")</f>
+        <v>1.8</v>
+      </c>
+      <c r="L3">
+        <f>IF(ramping_data!K3&lt;&gt;0,ramping_data!K3,"")</f>
+        <v>58</v>
+      </c>
+      <c r="M3">
+        <f>IF(ramping_data!L3&lt;&gt;0,ramping_data!L3,"")</f>
+        <v>17.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" t="str">
+        <f>$A$1&amp;"_gas-coal-derived"</f>
+        <v>BAL_gas-coal-derived</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <f>IF(ramping_data!B4&lt;&gt;0,ramping_data!B4,"")</f>
+        <v>1</v>
+      </c>
+      <c r="D4" t="str">
+        <f>IF(ramping_data!C4&lt;&gt;0,ramping_data!C4,"")</f>
+        <v/>
+      </c>
+      <c r="E4">
+        <f>IF(ramping_data!D4&lt;&gt;0,ramping_data!D4,"")</f>
+        <v>0.5</v>
+      </c>
+      <c r="F4" t="str">
+        <f>IF(ramping_data!E4&lt;&gt;0,ramping_data!E4,"")</f>
+        <v/>
+      </c>
+      <c r="G4">
+        <f>IF(ramping_data!F4&lt;&gt;0,ramping_data!F4,"")</f>
+        <v>0.5</v>
+      </c>
+      <c r="H4">
+        <f>IF(ramping_data!G4&lt;&gt;0,ramping_data!G4,"")</f>
+        <v>0.5</v>
+      </c>
+      <c r="I4">
+        <f>IF(ramping_data!H4&lt;&gt;0,ramping_data!H4,"")</f>
+        <v>0.4</v>
+      </c>
+      <c r="J4">
+        <f>IF(ramping_data!I4&lt;&gt;0,ramping_data!I4,"")</f>
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="K4">
+        <f>IF(ramping_data!J4&lt;&gt;0,ramping_data!J4,"")</f>
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="L4">
+        <f>IF(ramping_data!K4&lt;&gt;0,ramping_data!K4,"")</f>
+        <v>85</v>
+      </c>
+      <c r="M4">
+        <f>IF(ramping_data!L4&lt;&gt;0,ramping_data!L4,"")</f>
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" t="str">
+        <f>$A$1&amp;"_gas"</f>
+        <v>BAL_gas</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5">
+        <f>IF(ramping_data!B5&lt;&gt;0,ramping_data!B5,"")</f>
+        <v>1</v>
+      </c>
+      <c r="D5" t="str">
+        <f>IF(ramping_data!C5&lt;&gt;0,ramping_data!C5,"")</f>
+        <v/>
+      </c>
+      <c r="E5">
+        <f>IF(ramping_data!D5&lt;&gt;0,ramping_data!D5,"")</f>
+        <v>0.5</v>
+      </c>
+      <c r="F5" t="str">
+        <f>IF(ramping_data!E5&lt;&gt;0,ramping_data!E5,"")</f>
+        <v/>
+      </c>
+      <c r="G5">
+        <f>IF(ramping_data!F5&lt;&gt;0,ramping_data!F5,"")</f>
+        <v>0.5</v>
+      </c>
+      <c r="H5">
+        <f>IF(ramping_data!G5&lt;&gt;0,ramping_data!G5,"")</f>
+        <v>0.5</v>
+      </c>
+      <c r="I5">
+        <f>IF(ramping_data!H5&lt;&gt;0,ramping_data!H5,"")</f>
+        <v>0.4</v>
+      </c>
+      <c r="J5">
+        <f>IF(ramping_data!I5&lt;&gt;0,ramping_data!I5,"")</f>
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="K5">
+        <f>IF(ramping_data!J5&lt;&gt;0,ramping_data!J5,"")</f>
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="L5">
+        <f>IF(ramping_data!K5&lt;&gt;0,ramping_data!K5,"")</f>
+        <v>85</v>
+      </c>
+      <c r="M5">
+        <f>IF(ramping_data!L5&lt;&gt;0,ramping_data!L5,"")</f>
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" t="str">
+        <f>$A$1&amp;"_hard-coal"</f>
+        <v>BAL_hard-coal</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6">
+        <f>IF(ramping_data!B6&lt;&gt;0,ramping_data!B6,"")</f>
+        <v>1</v>
+      </c>
+      <c r="D6" t="str">
+        <f>IF(ramping_data!C6&lt;&gt;0,ramping_data!C6,"")</f>
+        <v/>
+      </c>
+      <c r="E6">
+        <f>IF(ramping_data!D6&lt;&gt;0,ramping_data!D6,"")</f>
+        <v>0.3</v>
+      </c>
+      <c r="F6" t="str">
+        <f>IF(ramping_data!E6&lt;&gt;0,ramping_data!E6,"")</f>
+        <v/>
+      </c>
+      <c r="G6">
+        <f>IF(ramping_data!F6&lt;&gt;0,ramping_data!F6,"")</f>
+        <v>0.5</v>
+      </c>
+      <c r="H6">
+        <f>IF(ramping_data!G6&lt;&gt;0,ramping_data!G6,"")</f>
+        <v>0.5</v>
+      </c>
+      <c r="I6">
+        <f>IF(ramping_data!H6&lt;&gt;0,ramping_data!H6,"")</f>
+        <v>0.25</v>
+      </c>
+      <c r="J6">
+        <f>IF(ramping_data!I6&lt;&gt;0,ramping_data!I6,"")</f>
+        <v>1.8</v>
+      </c>
+      <c r="K6">
+        <f>IF(ramping_data!J6&lt;&gt;0,ramping_data!J6,"")</f>
+        <v>1.8</v>
+      </c>
+      <c r="L6">
+        <f>IF(ramping_data!K6&lt;&gt;0,ramping_data!K6,"")</f>
+        <v>35</v>
+      </c>
+      <c r="M6">
+        <f>IF(ramping_data!L6&lt;&gt;0,ramping_data!L6,"")</f>
+        <v>17.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" t="str">
+        <f>$A$1&amp;"_oil"</f>
+        <v>BAL_oil</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7">
+        <f>IF(ramping_data!B7&lt;&gt;0,ramping_data!B7,"")</f>
+        <v>1</v>
+      </c>
+      <c r="D7" t="str">
+        <f>IF(ramping_data!C7&lt;&gt;0,ramping_data!C7,"")</f>
+        <v/>
+      </c>
+      <c r="E7">
+        <f>IF(ramping_data!D7&lt;&gt;0,ramping_data!D7,"")</f>
+        <v>1</v>
+      </c>
+      <c r="F7" t="str">
+        <f>IF(ramping_data!E7&lt;&gt;0,ramping_data!E7,"")</f>
+        <v/>
+      </c>
+      <c r="G7">
+        <f>IF(ramping_data!F7&lt;&gt;0,ramping_data!F7,"")</f>
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <f>IF(ramping_data!G7&lt;&gt;0,ramping_data!G7,"")</f>
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <f>IF(ramping_data!H7&lt;&gt;0,ramping_data!H7,"")</f>
+        <v>0.3</v>
+      </c>
+      <c r="J7">
+        <f>IF(ramping_data!I7&lt;&gt;0,ramping_data!I7,"")</f>
+        <v>1.8</v>
+      </c>
+      <c r="K7">
+        <f>IF(ramping_data!J7&lt;&gt;0,ramping_data!J7,"")</f>
+        <v>1.8</v>
+      </c>
+      <c r="L7">
+        <f>IF(ramping_data!K7&lt;&gt;0,ramping_data!K7,"")</f>
+        <v>46</v>
+      </c>
+      <c r="M7">
+        <f>IF(ramping_data!L7&lt;&gt;0,ramping_data!L7,"")</f>
+        <v>17.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" t="str">
+        <f>$A$1&amp;"_oil-shale"</f>
+        <v>BAL_oil-shale</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8">
+        <f>IF(ramping_data!B8&lt;&gt;0,ramping_data!B8,"")</f>
+        <v>1</v>
+      </c>
+      <c r="D8" t="str">
+        <f>IF(ramping_data!C8&lt;&gt;0,ramping_data!C8,"")</f>
+        <v/>
+      </c>
+      <c r="E8">
+        <f>IF(ramping_data!D8&lt;&gt;0,ramping_data!D8,"")</f>
+        <v>1</v>
+      </c>
+      <c r="F8" t="str">
+        <f>IF(ramping_data!E8&lt;&gt;0,ramping_data!E8,"")</f>
+        <v/>
+      </c>
+      <c r="G8">
+        <f>IF(ramping_data!F8&lt;&gt;0,ramping_data!F8,"")</f>
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <f>IF(ramping_data!G8&lt;&gt;0,ramping_data!G8,"")</f>
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <f>IF(ramping_data!H8&lt;&gt;0,ramping_data!H8,"")</f>
+        <v>0.3</v>
+      </c>
+      <c r="J8">
+        <f>IF(ramping_data!I8&lt;&gt;0,ramping_data!I8,"")</f>
+        <v>1.8</v>
+      </c>
+      <c r="K8">
+        <f>IF(ramping_data!J8&lt;&gt;0,ramping_data!J8,"")</f>
+        <v>1.8</v>
+      </c>
+      <c r="L8">
+        <f>IF(ramping_data!K8&lt;&gt;0,ramping_data!K8,"")</f>
+        <v>46</v>
+      </c>
+      <c r="M8">
+        <f>IF(ramping_data!L8&lt;&gt;0,ramping_data!L8,"")</f>
+        <v>17.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" t="str">
+        <f>$A$1&amp;"_peat"</f>
+        <v>BAL_peat</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9">
+        <f>IF(ramping_data!B9&lt;&gt;0,ramping_data!B9,"")</f>
+        <v>1</v>
+      </c>
+      <c r="D9" t="str">
+        <f>IF(ramping_data!C9&lt;&gt;0,ramping_data!C9,"")</f>
+        <v/>
+      </c>
+      <c r="E9">
+        <f>IF(ramping_data!D9&lt;&gt;0,ramping_data!D9,"")</f>
+        <v>1</v>
+      </c>
+      <c r="F9" t="str">
+        <f>IF(ramping_data!E9&lt;&gt;0,ramping_data!E9,"")</f>
+        <v/>
+      </c>
+      <c r="G9">
+        <f>IF(ramping_data!F9&lt;&gt;0,ramping_data!F9,"")</f>
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <f>IF(ramping_data!G9&lt;&gt;0,ramping_data!G9,"")</f>
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <f>IF(ramping_data!H9&lt;&gt;0,ramping_data!H9,"")</f>
+        <v>0.2</v>
+      </c>
+      <c r="J9">
+        <f>IF(ramping_data!I9&lt;&gt;0,ramping_data!I9,"")</f>
+        <v>1.8</v>
+      </c>
+      <c r="K9">
+        <f>IF(ramping_data!J9&lt;&gt;0,ramping_data!J9,"")</f>
+        <v>1.8</v>
+      </c>
+      <c r="L9">
+        <f>IF(ramping_data!K9&lt;&gt;0,ramping_data!K9,"")</f>
+        <v>58</v>
+      </c>
+      <c r="M9">
+        <f>IF(ramping_data!L9&lt;&gt;0,ramping_data!L9,"")</f>
+        <v>17.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" t="str">
+        <f>$A$1&amp;"_geothermal"</f>
+        <v>BAL_geothermal</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10">
+        <f>IF(ramping_data!B10&lt;&gt;0,ramping_data!B10,"")</f>
+        <v>1</v>
+      </c>
+      <c r="D10" t="str">
+        <f>IF(ramping_data!C10&lt;&gt;0,ramping_data!C10,"")</f>
+        <v/>
+      </c>
+      <c r="E10">
+        <f>IF(ramping_data!D10&lt;&gt;0,ramping_data!D10,"")</f>
+        <v>1</v>
+      </c>
+      <c r="F10" t="str">
+        <f>IF(ramping_data!E10&lt;&gt;0,ramping_data!E10,"")</f>
+        <v/>
+      </c>
+      <c r="G10">
+        <f>IF(ramping_data!F10&lt;&gt;0,ramping_data!F10,"")</f>
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <f>IF(ramping_data!G10&lt;&gt;0,ramping_data!G10,"")</f>
+        <v>1</v>
+      </c>
+      <c r="I10" t="str">
+        <f>IF(ramping_data!H10&lt;&gt;0,ramping_data!H10,"")</f>
+        <v/>
+      </c>
+      <c r="J10" t="str">
+        <f>IF(ramping_data!I10&lt;&gt;0,ramping_data!I10,"")</f>
+        <v/>
+      </c>
+      <c r="K10" t="str">
+        <f>IF(ramping_data!J10&lt;&gt;0,ramping_data!J10,"")</f>
+        <v/>
+      </c>
+      <c r="L10" t="str">
+        <f>IF(ramping_data!K10&lt;&gt;0,ramping_data!K10,"")</f>
+        <v/>
+      </c>
+      <c r="M10" t="str">
+        <f>IF(ramping_data!L10&lt;&gt;0,ramping_data!L10,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" t="str">
+        <f>$A$1&amp;"_hydro-pumped"</f>
+        <v>BAL_hydro-pumped</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11">
+        <f>IF(ramping_data!B11&lt;&gt;0,ramping_data!B11,"")</f>
+        <v>1</v>
+      </c>
+      <c r="D11" t="str">
+        <f>IF(ramping_data!C11&lt;&gt;0,ramping_data!C11,"")</f>
+        <v/>
+      </c>
+      <c r="E11">
+        <f>IF(ramping_data!D11&lt;&gt;0,ramping_data!D11,"")</f>
+        <v>1</v>
+      </c>
+      <c r="F11" t="str">
+        <f>IF(ramping_data!E11&lt;&gt;0,ramping_data!E11,"")</f>
+        <v/>
+      </c>
+      <c r="G11">
+        <f>IF(ramping_data!F11&lt;&gt;0,ramping_data!F11,"")</f>
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <f>IF(ramping_data!G11&lt;&gt;0,ramping_data!G11,"")</f>
+        <v>1</v>
+      </c>
+      <c r="I11">
+        <f>IF(ramping_data!H11&lt;&gt;0,ramping_data!H11,"")</f>
+        <v>0.3</v>
+      </c>
+      <c r="J11" t="str">
+        <f>IF(ramping_data!I11&lt;&gt;0,ramping_data!I11,"")</f>
+        <v/>
+      </c>
+      <c r="K11" t="str">
+        <f>IF(ramping_data!J11&lt;&gt;0,ramping_data!J11,"")</f>
+        <v/>
+      </c>
+      <c r="L11">
+        <f>IF(ramping_data!K11&lt;&gt;0,ramping_data!K11,"")</f>
+        <v>2.5</v>
+      </c>
+      <c r="M11">
+        <f>IF(ramping_data!L11&lt;&gt;0,ramping_data!L11,"")</f>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" t="str">
+        <f>$A$1&amp;"_hydro-ror"</f>
+        <v>BAL_hydro-ror</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12">
+        <f>IF(ramping_data!B12&lt;&gt;0,ramping_data!B12,"")</f>
+        <v>1</v>
+      </c>
+      <c r="D12" t="str">
+        <f>IF(ramping_data!C12&lt;&gt;0,ramping_data!C12,"")</f>
+        <v/>
+      </c>
+      <c r="E12">
+        <f>IF(ramping_data!D12&lt;&gt;0,ramping_data!D12,"")</f>
+        <v>1</v>
+      </c>
+      <c r="F12" t="str">
+        <f>IF(ramping_data!E12&lt;&gt;0,ramping_data!E12,"")</f>
+        <v/>
+      </c>
+      <c r="G12">
+        <f>IF(ramping_data!F12&lt;&gt;0,ramping_data!F12,"")</f>
+        <v>1</v>
+      </c>
+      <c r="H12">
+        <f>IF(ramping_data!G12&lt;&gt;0,ramping_data!G12,"")</f>
+        <v>1</v>
+      </c>
+      <c r="I12" t="str">
+        <f>IF(ramping_data!H12&lt;&gt;0,ramping_data!H12,"")</f>
+        <v/>
+      </c>
+      <c r="J12" t="str">
+        <f>IF(ramping_data!I12&lt;&gt;0,ramping_data!I12,"")</f>
+        <v/>
+      </c>
+      <c r="K12" t="str">
+        <f>IF(ramping_data!J12&lt;&gt;0,ramping_data!J12,"")</f>
+        <v/>
+      </c>
+      <c r="L12">
+        <f>IF(ramping_data!K12&lt;&gt;0,ramping_data!K12,"")</f>
+        <v>2.5</v>
+      </c>
+      <c r="M12">
+        <f>IF(ramping_data!L12&lt;&gt;0,ramping_data!L12,"")</f>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" t="str">
+        <f>$A$1&amp;"_marine"</f>
+        <v>BAL_marine</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13">
+        <f>IF(ramping_data!B13&lt;&gt;0,ramping_data!B13,"")</f>
+        <v>1</v>
+      </c>
+      <c r="D13" t="str">
+        <f>IF(ramping_data!C13&lt;&gt;0,ramping_data!C13,"")</f>
+        <v/>
+      </c>
+      <c r="E13">
+        <f>IF(ramping_data!D13&lt;&gt;0,ramping_data!D13,"")</f>
+        <v>1</v>
+      </c>
+      <c r="F13" t="str">
+        <f>IF(ramping_data!E13&lt;&gt;0,ramping_data!E13,"")</f>
+        <v/>
+      </c>
+      <c r="G13">
+        <f>IF(ramping_data!F13&lt;&gt;0,ramping_data!F13,"")</f>
+        <v>1</v>
+      </c>
+      <c r="H13">
+        <f>IF(ramping_data!G13&lt;&gt;0,ramping_data!G13,"")</f>
+        <v>1</v>
+      </c>
+      <c r="I13" t="str">
+        <f>IF(ramping_data!H13&lt;&gt;0,ramping_data!H13,"")</f>
+        <v/>
+      </c>
+      <c r="J13" t="str">
+        <f>IF(ramping_data!I13&lt;&gt;0,ramping_data!I13,"")</f>
+        <v/>
+      </c>
+      <c r="K13" t="str">
+        <f>IF(ramping_data!J13&lt;&gt;0,ramping_data!J13,"")</f>
+        <v/>
+      </c>
+      <c r="L13" t="str">
+        <f>IF(ramping_data!K13&lt;&gt;0,ramping_data!K13,"")</f>
+        <v/>
+      </c>
+      <c r="M13" t="str">
+        <f>IF(ramping_data!L13&lt;&gt;0,ramping_data!L13,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" t="str">
+        <f>$A$1&amp;"_nuclear"</f>
+        <v>BAL_nuclear</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14">
+        <f>IF(ramping_data!B14&lt;&gt;0,ramping_data!B14,"")</f>
+        <v>1</v>
+      </c>
+      <c r="D14" t="str">
+        <f>IF(ramping_data!C14&lt;&gt;0,ramping_data!C14,"")</f>
+        <v/>
+      </c>
+      <c r="E14">
+        <f>IF(ramping_data!D14&lt;&gt;0,ramping_data!D14,"")</f>
+        <v>0.05</v>
+      </c>
+      <c r="F14" t="str">
+        <f>IF(ramping_data!E14&lt;&gt;0,ramping_data!E14,"")</f>
+        <v/>
+      </c>
+      <c r="G14">
+        <f>IF(ramping_data!F14&lt;&gt;0,ramping_data!F14,"")</f>
+        <v>0.15</v>
+      </c>
+      <c r="H14">
+        <f>IF(ramping_data!G14&lt;&gt;0,ramping_data!G14,"")</f>
+        <v>0.15</v>
+      </c>
+      <c r="I14">
+        <f>IF(ramping_data!H14&lt;&gt;0,ramping_data!H14,"")</f>
+        <v>0.5</v>
+      </c>
+      <c r="J14" t="str">
+        <f>IF(ramping_data!I14&lt;&gt;0,ramping_data!I14,"")</f>
+        <v/>
+      </c>
+      <c r="K14" t="str">
+        <f>IF(ramping_data!J14&lt;&gt;0,ramping_data!J14,"")</f>
+        <v/>
+      </c>
+      <c r="L14">
+        <f>IF(ramping_data!K14&lt;&gt;0,ramping_data!K14,"")</f>
+        <v>35</v>
+      </c>
+      <c r="M14">
+        <f>IF(ramping_data!L14&lt;&gt;0,ramping_data!L14,"")</f>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" t="str">
+        <f>$A$1&amp;"_other"</f>
+        <v>BAL_other</v>
+      </c>
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15">
+        <f>IF(ramping_data!B15&lt;&gt;0,ramping_data!B15,"")</f>
+        <v>1</v>
+      </c>
+      <c r="D15" t="str">
+        <f>IF(ramping_data!C15&lt;&gt;0,ramping_data!C15,"")</f>
+        <v/>
+      </c>
+      <c r="E15">
+        <f>IF(ramping_data!D15&lt;&gt;0,ramping_data!D15,"")</f>
+        <v>1</v>
+      </c>
+      <c r="F15" t="str">
+        <f>IF(ramping_data!E15&lt;&gt;0,ramping_data!E15,"")</f>
+        <v/>
+      </c>
+      <c r="G15">
+        <f>IF(ramping_data!F15&lt;&gt;0,ramping_data!F15,"")</f>
+        <v>1</v>
+      </c>
+      <c r="H15">
+        <f>IF(ramping_data!G15&lt;&gt;0,ramping_data!G15,"")</f>
+        <v>1</v>
+      </c>
+      <c r="I15" t="str">
+        <f>IF(ramping_data!H15&lt;&gt;0,ramping_data!H15,"")</f>
+        <v/>
+      </c>
+      <c r="J15">
+        <f>IF(ramping_data!I15&lt;&gt;0,ramping_data!I15,"")</f>
+        <v>1</v>
+      </c>
+      <c r="K15">
+        <f>IF(ramping_data!J15&lt;&gt;0,ramping_data!J15,"")</f>
+        <v>1</v>
+      </c>
+      <c r="L15" t="str">
+        <f>IF(ramping_data!K15&lt;&gt;0,ramping_data!K15,"")</f>
+        <v/>
+      </c>
+      <c r="M15" t="str">
+        <f>IF(ramping_data!L15&lt;&gt;0,ramping_data!L15,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" t="str">
+        <f>$A$1&amp;"_other-ren"</f>
+        <v>BAL_other-ren</v>
+      </c>
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16">
+        <f>IF(ramping_data!B16&lt;&gt;0,ramping_data!B16,"")</f>
+        <v>1</v>
+      </c>
+      <c r="D16" t="str">
+        <f>IF(ramping_data!C16&lt;&gt;0,ramping_data!C16,"")</f>
+        <v/>
+      </c>
+      <c r="E16">
+        <f>IF(ramping_data!D16&lt;&gt;0,ramping_data!D16,"")</f>
+        <v>1</v>
+      </c>
+      <c r="F16" t="str">
+        <f>IF(ramping_data!E16&lt;&gt;0,ramping_data!E16,"")</f>
+        <v/>
+      </c>
+      <c r="G16">
+        <f>IF(ramping_data!F16&lt;&gt;0,ramping_data!F16,"")</f>
+        <v>1</v>
+      </c>
+      <c r="H16">
+        <f>IF(ramping_data!G16&lt;&gt;0,ramping_data!G16,"")</f>
+        <v>1</v>
+      </c>
+      <c r="I16" t="str">
+        <f>IF(ramping_data!H16&lt;&gt;0,ramping_data!H16,"")</f>
+        <v/>
+      </c>
+      <c r="J16" t="str">
+        <f>IF(ramping_data!I16&lt;&gt;0,ramping_data!I16,"")</f>
+        <v/>
+      </c>
+      <c r="K16" t="str">
+        <f>IF(ramping_data!J16&lt;&gt;0,ramping_data!J16,"")</f>
+        <v/>
+      </c>
+      <c r="L16" t="str">
+        <f>IF(ramping_data!K16&lt;&gt;0,ramping_data!K16,"")</f>
+        <v/>
+      </c>
+      <c r="M16" t="str">
+        <f>IF(ramping_data!L16&lt;&gt;0,ramping_data!L16,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" t="str">
+        <f>$A$1&amp;"_solar"</f>
+        <v>BAL_solar</v>
+      </c>
+      <c r="B17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17">
+        <f>IF(ramping_data!B17&lt;&gt;0,ramping_data!B17,"")</f>
+        <v>1</v>
+      </c>
+      <c r="D17" t="str">
+        <f>IF(ramping_data!C17&lt;&gt;0,ramping_data!C17,"")</f>
+        <v/>
+      </c>
+      <c r="E17">
+        <f>IF(ramping_data!D17&lt;&gt;0,ramping_data!D17,"")</f>
+        <v>1</v>
+      </c>
+      <c r="F17" t="str">
+        <f>IF(ramping_data!E17&lt;&gt;0,ramping_data!E17,"")</f>
+        <v/>
+      </c>
+      <c r="G17">
+        <f>IF(ramping_data!F17&lt;&gt;0,ramping_data!F17,"")</f>
+        <v>1</v>
+      </c>
+      <c r="H17">
+        <f>IF(ramping_data!G17&lt;&gt;0,ramping_data!G17,"")</f>
+        <v>1</v>
+      </c>
+      <c r="I17" t="str">
+        <f>IF(ramping_data!H17&lt;&gt;0,ramping_data!H17,"")</f>
+        <v/>
+      </c>
+      <c r="J17" t="str">
+        <f>IF(ramping_data!I17&lt;&gt;0,ramping_data!I17,"")</f>
+        <v/>
+      </c>
+      <c r="K17" t="str">
+        <f>IF(ramping_data!J17&lt;&gt;0,ramping_data!J17,"")</f>
+        <v/>
+      </c>
+      <c r="L17" t="str">
+        <f>IF(ramping_data!K17&lt;&gt;0,ramping_data!K17,"")</f>
+        <v/>
+      </c>
+      <c r="M17" t="str">
+        <f>IF(ramping_data!L17&lt;&gt;0,ramping_data!L17,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" t="str">
+        <f>$A$1&amp;"_waste"</f>
+        <v>BAL_waste</v>
+      </c>
+      <c r="B18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18">
+        <f>IF(ramping_data!B18&lt;&gt;0,ramping_data!B18,"")</f>
+        <v>1</v>
+      </c>
+      <c r="D18" t="str">
+        <f>IF(ramping_data!C18&lt;&gt;0,ramping_data!C18,"")</f>
+        <v/>
+      </c>
+      <c r="E18">
+        <f>IF(ramping_data!D18&lt;&gt;0,ramping_data!D18,"")</f>
+        <v>1</v>
+      </c>
+      <c r="F18" t="str">
+        <f>IF(ramping_data!E18&lt;&gt;0,ramping_data!E18,"")</f>
+        <v/>
+      </c>
+      <c r="G18">
+        <f>IF(ramping_data!F18&lt;&gt;0,ramping_data!F18,"")</f>
+        <v>1</v>
+      </c>
+      <c r="H18">
+        <f>IF(ramping_data!G18&lt;&gt;0,ramping_data!G18,"")</f>
+        <v>1</v>
+      </c>
+      <c r="I18">
+        <f>IF(ramping_data!H18&lt;&gt;0,ramping_data!H18,"")</f>
+        <v>0.2</v>
+      </c>
+      <c r="J18">
+        <f>IF(ramping_data!I18&lt;&gt;0,ramping_data!I18,"")</f>
+        <v>1.8</v>
+      </c>
+      <c r="K18">
+        <f>IF(ramping_data!J18&lt;&gt;0,ramping_data!J18,"")</f>
+        <v>1.8</v>
+      </c>
+      <c r="L18">
+        <f>IF(ramping_data!K18&lt;&gt;0,ramping_data!K18,"")</f>
+        <v>36</v>
+      </c>
+      <c r="M18">
+        <f>IF(ramping_data!L18&lt;&gt;0,ramping_data!L18,"")</f>
+        <v>17.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" t="str">
+        <f>$A$1&amp;"_wind-off"</f>
+        <v>BAL_wind-off</v>
+      </c>
+      <c r="B19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19">
+        <f>IF(ramping_data!B19&lt;&gt;0,ramping_data!B19,"")</f>
+        <v>1</v>
+      </c>
+      <c r="D19" t="str">
+        <f>IF(ramping_data!C19&lt;&gt;0,ramping_data!C19,"")</f>
+        <v/>
+      </c>
+      <c r="E19">
+        <f>IF(ramping_data!D19&lt;&gt;0,ramping_data!D19,"")</f>
+        <v>1</v>
+      </c>
+      <c r="F19" t="str">
+        <f>IF(ramping_data!E19&lt;&gt;0,ramping_data!E19,"")</f>
+        <v/>
+      </c>
+      <c r="G19">
+        <f>IF(ramping_data!F19&lt;&gt;0,ramping_data!F19,"")</f>
+        <v>1</v>
+      </c>
+      <c r="H19">
+        <f>IF(ramping_data!G19&lt;&gt;0,ramping_data!G19,"")</f>
+        <v>1</v>
+      </c>
+      <c r="I19" t="str">
+        <f>IF(ramping_data!H19&lt;&gt;0,ramping_data!H19,"")</f>
+        <v/>
+      </c>
+      <c r="J19" t="str">
+        <f>IF(ramping_data!I19&lt;&gt;0,ramping_data!I19,"")</f>
+        <v/>
+      </c>
+      <c r="K19" t="str">
+        <f>IF(ramping_data!J19&lt;&gt;0,ramping_data!J19,"")</f>
+        <v/>
+      </c>
+      <c r="L19" t="str">
+        <f>IF(ramping_data!K19&lt;&gt;0,ramping_data!K19,"")</f>
+        <v/>
+      </c>
+      <c r="M19" t="str">
+        <f>IF(ramping_data!L19&lt;&gt;0,ramping_data!L19,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" t="str">
+        <f>$A$1&amp;"_wind-on"</f>
+        <v>BAL_wind-on</v>
+      </c>
+      <c r="B20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20">
+        <f>IF(ramping_data!B20&lt;&gt;0,ramping_data!B20,"")</f>
+        <v>1</v>
+      </c>
+      <c r="D20" t="str">
+        <f>IF(ramping_data!C20&lt;&gt;0,ramping_data!C20,"")</f>
+        <v/>
+      </c>
+      <c r="E20">
+        <f>IF(ramping_data!D20&lt;&gt;0,ramping_data!D20,"")</f>
+        <v>1</v>
+      </c>
+      <c r="F20" t="str">
+        <f>IF(ramping_data!E20&lt;&gt;0,ramping_data!E20,"")</f>
+        <v/>
+      </c>
+      <c r="G20">
+        <f>IF(ramping_data!F20&lt;&gt;0,ramping_data!F20,"")</f>
+        <v>1</v>
+      </c>
+      <c r="H20">
+        <f>IF(ramping_data!G20&lt;&gt;0,ramping_data!G20,"")</f>
+        <v>1</v>
+      </c>
+      <c r="I20" t="str">
+        <f>IF(ramping_data!H20&lt;&gt;0,ramping_data!H20,"")</f>
+        <v/>
+      </c>
+      <c r="J20" t="str">
+        <f>IF(ramping_data!I20&lt;&gt;0,ramping_data!I20,"")</f>
+        <v/>
+      </c>
+      <c r="K20" t="str">
+        <f>IF(ramping_data!J20&lt;&gt;0,ramping_data!J20,"")</f>
+        <v/>
+      </c>
+      <c r="L20" t="str">
+        <f>IF(ramping_data!K20&lt;&gt;0,ramping_data!K20,"")</f>
+        <v/>
+      </c>
+      <c r="M20" t="str">
+        <f>IF(ramping_data!L20&lt;&gt;0,ramping_data!L20,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" t="str">
+        <f>$A$1&amp;"_hydro-reservoir"</f>
+        <v>BAL_hydro-reservoir</v>
+      </c>
+      <c r="B21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C21">
+        <f>IF(ramping_data!B21&lt;&gt;0,ramping_data!B21,"")</f>
+        <v>1</v>
+      </c>
+      <c r="D21" t="str">
+        <f>IF(ramping_data!C21&lt;&gt;0,ramping_data!C21,"")</f>
+        <v/>
+      </c>
+      <c r="E21">
+        <f>IF(ramping_data!D21&lt;&gt;0,ramping_data!D21,"")</f>
+        <v>0.4</v>
+      </c>
+      <c r="F21" t="str">
+        <f>IF(ramping_data!E21&lt;&gt;0,ramping_data!E21,"")</f>
+        <v/>
+      </c>
+      <c r="G21">
+        <f>IF(ramping_data!F21&lt;&gt;0,ramping_data!F21,"")</f>
+        <v>1</v>
+      </c>
+      <c r="H21">
+        <f>IF(ramping_data!G21&lt;&gt;0,ramping_data!G21,"")</f>
+        <v>1</v>
+      </c>
+      <c r="I21">
+        <f>IF(ramping_data!H21&lt;&gt;0,ramping_data!H21,"")</f>
+        <v>0.3</v>
+      </c>
+      <c r="J21" t="str">
+        <f>IF(ramping_data!I21&lt;&gt;0,ramping_data!I21,"")</f>
+        <v/>
+      </c>
+      <c r="K21" t="str">
+        <f>IF(ramping_data!J21&lt;&gt;0,ramping_data!J21,"")</f>
+        <v/>
+      </c>
+      <c r="L21">
+        <f>IF(ramping_data!K21&lt;&gt;0,ramping_data!K21,"")</f>
+        <v>2.5</v>
+      </c>
+      <c r="M21">
+        <f>IF(ramping_data!L21&lt;&gt;0,ramping_data!L21,"")</f>
+        <v>0.25</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F09CC386-88C9-544E-99C3-482192C10718}">
+  <dimension ref="A1:M21"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:M21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="32.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="28.625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>29</v>
       </c>
       <c r="B1" t="s">
@@ -2745,47 +2745,47 @@
         <v>2</v>
       </c>
       <c r="C2">
-        <f>ramping_data!B2</f>
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <f>ramping_data!C2</f>
-        <v>0</v>
+        <f>IF(ramping_data!B2&lt;&gt;0,ramping_data!B2,"")</f>
+        <v>1</v>
+      </c>
+      <c r="D2" t="str">
+        <f>IF(ramping_data!C2&lt;&gt;0,ramping_data!C2,"")</f>
+        <v/>
       </c>
       <c r="E2">
-        <f>ramping_data!D2</f>
-        <v>1</v>
-      </c>
-      <c r="F2">
-        <f>ramping_data!E2</f>
-        <v>0</v>
+        <f>IF(ramping_data!D2&lt;&gt;0,ramping_data!D2,"")</f>
+        <v>1</v>
+      </c>
+      <c r="F2" t="str">
+        <f>IF(ramping_data!E2&lt;&gt;0,ramping_data!E2,"")</f>
+        <v/>
       </c>
       <c r="G2">
-        <f>ramping_data!F2</f>
+        <f>IF(ramping_data!F2&lt;&gt;0,ramping_data!F2,"")</f>
         <v>1</v>
       </c>
       <c r="H2">
-        <f>ramping_data!G2</f>
+        <f>IF(ramping_data!G2&lt;&gt;0,ramping_data!G2,"")</f>
         <v>1</v>
       </c>
       <c r="I2">
-        <f>ramping_data!H2</f>
+        <f>IF(ramping_data!H2&lt;&gt;0,ramping_data!H2,"")</f>
         <v>0.2</v>
       </c>
       <c r="J2">
-        <f>ramping_data!I2</f>
+        <f>IF(ramping_data!I2&lt;&gt;0,ramping_data!I2,"")</f>
         <v>1.8</v>
       </c>
       <c r="K2">
-        <f>ramping_data!J2</f>
+        <f>IF(ramping_data!J2&lt;&gt;0,ramping_data!J2,"")</f>
         <v>1.8</v>
       </c>
       <c r="L2">
-        <f>ramping_data!K2</f>
+        <f>IF(ramping_data!K2&lt;&gt;0,ramping_data!K2,"")</f>
         <v>36</v>
       </c>
       <c r="M2">
-        <f>ramping_data!L2</f>
+        <f>IF(ramping_data!L2&lt;&gt;0,ramping_data!L2,"")</f>
         <v>17.5</v>
       </c>
     </row>
@@ -2798,47 +2798,47 @@
         <v>3</v>
       </c>
       <c r="C3">
-        <f>ramping_data!B3</f>
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <f>ramping_data!C3</f>
-        <v>0</v>
+        <f>IF(ramping_data!B3&lt;&gt;0,ramping_data!B3,"")</f>
+        <v>1</v>
+      </c>
+      <c r="D3" t="str">
+        <f>IF(ramping_data!C3&lt;&gt;0,ramping_data!C3,"")</f>
+        <v/>
       </c>
       <c r="E3">
-        <f>ramping_data!D3</f>
+        <f>IF(ramping_data!D3&lt;&gt;0,ramping_data!D3,"")</f>
         <v>0.5</v>
       </c>
-      <c r="F3">
-        <f>ramping_data!E3</f>
-        <v>0</v>
+      <c r="F3" t="str">
+        <f>IF(ramping_data!E3&lt;&gt;0,ramping_data!E3,"")</f>
+        <v/>
       </c>
       <c r="G3">
-        <f>ramping_data!F3</f>
+        <f>IF(ramping_data!F3&lt;&gt;0,ramping_data!F3,"")</f>
         <v>0.5</v>
       </c>
       <c r="H3">
-        <f>ramping_data!G3</f>
+        <f>IF(ramping_data!G3&lt;&gt;0,ramping_data!G3,"")</f>
         <v>0.5</v>
       </c>
       <c r="I3">
-        <f>ramping_data!H3</f>
+        <f>IF(ramping_data!H3&lt;&gt;0,ramping_data!H3,"")</f>
         <v>0.4</v>
       </c>
       <c r="J3">
-        <f>ramping_data!I3</f>
+        <f>IF(ramping_data!I3&lt;&gt;0,ramping_data!I3,"")</f>
         <v>1.8</v>
       </c>
       <c r="K3">
-        <f>ramping_data!J3</f>
+        <f>IF(ramping_data!J3&lt;&gt;0,ramping_data!J3,"")</f>
         <v>1.8</v>
       </c>
       <c r="L3">
-        <f>ramping_data!K3</f>
+        <f>IF(ramping_data!K3&lt;&gt;0,ramping_data!K3,"")</f>
         <v>58</v>
       </c>
       <c r="M3">
-        <f>ramping_data!L3</f>
+        <f>IF(ramping_data!L3&lt;&gt;0,ramping_data!L3,"")</f>
         <v>17.5</v>
       </c>
     </row>
@@ -2851,47 +2851,47 @@
         <v>4</v>
       </c>
       <c r="C4">
-        <f>ramping_data!B4</f>
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <f>ramping_data!C4</f>
-        <v>0</v>
+        <f>IF(ramping_data!B4&lt;&gt;0,ramping_data!B4,"")</f>
+        <v>1</v>
+      </c>
+      <c r="D4" t="str">
+        <f>IF(ramping_data!C4&lt;&gt;0,ramping_data!C4,"")</f>
+        <v/>
       </c>
       <c r="E4">
-        <f>ramping_data!D4</f>
+        <f>IF(ramping_data!D4&lt;&gt;0,ramping_data!D4,"")</f>
         <v>0.5</v>
       </c>
-      <c r="F4">
-        <f>ramping_data!E4</f>
-        <v>0</v>
+      <c r="F4" t="str">
+        <f>IF(ramping_data!E4&lt;&gt;0,ramping_data!E4,"")</f>
+        <v/>
       </c>
       <c r="G4">
-        <f>ramping_data!F4</f>
+        <f>IF(ramping_data!F4&lt;&gt;0,ramping_data!F4,"")</f>
         <v>0.5</v>
       </c>
       <c r="H4">
-        <f>ramping_data!G4</f>
+        <f>IF(ramping_data!G4&lt;&gt;0,ramping_data!G4,"")</f>
         <v>0.5</v>
       </c>
       <c r="I4">
-        <f>ramping_data!H4</f>
+        <f>IF(ramping_data!H4&lt;&gt;0,ramping_data!H4,"")</f>
         <v>0.4</v>
       </c>
       <c r="J4">
-        <f>ramping_data!I4</f>
+        <f>IF(ramping_data!I4&lt;&gt;0,ramping_data!I4,"")</f>
         <v>0.52500000000000002</v>
       </c>
       <c r="K4">
-        <f>ramping_data!J4</f>
+        <f>IF(ramping_data!J4&lt;&gt;0,ramping_data!J4,"")</f>
         <v>0.52500000000000002</v>
       </c>
       <c r="L4">
-        <f>ramping_data!K4</f>
+        <f>IF(ramping_data!K4&lt;&gt;0,ramping_data!K4,"")</f>
         <v>85</v>
       </c>
       <c r="M4">
-        <f>ramping_data!L4</f>
+        <f>IF(ramping_data!L4&lt;&gt;0,ramping_data!L4,"")</f>
         <v>8.5</v>
       </c>
     </row>
@@ -2904,47 +2904,47 @@
         <v>5</v>
       </c>
       <c r="C5">
-        <f>ramping_data!B5</f>
-        <v>1</v>
-      </c>
-      <c r="D5">
-        <f>ramping_data!C5</f>
-        <v>0</v>
+        <f>IF(ramping_data!B5&lt;&gt;0,ramping_data!B5,"")</f>
+        <v>1</v>
+      </c>
+      <c r="D5" t="str">
+        <f>IF(ramping_data!C5&lt;&gt;0,ramping_data!C5,"")</f>
+        <v/>
       </c>
       <c r="E5">
-        <f>ramping_data!D5</f>
+        <f>IF(ramping_data!D5&lt;&gt;0,ramping_data!D5,"")</f>
         <v>0.5</v>
       </c>
-      <c r="F5">
-        <f>ramping_data!E5</f>
-        <v>0</v>
+      <c r="F5" t="str">
+        <f>IF(ramping_data!E5&lt;&gt;0,ramping_data!E5,"")</f>
+        <v/>
       </c>
       <c r="G5">
-        <f>ramping_data!F5</f>
+        <f>IF(ramping_data!F5&lt;&gt;0,ramping_data!F5,"")</f>
         <v>0.5</v>
       </c>
       <c r="H5">
-        <f>ramping_data!G5</f>
+        <f>IF(ramping_data!G5&lt;&gt;0,ramping_data!G5,"")</f>
         <v>0.5</v>
       </c>
       <c r="I5">
-        <f>ramping_data!H5</f>
+        <f>IF(ramping_data!H5&lt;&gt;0,ramping_data!H5,"")</f>
         <v>0.4</v>
       </c>
       <c r="J5">
-        <f>ramping_data!I5</f>
+        <f>IF(ramping_data!I5&lt;&gt;0,ramping_data!I5,"")</f>
         <v>0.52500000000000002</v>
       </c>
       <c r="K5">
-        <f>ramping_data!J5</f>
+        <f>IF(ramping_data!J5&lt;&gt;0,ramping_data!J5,"")</f>
         <v>0.52500000000000002</v>
       </c>
       <c r="L5">
-        <f>ramping_data!K5</f>
+        <f>IF(ramping_data!K5&lt;&gt;0,ramping_data!K5,"")</f>
         <v>85</v>
       </c>
       <c r="M5">
-        <f>ramping_data!L5</f>
+        <f>IF(ramping_data!L5&lt;&gt;0,ramping_data!L5,"")</f>
         <v>8.5</v>
       </c>
     </row>
@@ -2957,47 +2957,47 @@
         <v>6</v>
       </c>
       <c r="C6">
-        <f>ramping_data!B6</f>
-        <v>1</v>
-      </c>
-      <c r="D6">
-        <f>ramping_data!C6</f>
-        <v>0</v>
+        <f>IF(ramping_data!B6&lt;&gt;0,ramping_data!B6,"")</f>
+        <v>1</v>
+      </c>
+      <c r="D6" t="str">
+        <f>IF(ramping_data!C6&lt;&gt;0,ramping_data!C6,"")</f>
+        <v/>
       </c>
       <c r="E6">
-        <f>ramping_data!D6</f>
+        <f>IF(ramping_data!D6&lt;&gt;0,ramping_data!D6,"")</f>
         <v>0.3</v>
       </c>
-      <c r="F6">
-        <f>ramping_data!E6</f>
-        <v>0</v>
+      <c r="F6" t="str">
+        <f>IF(ramping_data!E6&lt;&gt;0,ramping_data!E6,"")</f>
+        <v/>
       </c>
       <c r="G6">
-        <f>ramping_data!F6</f>
+        <f>IF(ramping_data!F6&lt;&gt;0,ramping_data!F6,"")</f>
         <v>0.5</v>
       </c>
       <c r="H6">
-        <f>ramping_data!G6</f>
+        <f>IF(ramping_data!G6&lt;&gt;0,ramping_data!G6,"")</f>
         <v>0.5</v>
       </c>
       <c r="I6">
-        <f>ramping_data!H6</f>
+        <f>IF(ramping_data!H6&lt;&gt;0,ramping_data!H6,"")</f>
         <v>0.25</v>
       </c>
       <c r="J6">
-        <f>ramping_data!I6</f>
+        <f>IF(ramping_data!I6&lt;&gt;0,ramping_data!I6,"")</f>
         <v>1.8</v>
       </c>
       <c r="K6">
-        <f>ramping_data!J6</f>
+        <f>IF(ramping_data!J6&lt;&gt;0,ramping_data!J6,"")</f>
         <v>1.8</v>
       </c>
       <c r="L6">
-        <f>ramping_data!K6</f>
+        <f>IF(ramping_data!K6&lt;&gt;0,ramping_data!K6,"")</f>
         <v>35</v>
       </c>
       <c r="M6">
-        <f>ramping_data!L6</f>
+        <f>IF(ramping_data!L6&lt;&gt;0,ramping_data!L6,"")</f>
         <v>17.5</v>
       </c>
     </row>
@@ -3010,47 +3010,47 @@
         <v>7</v>
       </c>
       <c r="C7">
-        <f>ramping_data!B7</f>
-        <v>1</v>
-      </c>
-      <c r="D7">
-        <f>ramping_data!C7</f>
-        <v>0</v>
+        <f>IF(ramping_data!B7&lt;&gt;0,ramping_data!B7,"")</f>
+        <v>1</v>
+      </c>
+      <c r="D7" t="str">
+        <f>IF(ramping_data!C7&lt;&gt;0,ramping_data!C7,"")</f>
+        <v/>
       </c>
       <c r="E7">
-        <f>ramping_data!D7</f>
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <f>ramping_data!E7</f>
-        <v>0</v>
+        <f>IF(ramping_data!D7&lt;&gt;0,ramping_data!D7,"")</f>
+        <v>1</v>
+      </c>
+      <c r="F7" t="str">
+        <f>IF(ramping_data!E7&lt;&gt;0,ramping_data!E7,"")</f>
+        <v/>
       </c>
       <c r="G7">
-        <f>ramping_data!F7</f>
+        <f>IF(ramping_data!F7&lt;&gt;0,ramping_data!F7,"")</f>
         <v>1</v>
       </c>
       <c r="H7">
-        <f>ramping_data!G7</f>
+        <f>IF(ramping_data!G7&lt;&gt;0,ramping_data!G7,"")</f>
         <v>1</v>
       </c>
       <c r="I7">
-        <f>ramping_data!H7</f>
+        <f>IF(ramping_data!H7&lt;&gt;0,ramping_data!H7,"")</f>
         <v>0.3</v>
       </c>
       <c r="J7">
-        <f>ramping_data!I7</f>
+        <f>IF(ramping_data!I7&lt;&gt;0,ramping_data!I7,"")</f>
         <v>1.8</v>
       </c>
       <c r="K7">
-        <f>ramping_data!J7</f>
+        <f>IF(ramping_data!J7&lt;&gt;0,ramping_data!J7,"")</f>
         <v>1.8</v>
       </c>
       <c r="L7">
-        <f>ramping_data!K7</f>
+        <f>IF(ramping_data!K7&lt;&gt;0,ramping_data!K7,"")</f>
         <v>46</v>
       </c>
       <c r="M7">
-        <f>ramping_data!L7</f>
+        <f>IF(ramping_data!L7&lt;&gt;0,ramping_data!L7,"")</f>
         <v>17.5</v>
       </c>
     </row>
@@ -3063,47 +3063,47 @@
         <v>8</v>
       </c>
       <c r="C8">
-        <f>ramping_data!B8</f>
-        <v>1</v>
-      </c>
-      <c r="D8">
-        <f>ramping_data!C8</f>
-        <v>0</v>
+        <f>IF(ramping_data!B8&lt;&gt;0,ramping_data!B8,"")</f>
+        <v>1</v>
+      </c>
+      <c r="D8" t="str">
+        <f>IF(ramping_data!C8&lt;&gt;0,ramping_data!C8,"")</f>
+        <v/>
       </c>
       <c r="E8">
-        <f>ramping_data!D8</f>
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <f>ramping_data!E8</f>
-        <v>0</v>
+        <f>IF(ramping_data!D8&lt;&gt;0,ramping_data!D8,"")</f>
+        <v>1</v>
+      </c>
+      <c r="F8" t="str">
+        <f>IF(ramping_data!E8&lt;&gt;0,ramping_data!E8,"")</f>
+        <v/>
       </c>
       <c r="G8">
-        <f>ramping_data!F8</f>
+        <f>IF(ramping_data!F8&lt;&gt;0,ramping_data!F8,"")</f>
         <v>1</v>
       </c>
       <c r="H8">
-        <f>ramping_data!G8</f>
+        <f>IF(ramping_data!G8&lt;&gt;0,ramping_data!G8,"")</f>
         <v>1</v>
       </c>
       <c r="I8">
-        <f>ramping_data!H8</f>
+        <f>IF(ramping_data!H8&lt;&gt;0,ramping_data!H8,"")</f>
         <v>0.3</v>
       </c>
       <c r="J8">
-        <f>ramping_data!I8</f>
+        <f>IF(ramping_data!I8&lt;&gt;0,ramping_data!I8,"")</f>
         <v>1.8</v>
       </c>
       <c r="K8">
-        <f>ramping_data!J8</f>
+        <f>IF(ramping_data!J8&lt;&gt;0,ramping_data!J8,"")</f>
         <v>1.8</v>
       </c>
       <c r="L8">
-        <f>ramping_data!K8</f>
+        <f>IF(ramping_data!K8&lt;&gt;0,ramping_data!K8,"")</f>
         <v>46</v>
       </c>
       <c r="M8">
-        <f>ramping_data!L8</f>
+        <f>IF(ramping_data!L8&lt;&gt;0,ramping_data!L8,"")</f>
         <v>17.5</v>
       </c>
     </row>
@@ -3116,47 +3116,47 @@
         <v>9</v>
       </c>
       <c r="C9">
-        <f>ramping_data!B9</f>
-        <v>1</v>
-      </c>
-      <c r="D9">
-        <f>ramping_data!C9</f>
-        <v>0</v>
+        <f>IF(ramping_data!B9&lt;&gt;0,ramping_data!B9,"")</f>
+        <v>1</v>
+      </c>
+      <c r="D9" t="str">
+        <f>IF(ramping_data!C9&lt;&gt;0,ramping_data!C9,"")</f>
+        <v/>
       </c>
       <c r="E9">
-        <f>ramping_data!D9</f>
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <f>ramping_data!E9</f>
-        <v>0</v>
+        <f>IF(ramping_data!D9&lt;&gt;0,ramping_data!D9,"")</f>
+        <v>1</v>
+      </c>
+      <c r="F9" t="str">
+        <f>IF(ramping_data!E9&lt;&gt;0,ramping_data!E9,"")</f>
+        <v/>
       </c>
       <c r="G9">
-        <f>ramping_data!F9</f>
+        <f>IF(ramping_data!F9&lt;&gt;0,ramping_data!F9,"")</f>
         <v>1</v>
       </c>
       <c r="H9">
-        <f>ramping_data!G9</f>
+        <f>IF(ramping_data!G9&lt;&gt;0,ramping_data!G9,"")</f>
         <v>1</v>
       </c>
       <c r="I9">
-        <f>ramping_data!H9</f>
+        <f>IF(ramping_data!H9&lt;&gt;0,ramping_data!H9,"")</f>
         <v>0.2</v>
       </c>
       <c r="J9">
-        <f>ramping_data!I9</f>
+        <f>IF(ramping_data!I9&lt;&gt;0,ramping_data!I9,"")</f>
         <v>1.8</v>
       </c>
       <c r="K9">
-        <f>ramping_data!J9</f>
+        <f>IF(ramping_data!J9&lt;&gt;0,ramping_data!J9,"")</f>
         <v>1.8</v>
       </c>
       <c r="L9">
-        <f>ramping_data!K9</f>
+        <f>IF(ramping_data!K9&lt;&gt;0,ramping_data!K9,"")</f>
         <v>58</v>
       </c>
       <c r="M9">
-        <f>ramping_data!L9</f>
+        <f>IF(ramping_data!L9&lt;&gt;0,ramping_data!L9,"")</f>
         <v>17.5</v>
       </c>
     </row>
@@ -3169,48 +3169,48 @@
         <v>10</v>
       </c>
       <c r="C10">
-        <f>ramping_data!B10</f>
-        <v>1</v>
-      </c>
-      <c r="D10">
-        <f>ramping_data!C10</f>
-        <v>0</v>
+        <f>IF(ramping_data!B10&lt;&gt;0,ramping_data!B10,"")</f>
+        <v>1</v>
+      </c>
+      <c r="D10" t="str">
+        <f>IF(ramping_data!C10&lt;&gt;0,ramping_data!C10,"")</f>
+        <v/>
       </c>
       <c r="E10">
-        <f>ramping_data!D10</f>
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <f>ramping_data!E10</f>
-        <v>0</v>
+        <f>IF(ramping_data!D10&lt;&gt;0,ramping_data!D10,"")</f>
+        <v>1</v>
+      </c>
+      <c r="F10" t="str">
+        <f>IF(ramping_data!E10&lt;&gt;0,ramping_data!E10,"")</f>
+        <v/>
       </c>
       <c r="G10">
-        <f>ramping_data!F10</f>
+        <f>IF(ramping_data!F10&lt;&gt;0,ramping_data!F10,"")</f>
         <v>1</v>
       </c>
       <c r="H10">
-        <f>ramping_data!G10</f>
-        <v>1</v>
-      </c>
-      <c r="I10">
-        <f>ramping_data!H10</f>
-        <v>0</v>
-      </c>
-      <c r="J10">
-        <f>ramping_data!I10</f>
-        <v>0</v>
-      </c>
-      <c r="K10">
-        <f>ramping_data!J10</f>
-        <v>0</v>
-      </c>
-      <c r="L10">
-        <f>ramping_data!K10</f>
-        <v>0</v>
-      </c>
-      <c r="M10">
-        <f>ramping_data!L10</f>
-        <v>0</v>
+        <f>IF(ramping_data!G10&lt;&gt;0,ramping_data!G10,"")</f>
+        <v>1</v>
+      </c>
+      <c r="I10" t="str">
+        <f>IF(ramping_data!H10&lt;&gt;0,ramping_data!H10,"")</f>
+        <v/>
+      </c>
+      <c r="J10" t="str">
+        <f>IF(ramping_data!I10&lt;&gt;0,ramping_data!I10,"")</f>
+        <v/>
+      </c>
+      <c r="K10" t="str">
+        <f>IF(ramping_data!J10&lt;&gt;0,ramping_data!J10,"")</f>
+        <v/>
+      </c>
+      <c r="L10" t="str">
+        <f>IF(ramping_data!K10&lt;&gt;0,ramping_data!K10,"")</f>
+        <v/>
+      </c>
+      <c r="M10" t="str">
+        <f>IF(ramping_data!L10&lt;&gt;0,ramping_data!L10,"")</f>
+        <v/>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
@@ -3222,47 +3222,47 @@
         <v>11</v>
       </c>
       <c r="C11">
-        <f>ramping_data!B11</f>
-        <v>1</v>
-      </c>
-      <c r="D11">
-        <f>ramping_data!C11</f>
-        <v>0</v>
+        <f>IF(ramping_data!B11&lt;&gt;0,ramping_data!B11,"")</f>
+        <v>1</v>
+      </c>
+      <c r="D11" t="str">
+        <f>IF(ramping_data!C11&lt;&gt;0,ramping_data!C11,"")</f>
+        <v/>
       </c>
       <c r="E11">
-        <f>ramping_data!D11</f>
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <f>ramping_data!E11</f>
-        <v>0</v>
+        <f>IF(ramping_data!D11&lt;&gt;0,ramping_data!D11,"")</f>
+        <v>1</v>
+      </c>
+      <c r="F11" t="str">
+        <f>IF(ramping_data!E11&lt;&gt;0,ramping_data!E11,"")</f>
+        <v/>
       </c>
       <c r="G11">
-        <f>ramping_data!F11</f>
+        <f>IF(ramping_data!F11&lt;&gt;0,ramping_data!F11,"")</f>
         <v>1</v>
       </c>
       <c r="H11">
-        <f>ramping_data!G11</f>
+        <f>IF(ramping_data!G11&lt;&gt;0,ramping_data!G11,"")</f>
         <v>1</v>
       </c>
       <c r="I11">
-        <f>ramping_data!H11</f>
+        <f>IF(ramping_data!H11&lt;&gt;0,ramping_data!H11,"")</f>
         <v>0.3</v>
       </c>
-      <c r="J11">
-        <f>ramping_data!I11</f>
-        <v>0</v>
-      </c>
-      <c r="K11">
-        <f>ramping_data!J11</f>
-        <v>0</v>
+      <c r="J11" t="str">
+        <f>IF(ramping_data!I11&lt;&gt;0,ramping_data!I11,"")</f>
+        <v/>
+      </c>
+      <c r="K11" t="str">
+        <f>IF(ramping_data!J11&lt;&gt;0,ramping_data!J11,"")</f>
+        <v/>
       </c>
       <c r="L11">
-        <f>ramping_data!K11</f>
+        <f>IF(ramping_data!K11&lt;&gt;0,ramping_data!K11,"")</f>
         <v>2.5</v>
       </c>
       <c r="M11">
-        <f>ramping_data!L11</f>
+        <f>IF(ramping_data!L11&lt;&gt;0,ramping_data!L11,"")</f>
         <v>0.25</v>
       </c>
     </row>
@@ -3275,47 +3275,47 @@
         <v>12</v>
       </c>
       <c r="C12">
-        <f>ramping_data!B12</f>
-        <v>1</v>
-      </c>
-      <c r="D12">
-        <f>ramping_data!C12</f>
-        <v>0</v>
+        <f>IF(ramping_data!B12&lt;&gt;0,ramping_data!B12,"")</f>
+        <v>1</v>
+      </c>
+      <c r="D12" t="str">
+        <f>IF(ramping_data!C12&lt;&gt;0,ramping_data!C12,"")</f>
+        <v/>
       </c>
       <c r="E12">
-        <f>ramping_data!D12</f>
-        <v>1</v>
-      </c>
-      <c r="F12">
-        <f>ramping_data!E12</f>
-        <v>0</v>
+        <f>IF(ramping_data!D12&lt;&gt;0,ramping_data!D12,"")</f>
+        <v>1</v>
+      </c>
+      <c r="F12" t="str">
+        <f>IF(ramping_data!E12&lt;&gt;0,ramping_data!E12,"")</f>
+        <v/>
       </c>
       <c r="G12">
-        <f>ramping_data!F12</f>
+        <f>IF(ramping_data!F12&lt;&gt;0,ramping_data!F12,"")</f>
         <v>1</v>
       </c>
       <c r="H12">
-        <f>ramping_data!G12</f>
-        <v>1</v>
-      </c>
-      <c r="I12">
-        <f>ramping_data!H12</f>
-        <v>0</v>
-      </c>
-      <c r="J12">
-        <f>ramping_data!I12</f>
-        <v>0</v>
-      </c>
-      <c r="K12">
-        <f>ramping_data!J12</f>
-        <v>0</v>
+        <f>IF(ramping_data!G12&lt;&gt;0,ramping_data!G12,"")</f>
+        <v>1</v>
+      </c>
+      <c r="I12" t="str">
+        <f>IF(ramping_data!H12&lt;&gt;0,ramping_data!H12,"")</f>
+        <v/>
+      </c>
+      <c r="J12" t="str">
+        <f>IF(ramping_data!I12&lt;&gt;0,ramping_data!I12,"")</f>
+        <v/>
+      </c>
+      <c r="K12" t="str">
+        <f>IF(ramping_data!J12&lt;&gt;0,ramping_data!J12,"")</f>
+        <v/>
       </c>
       <c r="L12">
-        <f>ramping_data!K12</f>
+        <f>IF(ramping_data!K12&lt;&gt;0,ramping_data!K12,"")</f>
         <v>2.5</v>
       </c>
       <c r="M12">
-        <f>ramping_data!L12</f>
+        <f>IF(ramping_data!L12&lt;&gt;0,ramping_data!L12,"")</f>
         <v>0.25</v>
       </c>
     </row>
@@ -3328,48 +3328,48 @@
         <v>13</v>
       </c>
       <c r="C13">
-        <f>ramping_data!B13</f>
-        <v>1</v>
-      </c>
-      <c r="D13">
-        <f>ramping_data!C13</f>
-        <v>0</v>
+        <f>IF(ramping_data!B13&lt;&gt;0,ramping_data!B13,"")</f>
+        <v>1</v>
+      </c>
+      <c r="D13" t="str">
+        <f>IF(ramping_data!C13&lt;&gt;0,ramping_data!C13,"")</f>
+        <v/>
       </c>
       <c r="E13">
-        <f>ramping_data!D13</f>
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <f>ramping_data!E13</f>
-        <v>0</v>
+        <f>IF(ramping_data!D13&lt;&gt;0,ramping_data!D13,"")</f>
+        <v>1</v>
+      </c>
+      <c r="F13" t="str">
+        <f>IF(ramping_data!E13&lt;&gt;0,ramping_data!E13,"")</f>
+        <v/>
       </c>
       <c r="G13">
-        <f>ramping_data!F13</f>
+        <f>IF(ramping_data!F13&lt;&gt;0,ramping_data!F13,"")</f>
         <v>1</v>
       </c>
       <c r="H13">
-        <f>ramping_data!G13</f>
-        <v>1</v>
-      </c>
-      <c r="I13">
-        <f>ramping_data!H13</f>
-        <v>0</v>
-      </c>
-      <c r="J13">
-        <f>ramping_data!I13</f>
-        <v>0</v>
-      </c>
-      <c r="K13">
-        <f>ramping_data!J13</f>
-        <v>0</v>
-      </c>
-      <c r="L13">
-        <f>ramping_data!K13</f>
-        <v>0</v>
-      </c>
-      <c r="M13">
-        <f>ramping_data!L13</f>
-        <v>0</v>
+        <f>IF(ramping_data!G13&lt;&gt;0,ramping_data!G13,"")</f>
+        <v>1</v>
+      </c>
+      <c r="I13" t="str">
+        <f>IF(ramping_data!H13&lt;&gt;0,ramping_data!H13,"")</f>
+        <v/>
+      </c>
+      <c r="J13" t="str">
+        <f>IF(ramping_data!I13&lt;&gt;0,ramping_data!I13,"")</f>
+        <v/>
+      </c>
+      <c r="K13" t="str">
+        <f>IF(ramping_data!J13&lt;&gt;0,ramping_data!J13,"")</f>
+        <v/>
+      </c>
+      <c r="L13" t="str">
+        <f>IF(ramping_data!K13&lt;&gt;0,ramping_data!K13,"")</f>
+        <v/>
+      </c>
+      <c r="M13" t="str">
+        <f>IF(ramping_data!L13&lt;&gt;0,ramping_data!L13,"")</f>
+        <v/>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
@@ -3381,47 +3381,47 @@
         <v>14</v>
       </c>
       <c r="C14">
-        <f>ramping_data!B14</f>
-        <v>1</v>
-      </c>
-      <c r="D14">
-        <f>ramping_data!C14</f>
-        <v>0</v>
+        <f>IF(ramping_data!B14&lt;&gt;0,ramping_data!B14,"")</f>
+        <v>1</v>
+      </c>
+      <c r="D14" t="str">
+        <f>IF(ramping_data!C14&lt;&gt;0,ramping_data!C14,"")</f>
+        <v/>
       </c>
       <c r="E14">
-        <f>ramping_data!D14</f>
+        <f>IF(ramping_data!D14&lt;&gt;0,ramping_data!D14,"")</f>
         <v>0.05</v>
       </c>
-      <c r="F14">
-        <f>ramping_data!E14</f>
-        <v>0</v>
+      <c r="F14" t="str">
+        <f>IF(ramping_data!E14&lt;&gt;0,ramping_data!E14,"")</f>
+        <v/>
       </c>
       <c r="G14">
-        <f>ramping_data!F14</f>
+        <f>IF(ramping_data!F14&lt;&gt;0,ramping_data!F14,"")</f>
         <v>0.15</v>
       </c>
       <c r="H14">
-        <f>ramping_data!G14</f>
+        <f>IF(ramping_data!G14&lt;&gt;0,ramping_data!G14,"")</f>
         <v>0.15</v>
       </c>
       <c r="I14">
-        <f>ramping_data!H14</f>
+        <f>IF(ramping_data!H14&lt;&gt;0,ramping_data!H14,"")</f>
         <v>0.5</v>
       </c>
-      <c r="J14">
-        <f>ramping_data!I14</f>
-        <v>0</v>
-      </c>
-      <c r="K14">
-        <f>ramping_data!J14</f>
-        <v>0</v>
+      <c r="J14" t="str">
+        <f>IF(ramping_data!I14&lt;&gt;0,ramping_data!I14,"")</f>
+        <v/>
+      </c>
+      <c r="K14" t="str">
+        <f>IF(ramping_data!J14&lt;&gt;0,ramping_data!J14,"")</f>
+        <v/>
       </c>
       <c r="L14">
-        <f>ramping_data!K14</f>
+        <f>IF(ramping_data!K14&lt;&gt;0,ramping_data!K14,"")</f>
         <v>35</v>
       </c>
       <c r="M14">
-        <f>ramping_data!L14</f>
+        <f>IF(ramping_data!L14&lt;&gt;0,ramping_data!L14,"")</f>
         <v>1000</v>
       </c>
     </row>
@@ -3434,48 +3434,48 @@
         <v>15</v>
       </c>
       <c r="C15">
-        <f>ramping_data!B15</f>
-        <v>1</v>
-      </c>
-      <c r="D15">
-        <f>ramping_data!C15</f>
-        <v>0</v>
+        <f>IF(ramping_data!B15&lt;&gt;0,ramping_data!B15,"")</f>
+        <v>1</v>
+      </c>
+      <c r="D15" t="str">
+        <f>IF(ramping_data!C15&lt;&gt;0,ramping_data!C15,"")</f>
+        <v/>
       </c>
       <c r="E15">
-        <f>ramping_data!D15</f>
-        <v>1</v>
-      </c>
-      <c r="F15">
-        <f>ramping_data!E15</f>
-        <v>0</v>
+        <f>IF(ramping_data!D15&lt;&gt;0,ramping_data!D15,"")</f>
+        <v>1</v>
+      </c>
+      <c r="F15" t="str">
+        <f>IF(ramping_data!E15&lt;&gt;0,ramping_data!E15,"")</f>
+        <v/>
       </c>
       <c r="G15">
-        <f>ramping_data!F15</f>
+        <f>IF(ramping_data!F15&lt;&gt;0,ramping_data!F15,"")</f>
         <v>1</v>
       </c>
       <c r="H15">
-        <f>ramping_data!G15</f>
-        <v>1</v>
-      </c>
-      <c r="I15">
-        <f>ramping_data!H15</f>
-        <v>0</v>
+        <f>IF(ramping_data!G15&lt;&gt;0,ramping_data!G15,"")</f>
+        <v>1</v>
+      </c>
+      <c r="I15" t="str">
+        <f>IF(ramping_data!H15&lt;&gt;0,ramping_data!H15,"")</f>
+        <v/>
       </c>
       <c r="J15">
-        <f>ramping_data!I15</f>
+        <f>IF(ramping_data!I15&lt;&gt;0,ramping_data!I15,"")</f>
         <v>1</v>
       </c>
       <c r="K15">
-        <f>ramping_data!J15</f>
-        <v>1</v>
-      </c>
-      <c r="L15">
-        <f>ramping_data!K15</f>
-        <v>0</v>
-      </c>
-      <c r="M15">
-        <f>ramping_data!L15</f>
-        <v>0</v>
+        <f>IF(ramping_data!J15&lt;&gt;0,ramping_data!J15,"")</f>
+        <v>1</v>
+      </c>
+      <c r="L15" t="str">
+        <f>IF(ramping_data!K15&lt;&gt;0,ramping_data!K15,"")</f>
+        <v/>
+      </c>
+      <c r="M15" t="str">
+        <f>IF(ramping_data!L15&lt;&gt;0,ramping_data!L15,"")</f>
+        <v/>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
@@ -3487,48 +3487,48 @@
         <v>16</v>
       </c>
       <c r="C16">
-        <f>ramping_data!B16</f>
-        <v>1</v>
-      </c>
-      <c r="D16">
-        <f>ramping_data!C16</f>
-        <v>0</v>
+        <f>IF(ramping_data!B16&lt;&gt;0,ramping_data!B16,"")</f>
+        <v>1</v>
+      </c>
+      <c r="D16" t="str">
+        <f>IF(ramping_data!C16&lt;&gt;0,ramping_data!C16,"")</f>
+        <v/>
       </c>
       <c r="E16">
-        <f>ramping_data!D16</f>
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <f>ramping_data!E16</f>
-        <v>0</v>
+        <f>IF(ramping_data!D16&lt;&gt;0,ramping_data!D16,"")</f>
+        <v>1</v>
+      </c>
+      <c r="F16" t="str">
+        <f>IF(ramping_data!E16&lt;&gt;0,ramping_data!E16,"")</f>
+        <v/>
       </c>
       <c r="G16">
-        <f>ramping_data!F16</f>
+        <f>IF(ramping_data!F16&lt;&gt;0,ramping_data!F16,"")</f>
         <v>1</v>
       </c>
       <c r="H16">
-        <f>ramping_data!G16</f>
-        <v>1</v>
-      </c>
-      <c r="I16">
-        <f>ramping_data!H16</f>
-        <v>0</v>
-      </c>
-      <c r="J16">
-        <f>ramping_data!I16</f>
-        <v>0</v>
-      </c>
-      <c r="K16">
-        <f>ramping_data!J16</f>
-        <v>0</v>
-      </c>
-      <c r="L16">
-        <f>ramping_data!K16</f>
-        <v>0</v>
-      </c>
-      <c r="M16">
-        <f>ramping_data!L16</f>
-        <v>0</v>
+        <f>IF(ramping_data!G16&lt;&gt;0,ramping_data!G16,"")</f>
+        <v>1</v>
+      </c>
+      <c r="I16" t="str">
+        <f>IF(ramping_data!H16&lt;&gt;0,ramping_data!H16,"")</f>
+        <v/>
+      </c>
+      <c r="J16" t="str">
+        <f>IF(ramping_data!I16&lt;&gt;0,ramping_data!I16,"")</f>
+        <v/>
+      </c>
+      <c r="K16" t="str">
+        <f>IF(ramping_data!J16&lt;&gt;0,ramping_data!J16,"")</f>
+        <v/>
+      </c>
+      <c r="L16" t="str">
+        <f>IF(ramping_data!K16&lt;&gt;0,ramping_data!K16,"")</f>
+        <v/>
+      </c>
+      <c r="M16" t="str">
+        <f>IF(ramping_data!L16&lt;&gt;0,ramping_data!L16,"")</f>
+        <v/>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
@@ -3540,48 +3540,48 @@
         <v>17</v>
       </c>
       <c r="C17">
-        <f>ramping_data!B17</f>
-        <v>1</v>
-      </c>
-      <c r="D17">
-        <f>ramping_data!C17</f>
-        <v>0</v>
+        <f>IF(ramping_data!B17&lt;&gt;0,ramping_data!B17,"")</f>
+        <v>1</v>
+      </c>
+      <c r="D17" t="str">
+        <f>IF(ramping_data!C17&lt;&gt;0,ramping_data!C17,"")</f>
+        <v/>
       </c>
       <c r="E17">
-        <f>ramping_data!D17</f>
-        <v>1</v>
-      </c>
-      <c r="F17">
-        <f>ramping_data!E17</f>
-        <v>0</v>
+        <f>IF(ramping_data!D17&lt;&gt;0,ramping_data!D17,"")</f>
+        <v>1</v>
+      </c>
+      <c r="F17" t="str">
+        <f>IF(ramping_data!E17&lt;&gt;0,ramping_data!E17,"")</f>
+        <v/>
       </c>
       <c r="G17">
-        <f>ramping_data!F17</f>
+        <f>IF(ramping_data!F17&lt;&gt;0,ramping_data!F17,"")</f>
         <v>1</v>
       </c>
       <c r="H17">
-        <f>ramping_data!G17</f>
-        <v>1</v>
-      </c>
-      <c r="I17">
-        <f>ramping_data!H17</f>
-        <v>0</v>
-      </c>
-      <c r="J17">
-        <f>ramping_data!I17</f>
-        <v>0</v>
-      </c>
-      <c r="K17">
-        <f>ramping_data!J17</f>
-        <v>0</v>
-      </c>
-      <c r="L17">
-        <f>ramping_data!K17</f>
-        <v>0</v>
-      </c>
-      <c r="M17">
-        <f>ramping_data!L17</f>
-        <v>0</v>
+        <f>IF(ramping_data!G17&lt;&gt;0,ramping_data!G17,"")</f>
+        <v>1</v>
+      </c>
+      <c r="I17" t="str">
+        <f>IF(ramping_data!H17&lt;&gt;0,ramping_data!H17,"")</f>
+        <v/>
+      </c>
+      <c r="J17" t="str">
+        <f>IF(ramping_data!I17&lt;&gt;0,ramping_data!I17,"")</f>
+        <v/>
+      </c>
+      <c r="K17" t="str">
+        <f>IF(ramping_data!J17&lt;&gt;0,ramping_data!J17,"")</f>
+        <v/>
+      </c>
+      <c r="L17" t="str">
+        <f>IF(ramping_data!K17&lt;&gt;0,ramping_data!K17,"")</f>
+        <v/>
+      </c>
+      <c r="M17" t="str">
+        <f>IF(ramping_data!L17&lt;&gt;0,ramping_data!L17,"")</f>
+        <v/>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
@@ -3593,47 +3593,47 @@
         <v>18</v>
       </c>
       <c r="C18">
-        <f>ramping_data!B18</f>
-        <v>1</v>
-      </c>
-      <c r="D18">
-        <f>ramping_data!C18</f>
-        <v>0</v>
+        <f>IF(ramping_data!B18&lt;&gt;0,ramping_data!B18,"")</f>
+        <v>1</v>
+      </c>
+      <c r="D18" t="str">
+        <f>IF(ramping_data!C18&lt;&gt;0,ramping_data!C18,"")</f>
+        <v/>
       </c>
       <c r="E18">
-        <f>ramping_data!D18</f>
-        <v>1</v>
-      </c>
-      <c r="F18">
-        <f>ramping_data!E18</f>
-        <v>0</v>
+        <f>IF(ramping_data!D18&lt;&gt;0,ramping_data!D18,"")</f>
+        <v>1</v>
+      </c>
+      <c r="F18" t="str">
+        <f>IF(ramping_data!E18&lt;&gt;0,ramping_data!E18,"")</f>
+        <v/>
       </c>
       <c r="G18">
-        <f>ramping_data!F18</f>
+        <f>IF(ramping_data!F18&lt;&gt;0,ramping_data!F18,"")</f>
         <v>1</v>
       </c>
       <c r="H18">
-        <f>ramping_data!G18</f>
+        <f>IF(ramping_data!G18&lt;&gt;0,ramping_data!G18,"")</f>
         <v>1</v>
       </c>
       <c r="I18">
-        <f>ramping_data!H18</f>
+        <f>IF(ramping_data!H18&lt;&gt;0,ramping_data!H18,"")</f>
         <v>0.2</v>
       </c>
       <c r="J18">
-        <f>ramping_data!I18</f>
+        <f>IF(ramping_data!I18&lt;&gt;0,ramping_data!I18,"")</f>
         <v>1.8</v>
       </c>
       <c r="K18">
-        <f>ramping_data!J18</f>
+        <f>IF(ramping_data!J18&lt;&gt;0,ramping_data!J18,"")</f>
         <v>1.8</v>
       </c>
       <c r="L18">
-        <f>ramping_data!K18</f>
+        <f>IF(ramping_data!K18&lt;&gt;0,ramping_data!K18,"")</f>
         <v>36</v>
       </c>
       <c r="M18">
-        <f>ramping_data!L18</f>
+        <f>IF(ramping_data!L18&lt;&gt;0,ramping_data!L18,"")</f>
         <v>17.5</v>
       </c>
     </row>
@@ -3646,48 +3646,48 @@
         <v>19</v>
       </c>
       <c r="C19">
-        <f>ramping_data!B19</f>
-        <v>1</v>
-      </c>
-      <c r="D19">
-        <f>ramping_data!C19</f>
-        <v>0</v>
+        <f>IF(ramping_data!B19&lt;&gt;0,ramping_data!B19,"")</f>
+        <v>1</v>
+      </c>
+      <c r="D19" t="str">
+        <f>IF(ramping_data!C19&lt;&gt;0,ramping_data!C19,"")</f>
+        <v/>
       </c>
       <c r="E19">
-        <f>ramping_data!D19</f>
-        <v>1</v>
-      </c>
-      <c r="F19">
-        <f>ramping_data!E19</f>
-        <v>0</v>
+        <f>IF(ramping_data!D19&lt;&gt;0,ramping_data!D19,"")</f>
+        <v>1</v>
+      </c>
+      <c r="F19" t="str">
+        <f>IF(ramping_data!E19&lt;&gt;0,ramping_data!E19,"")</f>
+        <v/>
       </c>
       <c r="G19">
-        <f>ramping_data!F19</f>
+        <f>IF(ramping_data!F19&lt;&gt;0,ramping_data!F19,"")</f>
         <v>1</v>
       </c>
       <c r="H19">
-        <f>ramping_data!G19</f>
-        <v>1</v>
-      </c>
-      <c r="I19">
-        <f>ramping_data!H19</f>
-        <v>0</v>
-      </c>
-      <c r="J19">
-        <f>ramping_data!I19</f>
-        <v>0</v>
-      </c>
-      <c r="K19">
-        <f>ramping_data!J19</f>
-        <v>0</v>
-      </c>
-      <c r="L19">
-        <f>ramping_data!K19</f>
-        <v>0</v>
-      </c>
-      <c r="M19">
-        <f>ramping_data!L19</f>
-        <v>0</v>
+        <f>IF(ramping_data!G19&lt;&gt;0,ramping_data!G19,"")</f>
+        <v>1</v>
+      </c>
+      <c r="I19" t="str">
+        <f>IF(ramping_data!H19&lt;&gt;0,ramping_data!H19,"")</f>
+        <v/>
+      </c>
+      <c r="J19" t="str">
+        <f>IF(ramping_data!I19&lt;&gt;0,ramping_data!I19,"")</f>
+        <v/>
+      </c>
+      <c r="K19" t="str">
+        <f>IF(ramping_data!J19&lt;&gt;0,ramping_data!J19,"")</f>
+        <v/>
+      </c>
+      <c r="L19" t="str">
+        <f>IF(ramping_data!K19&lt;&gt;0,ramping_data!K19,"")</f>
+        <v/>
+      </c>
+      <c r="M19" t="str">
+        <f>IF(ramping_data!L19&lt;&gt;0,ramping_data!L19,"")</f>
+        <v/>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
@@ -3699,48 +3699,48 @@
         <v>20</v>
       </c>
       <c r="C20">
-        <f>ramping_data!B20</f>
-        <v>1</v>
-      </c>
-      <c r="D20">
-        <f>ramping_data!C20</f>
-        <v>0</v>
+        <f>IF(ramping_data!B20&lt;&gt;0,ramping_data!B20,"")</f>
+        <v>1</v>
+      </c>
+      <c r="D20" t="str">
+        <f>IF(ramping_data!C20&lt;&gt;0,ramping_data!C20,"")</f>
+        <v/>
       </c>
       <c r="E20">
-        <f>ramping_data!D20</f>
-        <v>1</v>
-      </c>
-      <c r="F20">
-        <f>ramping_data!E20</f>
-        <v>0</v>
+        <f>IF(ramping_data!D20&lt;&gt;0,ramping_data!D20,"")</f>
+        <v>1</v>
+      </c>
+      <c r="F20" t="str">
+        <f>IF(ramping_data!E20&lt;&gt;0,ramping_data!E20,"")</f>
+        <v/>
       </c>
       <c r="G20">
-        <f>ramping_data!F20</f>
+        <f>IF(ramping_data!F20&lt;&gt;0,ramping_data!F20,"")</f>
         <v>1</v>
       </c>
       <c r="H20">
-        <f>ramping_data!G20</f>
-        <v>1</v>
-      </c>
-      <c r="I20">
-        <f>ramping_data!H20</f>
-        <v>0</v>
-      </c>
-      <c r="J20">
-        <f>ramping_data!I20</f>
-        <v>0</v>
-      </c>
-      <c r="K20">
-        <f>ramping_data!J20</f>
-        <v>0</v>
-      </c>
-      <c r="L20">
-        <f>ramping_data!K20</f>
-        <v>0</v>
-      </c>
-      <c r="M20">
-        <f>ramping_data!L20</f>
-        <v>0</v>
+        <f>IF(ramping_data!G20&lt;&gt;0,ramping_data!G20,"")</f>
+        <v>1</v>
+      </c>
+      <c r="I20" t="str">
+        <f>IF(ramping_data!H20&lt;&gt;0,ramping_data!H20,"")</f>
+        <v/>
+      </c>
+      <c r="J20" t="str">
+        <f>IF(ramping_data!I20&lt;&gt;0,ramping_data!I20,"")</f>
+        <v/>
+      </c>
+      <c r="K20" t="str">
+        <f>IF(ramping_data!J20&lt;&gt;0,ramping_data!J20,"")</f>
+        <v/>
+      </c>
+      <c r="L20" t="str">
+        <f>IF(ramping_data!K20&lt;&gt;0,ramping_data!K20,"")</f>
+        <v/>
+      </c>
+      <c r="M20" t="str">
+        <f>IF(ramping_data!L20&lt;&gt;0,ramping_data!L20,"")</f>
+        <v/>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
@@ -3752,47 +3752,47 @@
         <v>27</v>
       </c>
       <c r="C21">
-        <f>ramping_data!B21</f>
-        <v>1</v>
-      </c>
-      <c r="D21">
-        <f>ramping_data!C21</f>
-        <v>0</v>
+        <f>IF(ramping_data!B21&lt;&gt;0,ramping_data!B21,"")</f>
+        <v>1</v>
+      </c>
+      <c r="D21" t="str">
+        <f>IF(ramping_data!C21&lt;&gt;0,ramping_data!C21,"")</f>
+        <v/>
       </c>
       <c r="E21">
-        <f>ramping_data!D21</f>
+        <f>IF(ramping_data!D21&lt;&gt;0,ramping_data!D21,"")</f>
         <v>0.4</v>
       </c>
-      <c r="F21">
-        <f>ramping_data!E21</f>
-        <v>0</v>
+      <c r="F21" t="str">
+        <f>IF(ramping_data!E21&lt;&gt;0,ramping_data!E21,"")</f>
+        <v/>
       </c>
       <c r="G21">
-        <f>ramping_data!F21</f>
+        <f>IF(ramping_data!F21&lt;&gt;0,ramping_data!F21,"")</f>
         <v>1</v>
       </c>
       <c r="H21">
-        <f>ramping_data!G21</f>
+        <f>IF(ramping_data!G21&lt;&gt;0,ramping_data!G21,"")</f>
         <v>1</v>
       </c>
       <c r="I21">
-        <f>ramping_data!H21</f>
+        <f>IF(ramping_data!H21&lt;&gt;0,ramping_data!H21,"")</f>
         <v>0.3</v>
       </c>
-      <c r="J21">
-        <f>ramping_data!I21</f>
-        <v>0</v>
-      </c>
-      <c r="K21">
-        <f>ramping_data!J21</f>
-        <v>0</v>
+      <c r="J21" t="str">
+        <f>IF(ramping_data!I21&lt;&gt;0,ramping_data!I21,"")</f>
+        <v/>
+      </c>
+      <c r="K21" t="str">
+        <f>IF(ramping_data!J21&lt;&gt;0,ramping_data!J21,"")</f>
+        <v/>
       </c>
       <c r="L21">
-        <f>ramping_data!K21</f>
+        <f>IF(ramping_data!K21&lt;&gt;0,ramping_data!K21,"")</f>
         <v>2.5</v>
       </c>
       <c r="M21">
-        <f>ramping_data!L21</f>
+        <f>IF(ramping_data!L21&lt;&gt;0,ramping_data!L21,"")</f>
         <v>0.25</v>
       </c>
     </row>
@@ -3877,47 +3877,47 @@
         <v>2</v>
       </c>
       <c r="C2">
-        <f>ramping_data!B2</f>
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <f>ramping_data!C2</f>
-        <v>0</v>
+        <f>IF(ramping_data!B2&lt;&gt;0,ramping_data!B2,"")</f>
+        <v>1</v>
+      </c>
+      <c r="D2" t="str">
+        <f>IF(ramping_data!C2&lt;&gt;0,ramping_data!C2,"")</f>
+        <v/>
       </c>
       <c r="E2">
-        <f>ramping_data!D2</f>
-        <v>1</v>
-      </c>
-      <c r="F2">
-        <f>ramping_data!E2</f>
-        <v>0</v>
+        <f>IF(ramping_data!D2&lt;&gt;0,ramping_data!D2,"")</f>
+        <v>1</v>
+      </c>
+      <c r="F2" t="str">
+        <f>IF(ramping_data!E2&lt;&gt;0,ramping_data!E2,"")</f>
+        <v/>
       </c>
       <c r="G2">
-        <f>ramping_data!F2</f>
+        <f>IF(ramping_data!F2&lt;&gt;0,ramping_data!F2,"")</f>
         <v>1</v>
       </c>
       <c r="H2">
-        <f>ramping_data!G2</f>
+        <f>IF(ramping_data!G2&lt;&gt;0,ramping_data!G2,"")</f>
         <v>1</v>
       </c>
       <c r="I2">
-        <f>ramping_data!H2</f>
+        <f>IF(ramping_data!H2&lt;&gt;0,ramping_data!H2,"")</f>
         <v>0.2</v>
       </c>
       <c r="J2">
-        <f>ramping_data!I2</f>
+        <f>IF(ramping_data!I2&lt;&gt;0,ramping_data!I2,"")</f>
         <v>1.8</v>
       </c>
       <c r="K2">
-        <f>ramping_data!J2</f>
+        <f>IF(ramping_data!J2&lt;&gt;0,ramping_data!J2,"")</f>
         <v>1.8</v>
       </c>
       <c r="L2">
-        <f>ramping_data!K2</f>
+        <f>IF(ramping_data!K2&lt;&gt;0,ramping_data!K2,"")</f>
         <v>36</v>
       </c>
       <c r="M2">
-        <f>ramping_data!L2</f>
+        <f>IF(ramping_data!L2&lt;&gt;0,ramping_data!L2,"")</f>
         <v>17.5</v>
       </c>
     </row>
@@ -3930,47 +3930,47 @@
         <v>3</v>
       </c>
       <c r="C3">
-        <f>ramping_data!B3</f>
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <f>ramping_data!C3</f>
-        <v>0</v>
+        <f>IF(ramping_data!B3&lt;&gt;0,ramping_data!B3,"")</f>
+        <v>1</v>
+      </c>
+      <c r="D3" t="str">
+        <f>IF(ramping_data!C3&lt;&gt;0,ramping_data!C3,"")</f>
+        <v/>
       </c>
       <c r="E3">
-        <f>ramping_data!D3</f>
+        <f>IF(ramping_data!D3&lt;&gt;0,ramping_data!D3,"")</f>
         <v>0.5</v>
       </c>
-      <c r="F3">
-        <f>ramping_data!E3</f>
-        <v>0</v>
+      <c r="F3" t="str">
+        <f>IF(ramping_data!E3&lt;&gt;0,ramping_data!E3,"")</f>
+        <v/>
       </c>
       <c r="G3">
-        <f>ramping_data!F3</f>
+        <f>IF(ramping_data!F3&lt;&gt;0,ramping_data!F3,"")</f>
         <v>0.5</v>
       </c>
       <c r="H3">
-        <f>ramping_data!G3</f>
+        <f>IF(ramping_data!G3&lt;&gt;0,ramping_data!G3,"")</f>
         <v>0.5</v>
       </c>
       <c r="I3">
-        <f>ramping_data!H3</f>
+        <f>IF(ramping_data!H3&lt;&gt;0,ramping_data!H3,"")</f>
         <v>0.4</v>
       </c>
       <c r="J3">
-        <f>ramping_data!I3</f>
+        <f>IF(ramping_data!I3&lt;&gt;0,ramping_data!I3,"")</f>
         <v>1.8</v>
       </c>
       <c r="K3">
-        <f>ramping_data!J3</f>
+        <f>IF(ramping_data!J3&lt;&gt;0,ramping_data!J3,"")</f>
         <v>1.8</v>
       </c>
       <c r="L3">
-        <f>ramping_data!K3</f>
+        <f>IF(ramping_data!K3&lt;&gt;0,ramping_data!K3,"")</f>
         <v>58</v>
       </c>
       <c r="M3">
-        <f>ramping_data!L3</f>
+        <f>IF(ramping_data!L3&lt;&gt;0,ramping_data!L3,"")</f>
         <v>17.5</v>
       </c>
     </row>
@@ -3983,47 +3983,47 @@
         <v>4</v>
       </c>
       <c r="C4">
-        <f>ramping_data!B4</f>
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <f>ramping_data!C4</f>
-        <v>0</v>
+        <f>IF(ramping_data!B4&lt;&gt;0,ramping_data!B4,"")</f>
+        <v>1</v>
+      </c>
+      <c r="D4" t="str">
+        <f>IF(ramping_data!C4&lt;&gt;0,ramping_data!C4,"")</f>
+        <v/>
       </c>
       <c r="E4">
-        <f>ramping_data!D4</f>
+        <f>IF(ramping_data!D4&lt;&gt;0,ramping_data!D4,"")</f>
         <v>0.5</v>
       </c>
-      <c r="F4">
-        <f>ramping_data!E4</f>
-        <v>0</v>
+      <c r="F4" t="str">
+        <f>IF(ramping_data!E4&lt;&gt;0,ramping_data!E4,"")</f>
+        <v/>
       </c>
       <c r="G4">
-        <f>ramping_data!F4</f>
+        <f>IF(ramping_data!F4&lt;&gt;0,ramping_data!F4,"")</f>
         <v>0.5</v>
       </c>
       <c r="H4">
-        <f>ramping_data!G4</f>
+        <f>IF(ramping_data!G4&lt;&gt;0,ramping_data!G4,"")</f>
         <v>0.5</v>
       </c>
       <c r="I4">
-        <f>ramping_data!H4</f>
+        <f>IF(ramping_data!H4&lt;&gt;0,ramping_data!H4,"")</f>
         <v>0.4</v>
       </c>
       <c r="J4">
-        <f>ramping_data!I4</f>
+        <f>IF(ramping_data!I4&lt;&gt;0,ramping_data!I4,"")</f>
         <v>0.52500000000000002</v>
       </c>
       <c r="K4">
-        <f>ramping_data!J4</f>
+        <f>IF(ramping_data!J4&lt;&gt;0,ramping_data!J4,"")</f>
         <v>0.52500000000000002</v>
       </c>
       <c r="L4">
-        <f>ramping_data!K4</f>
+        <f>IF(ramping_data!K4&lt;&gt;0,ramping_data!K4,"")</f>
         <v>85</v>
       </c>
       <c r="M4">
-        <f>ramping_data!L4</f>
+        <f>IF(ramping_data!L4&lt;&gt;0,ramping_data!L4,"")</f>
         <v>8.5</v>
       </c>
     </row>
@@ -4036,47 +4036,47 @@
         <v>5</v>
       </c>
       <c r="C5">
-        <f>ramping_data!B5</f>
-        <v>1</v>
-      </c>
-      <c r="D5">
-        <f>ramping_data!C5</f>
-        <v>0</v>
+        <f>IF(ramping_data!B5&lt;&gt;0,ramping_data!B5,"")</f>
+        <v>1</v>
+      </c>
+      <c r="D5" t="str">
+        <f>IF(ramping_data!C5&lt;&gt;0,ramping_data!C5,"")</f>
+        <v/>
       </c>
       <c r="E5">
-        <f>ramping_data!D5</f>
+        <f>IF(ramping_data!D5&lt;&gt;0,ramping_data!D5,"")</f>
         <v>0.5</v>
       </c>
-      <c r="F5">
-        <f>ramping_data!E5</f>
-        <v>0</v>
+      <c r="F5" t="str">
+        <f>IF(ramping_data!E5&lt;&gt;0,ramping_data!E5,"")</f>
+        <v/>
       </c>
       <c r="G5">
-        <f>ramping_data!F5</f>
+        <f>IF(ramping_data!F5&lt;&gt;0,ramping_data!F5,"")</f>
         <v>0.5</v>
       </c>
       <c r="H5">
-        <f>ramping_data!G5</f>
+        <f>IF(ramping_data!G5&lt;&gt;0,ramping_data!G5,"")</f>
         <v>0.5</v>
       </c>
       <c r="I5">
-        <f>ramping_data!H5</f>
+        <f>IF(ramping_data!H5&lt;&gt;0,ramping_data!H5,"")</f>
         <v>0.4</v>
       </c>
       <c r="J5">
-        <f>ramping_data!I5</f>
+        <f>IF(ramping_data!I5&lt;&gt;0,ramping_data!I5,"")</f>
         <v>0.52500000000000002</v>
       </c>
       <c r="K5">
-        <f>ramping_data!J5</f>
+        <f>IF(ramping_data!J5&lt;&gt;0,ramping_data!J5,"")</f>
         <v>0.52500000000000002</v>
       </c>
       <c r="L5">
-        <f>ramping_data!K5</f>
+        <f>IF(ramping_data!K5&lt;&gt;0,ramping_data!K5,"")</f>
         <v>85</v>
       </c>
       <c r="M5">
-        <f>ramping_data!L5</f>
+        <f>IF(ramping_data!L5&lt;&gt;0,ramping_data!L5,"")</f>
         <v>8.5</v>
       </c>
     </row>
@@ -4089,47 +4089,47 @@
         <v>6</v>
       </c>
       <c r="C6">
-        <f>ramping_data!B6</f>
-        <v>1</v>
-      </c>
-      <c r="D6">
-        <f>ramping_data!C6</f>
-        <v>0</v>
+        <f>IF(ramping_data!B6&lt;&gt;0,ramping_data!B6,"")</f>
+        <v>1</v>
+      </c>
+      <c r="D6" t="str">
+        <f>IF(ramping_data!C6&lt;&gt;0,ramping_data!C6,"")</f>
+        <v/>
       </c>
       <c r="E6">
-        <f>ramping_data!D6</f>
+        <f>IF(ramping_data!D6&lt;&gt;0,ramping_data!D6,"")</f>
         <v>0.3</v>
       </c>
-      <c r="F6">
-        <f>ramping_data!E6</f>
-        <v>0</v>
+      <c r="F6" t="str">
+        <f>IF(ramping_data!E6&lt;&gt;0,ramping_data!E6,"")</f>
+        <v/>
       </c>
       <c r="G6">
-        <f>ramping_data!F6</f>
+        <f>IF(ramping_data!F6&lt;&gt;0,ramping_data!F6,"")</f>
         <v>0.5</v>
       </c>
       <c r="H6">
-        <f>ramping_data!G6</f>
+        <f>IF(ramping_data!G6&lt;&gt;0,ramping_data!G6,"")</f>
         <v>0.5</v>
       </c>
       <c r="I6">
-        <f>ramping_data!H6</f>
+        <f>IF(ramping_data!H6&lt;&gt;0,ramping_data!H6,"")</f>
         <v>0.25</v>
       </c>
       <c r="J6">
-        <f>ramping_data!I6</f>
+        <f>IF(ramping_data!I6&lt;&gt;0,ramping_data!I6,"")</f>
         <v>1.8</v>
       </c>
       <c r="K6">
-        <f>ramping_data!J6</f>
+        <f>IF(ramping_data!J6&lt;&gt;0,ramping_data!J6,"")</f>
         <v>1.8</v>
       </c>
       <c r="L6">
-        <f>ramping_data!K6</f>
+        <f>IF(ramping_data!K6&lt;&gt;0,ramping_data!K6,"")</f>
         <v>35</v>
       </c>
       <c r="M6">
-        <f>ramping_data!L6</f>
+        <f>IF(ramping_data!L6&lt;&gt;0,ramping_data!L6,"")</f>
         <v>17.5</v>
       </c>
     </row>
@@ -4142,47 +4142,47 @@
         <v>7</v>
       </c>
       <c r="C7">
-        <f>ramping_data!B7</f>
-        <v>1</v>
-      </c>
-      <c r="D7">
-        <f>ramping_data!C7</f>
-        <v>0</v>
+        <f>IF(ramping_data!B7&lt;&gt;0,ramping_data!B7,"")</f>
+        <v>1</v>
+      </c>
+      <c r="D7" t="str">
+        <f>IF(ramping_data!C7&lt;&gt;0,ramping_data!C7,"")</f>
+        <v/>
       </c>
       <c r="E7">
-        <f>ramping_data!D7</f>
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <f>ramping_data!E7</f>
-        <v>0</v>
+        <f>IF(ramping_data!D7&lt;&gt;0,ramping_data!D7,"")</f>
+        <v>1</v>
+      </c>
+      <c r="F7" t="str">
+        <f>IF(ramping_data!E7&lt;&gt;0,ramping_data!E7,"")</f>
+        <v/>
       </c>
       <c r="G7">
-        <f>ramping_data!F7</f>
+        <f>IF(ramping_data!F7&lt;&gt;0,ramping_data!F7,"")</f>
         <v>1</v>
       </c>
       <c r="H7">
-        <f>ramping_data!G7</f>
+        <f>IF(ramping_data!G7&lt;&gt;0,ramping_data!G7,"")</f>
         <v>1</v>
       </c>
       <c r="I7">
-        <f>ramping_data!H7</f>
+        <f>IF(ramping_data!H7&lt;&gt;0,ramping_data!H7,"")</f>
         <v>0.3</v>
       </c>
       <c r="J7">
-        <f>ramping_data!I7</f>
+        <f>IF(ramping_data!I7&lt;&gt;0,ramping_data!I7,"")</f>
         <v>1.8</v>
       </c>
       <c r="K7">
-        <f>ramping_data!J7</f>
+        <f>IF(ramping_data!J7&lt;&gt;0,ramping_data!J7,"")</f>
         <v>1.8</v>
       </c>
       <c r="L7">
-        <f>ramping_data!K7</f>
+        <f>IF(ramping_data!K7&lt;&gt;0,ramping_data!K7,"")</f>
         <v>46</v>
       </c>
       <c r="M7">
-        <f>ramping_data!L7</f>
+        <f>IF(ramping_data!L7&lt;&gt;0,ramping_data!L7,"")</f>
         <v>17.5</v>
       </c>
     </row>
@@ -4195,47 +4195,47 @@
         <v>8</v>
       </c>
       <c r="C8">
-        <f>ramping_data!B8</f>
-        <v>1</v>
-      </c>
-      <c r="D8">
-        <f>ramping_data!C8</f>
-        <v>0</v>
+        <f>IF(ramping_data!B8&lt;&gt;0,ramping_data!B8,"")</f>
+        <v>1</v>
+      </c>
+      <c r="D8" t="str">
+        <f>IF(ramping_data!C8&lt;&gt;0,ramping_data!C8,"")</f>
+        <v/>
       </c>
       <c r="E8">
-        <f>ramping_data!D8</f>
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <f>ramping_data!E8</f>
-        <v>0</v>
+        <f>IF(ramping_data!D8&lt;&gt;0,ramping_data!D8,"")</f>
+        <v>1</v>
+      </c>
+      <c r="F8" t="str">
+        <f>IF(ramping_data!E8&lt;&gt;0,ramping_data!E8,"")</f>
+        <v/>
       </c>
       <c r="G8">
-        <f>ramping_data!F8</f>
+        <f>IF(ramping_data!F8&lt;&gt;0,ramping_data!F8,"")</f>
         <v>1</v>
       </c>
       <c r="H8">
-        <f>ramping_data!G8</f>
+        <f>IF(ramping_data!G8&lt;&gt;0,ramping_data!G8,"")</f>
         <v>1</v>
       </c>
       <c r="I8">
-        <f>ramping_data!H8</f>
+        <f>IF(ramping_data!H8&lt;&gt;0,ramping_data!H8,"")</f>
         <v>0.3</v>
       </c>
       <c r="J8">
-        <f>ramping_data!I8</f>
+        <f>IF(ramping_data!I8&lt;&gt;0,ramping_data!I8,"")</f>
         <v>1.8</v>
       </c>
       <c r="K8">
-        <f>ramping_data!J8</f>
+        <f>IF(ramping_data!J8&lt;&gt;0,ramping_data!J8,"")</f>
         <v>1.8</v>
       </c>
       <c r="L8">
-        <f>ramping_data!K8</f>
+        <f>IF(ramping_data!K8&lt;&gt;0,ramping_data!K8,"")</f>
         <v>46</v>
       </c>
       <c r="M8">
-        <f>ramping_data!L8</f>
+        <f>IF(ramping_data!L8&lt;&gt;0,ramping_data!L8,"")</f>
         <v>17.5</v>
       </c>
     </row>
@@ -4248,47 +4248,47 @@
         <v>9</v>
       </c>
       <c r="C9">
-        <f>ramping_data!B9</f>
-        <v>1</v>
-      </c>
-      <c r="D9">
-        <f>ramping_data!C9</f>
-        <v>0</v>
+        <f>IF(ramping_data!B9&lt;&gt;0,ramping_data!B9,"")</f>
+        <v>1</v>
+      </c>
+      <c r="D9" t="str">
+        <f>IF(ramping_data!C9&lt;&gt;0,ramping_data!C9,"")</f>
+        <v/>
       </c>
       <c r="E9">
-        <f>ramping_data!D9</f>
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <f>ramping_data!E9</f>
-        <v>0</v>
+        <f>IF(ramping_data!D9&lt;&gt;0,ramping_data!D9,"")</f>
+        <v>1</v>
+      </c>
+      <c r="F9" t="str">
+        <f>IF(ramping_data!E9&lt;&gt;0,ramping_data!E9,"")</f>
+        <v/>
       </c>
       <c r="G9">
-        <f>ramping_data!F9</f>
+        <f>IF(ramping_data!F9&lt;&gt;0,ramping_data!F9,"")</f>
         <v>1</v>
       </c>
       <c r="H9">
-        <f>ramping_data!G9</f>
+        <f>IF(ramping_data!G9&lt;&gt;0,ramping_data!G9,"")</f>
         <v>1</v>
       </c>
       <c r="I9">
-        <f>ramping_data!H9</f>
+        <f>IF(ramping_data!H9&lt;&gt;0,ramping_data!H9,"")</f>
         <v>0.2</v>
       </c>
       <c r="J9">
-        <f>ramping_data!I9</f>
+        <f>IF(ramping_data!I9&lt;&gt;0,ramping_data!I9,"")</f>
         <v>1.8</v>
       </c>
       <c r="K9">
-        <f>ramping_data!J9</f>
+        <f>IF(ramping_data!J9&lt;&gt;0,ramping_data!J9,"")</f>
         <v>1.8</v>
       </c>
       <c r="L9">
-        <f>ramping_data!K9</f>
+        <f>IF(ramping_data!K9&lt;&gt;0,ramping_data!K9,"")</f>
         <v>58</v>
       </c>
       <c r="M9">
-        <f>ramping_data!L9</f>
+        <f>IF(ramping_data!L9&lt;&gt;0,ramping_data!L9,"")</f>
         <v>17.5</v>
       </c>
     </row>
@@ -4301,48 +4301,48 @@
         <v>10</v>
       </c>
       <c r="C10">
-        <f>ramping_data!B10</f>
-        <v>1</v>
-      </c>
-      <c r="D10">
-        <f>ramping_data!C10</f>
-        <v>0</v>
+        <f>IF(ramping_data!B10&lt;&gt;0,ramping_data!B10,"")</f>
+        <v>1</v>
+      </c>
+      <c r="D10" t="str">
+        <f>IF(ramping_data!C10&lt;&gt;0,ramping_data!C10,"")</f>
+        <v/>
       </c>
       <c r="E10">
-        <f>ramping_data!D10</f>
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <f>ramping_data!E10</f>
-        <v>0</v>
+        <f>IF(ramping_data!D10&lt;&gt;0,ramping_data!D10,"")</f>
+        <v>1</v>
+      </c>
+      <c r="F10" t="str">
+        <f>IF(ramping_data!E10&lt;&gt;0,ramping_data!E10,"")</f>
+        <v/>
       </c>
       <c r="G10">
-        <f>ramping_data!F10</f>
+        <f>IF(ramping_data!F10&lt;&gt;0,ramping_data!F10,"")</f>
         <v>1</v>
       </c>
       <c r="H10">
-        <f>ramping_data!G10</f>
-        <v>1</v>
-      </c>
-      <c r="I10">
-        <f>ramping_data!H10</f>
-        <v>0</v>
-      </c>
-      <c r="J10">
-        <f>ramping_data!I10</f>
-        <v>0</v>
-      </c>
-      <c r="K10">
-        <f>ramping_data!J10</f>
-        <v>0</v>
-      </c>
-      <c r="L10">
-        <f>ramping_data!K10</f>
-        <v>0</v>
-      </c>
-      <c r="M10">
-        <f>ramping_data!L10</f>
-        <v>0</v>
+        <f>IF(ramping_data!G10&lt;&gt;0,ramping_data!G10,"")</f>
+        <v>1</v>
+      </c>
+      <c r="I10" t="str">
+        <f>IF(ramping_data!H10&lt;&gt;0,ramping_data!H10,"")</f>
+        <v/>
+      </c>
+      <c r="J10" t="str">
+        <f>IF(ramping_data!I10&lt;&gt;0,ramping_data!I10,"")</f>
+        <v/>
+      </c>
+      <c r="K10" t="str">
+        <f>IF(ramping_data!J10&lt;&gt;0,ramping_data!J10,"")</f>
+        <v/>
+      </c>
+      <c r="L10" t="str">
+        <f>IF(ramping_data!K10&lt;&gt;0,ramping_data!K10,"")</f>
+        <v/>
+      </c>
+      <c r="M10" t="str">
+        <f>IF(ramping_data!L10&lt;&gt;0,ramping_data!L10,"")</f>
+        <v/>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
@@ -4354,47 +4354,47 @@
         <v>11</v>
       </c>
       <c r="C11">
-        <f>ramping_data!B11</f>
-        <v>1</v>
-      </c>
-      <c r="D11">
-        <f>ramping_data!C11</f>
-        <v>0</v>
+        <f>IF(ramping_data!B11&lt;&gt;0,ramping_data!B11,"")</f>
+        <v>1</v>
+      </c>
+      <c r="D11" t="str">
+        <f>IF(ramping_data!C11&lt;&gt;0,ramping_data!C11,"")</f>
+        <v/>
       </c>
       <c r="E11">
-        <f>ramping_data!D11</f>
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <f>ramping_data!E11</f>
-        <v>0</v>
+        <f>IF(ramping_data!D11&lt;&gt;0,ramping_data!D11,"")</f>
+        <v>1</v>
+      </c>
+      <c r="F11" t="str">
+        <f>IF(ramping_data!E11&lt;&gt;0,ramping_data!E11,"")</f>
+        <v/>
       </c>
       <c r="G11">
-        <f>ramping_data!F11</f>
+        <f>IF(ramping_data!F11&lt;&gt;0,ramping_data!F11,"")</f>
         <v>1</v>
       </c>
       <c r="H11">
-        <f>ramping_data!G11</f>
+        <f>IF(ramping_data!G11&lt;&gt;0,ramping_data!G11,"")</f>
         <v>1</v>
       </c>
       <c r="I11">
-        <f>ramping_data!H11</f>
+        <f>IF(ramping_data!H11&lt;&gt;0,ramping_data!H11,"")</f>
         <v>0.3</v>
       </c>
-      <c r="J11">
-        <f>ramping_data!I11</f>
-        <v>0</v>
-      </c>
-      <c r="K11">
-        <f>ramping_data!J11</f>
-        <v>0</v>
+      <c r="J11" t="str">
+        <f>IF(ramping_data!I11&lt;&gt;0,ramping_data!I11,"")</f>
+        <v/>
+      </c>
+      <c r="K11" t="str">
+        <f>IF(ramping_data!J11&lt;&gt;0,ramping_data!J11,"")</f>
+        <v/>
       </c>
       <c r="L11">
-        <f>ramping_data!K11</f>
+        <f>IF(ramping_data!K11&lt;&gt;0,ramping_data!K11,"")</f>
         <v>2.5</v>
       </c>
       <c r="M11">
-        <f>ramping_data!L11</f>
+        <f>IF(ramping_data!L11&lt;&gt;0,ramping_data!L11,"")</f>
         <v>0.25</v>
       </c>
     </row>
@@ -4407,47 +4407,47 @@
         <v>12</v>
       </c>
       <c r="C12">
-        <f>ramping_data!B12</f>
-        <v>1</v>
-      </c>
-      <c r="D12">
-        <f>ramping_data!C12</f>
-        <v>0</v>
+        <f>IF(ramping_data!B12&lt;&gt;0,ramping_data!B12,"")</f>
+        <v>1</v>
+      </c>
+      <c r="D12" t="str">
+        <f>IF(ramping_data!C12&lt;&gt;0,ramping_data!C12,"")</f>
+        <v/>
       </c>
       <c r="E12">
-        <f>ramping_data!D12</f>
-        <v>1</v>
-      </c>
-      <c r="F12">
-        <f>ramping_data!E12</f>
-        <v>0</v>
+        <f>IF(ramping_data!D12&lt;&gt;0,ramping_data!D12,"")</f>
+        <v>1</v>
+      </c>
+      <c r="F12" t="str">
+        <f>IF(ramping_data!E12&lt;&gt;0,ramping_data!E12,"")</f>
+        <v/>
       </c>
       <c r="G12">
-        <f>ramping_data!F12</f>
+        <f>IF(ramping_data!F12&lt;&gt;0,ramping_data!F12,"")</f>
         <v>1</v>
       </c>
       <c r="H12">
-        <f>ramping_data!G12</f>
-        <v>1</v>
-      </c>
-      <c r="I12">
-        <f>ramping_data!H12</f>
-        <v>0</v>
-      </c>
-      <c r="J12">
-        <f>ramping_data!I12</f>
-        <v>0</v>
-      </c>
-      <c r="K12">
-        <f>ramping_data!J12</f>
-        <v>0</v>
+        <f>IF(ramping_data!G12&lt;&gt;0,ramping_data!G12,"")</f>
+        <v>1</v>
+      </c>
+      <c r="I12" t="str">
+        <f>IF(ramping_data!H12&lt;&gt;0,ramping_data!H12,"")</f>
+        <v/>
+      </c>
+      <c r="J12" t="str">
+        <f>IF(ramping_data!I12&lt;&gt;0,ramping_data!I12,"")</f>
+        <v/>
+      </c>
+      <c r="K12" t="str">
+        <f>IF(ramping_data!J12&lt;&gt;0,ramping_data!J12,"")</f>
+        <v/>
       </c>
       <c r="L12">
-        <f>ramping_data!K12</f>
+        <f>IF(ramping_data!K12&lt;&gt;0,ramping_data!K12,"")</f>
         <v>2.5</v>
       </c>
       <c r="M12">
-        <f>ramping_data!L12</f>
+        <f>IF(ramping_data!L12&lt;&gt;0,ramping_data!L12,"")</f>
         <v>0.25</v>
       </c>
     </row>
@@ -4460,48 +4460,48 @@
         <v>13</v>
       </c>
       <c r="C13">
-        <f>ramping_data!B13</f>
-        <v>1</v>
-      </c>
-      <c r="D13">
-        <f>ramping_data!C13</f>
-        <v>0</v>
+        <f>IF(ramping_data!B13&lt;&gt;0,ramping_data!B13,"")</f>
+        <v>1</v>
+      </c>
+      <c r="D13" t="str">
+        <f>IF(ramping_data!C13&lt;&gt;0,ramping_data!C13,"")</f>
+        <v/>
       </c>
       <c r="E13">
-        <f>ramping_data!D13</f>
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <f>ramping_data!E13</f>
-        <v>0</v>
+        <f>IF(ramping_data!D13&lt;&gt;0,ramping_data!D13,"")</f>
+        <v>1</v>
+      </c>
+      <c r="F13" t="str">
+        <f>IF(ramping_data!E13&lt;&gt;0,ramping_data!E13,"")</f>
+        <v/>
       </c>
       <c r="G13">
-        <f>ramping_data!F13</f>
+        <f>IF(ramping_data!F13&lt;&gt;0,ramping_data!F13,"")</f>
         <v>1</v>
       </c>
       <c r="H13">
-        <f>ramping_data!G13</f>
-        <v>1</v>
-      </c>
-      <c r="I13">
-        <f>ramping_data!H13</f>
-        <v>0</v>
-      </c>
-      <c r="J13">
-        <f>ramping_data!I13</f>
-        <v>0</v>
-      </c>
-      <c r="K13">
-        <f>ramping_data!J13</f>
-        <v>0</v>
-      </c>
-      <c r="L13">
-        <f>ramping_data!K13</f>
-        <v>0</v>
-      </c>
-      <c r="M13">
-        <f>ramping_data!L13</f>
-        <v>0</v>
+        <f>IF(ramping_data!G13&lt;&gt;0,ramping_data!G13,"")</f>
+        <v>1</v>
+      </c>
+      <c r="I13" t="str">
+        <f>IF(ramping_data!H13&lt;&gt;0,ramping_data!H13,"")</f>
+        <v/>
+      </c>
+      <c r="J13" t="str">
+        <f>IF(ramping_data!I13&lt;&gt;0,ramping_data!I13,"")</f>
+        <v/>
+      </c>
+      <c r="K13" t="str">
+        <f>IF(ramping_data!J13&lt;&gt;0,ramping_data!J13,"")</f>
+        <v/>
+      </c>
+      <c r="L13" t="str">
+        <f>IF(ramping_data!K13&lt;&gt;0,ramping_data!K13,"")</f>
+        <v/>
+      </c>
+      <c r="M13" t="str">
+        <f>IF(ramping_data!L13&lt;&gt;0,ramping_data!L13,"")</f>
+        <v/>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
@@ -4513,47 +4513,47 @@
         <v>14</v>
       </c>
       <c r="C14">
-        <f>ramping_data!B14</f>
-        <v>1</v>
-      </c>
-      <c r="D14">
-        <f>ramping_data!C14</f>
-        <v>0</v>
+        <f>IF(ramping_data!B14&lt;&gt;0,ramping_data!B14,"")</f>
+        <v>1</v>
+      </c>
+      <c r="D14" t="str">
+        <f>IF(ramping_data!C14&lt;&gt;0,ramping_data!C14,"")</f>
+        <v/>
       </c>
       <c r="E14">
-        <f>ramping_data!D14</f>
+        <f>IF(ramping_data!D14&lt;&gt;0,ramping_data!D14,"")</f>
         <v>0.05</v>
       </c>
-      <c r="F14">
-        <f>ramping_data!E14</f>
-        <v>0</v>
+      <c r="F14" t="str">
+        <f>IF(ramping_data!E14&lt;&gt;0,ramping_data!E14,"")</f>
+        <v/>
       </c>
       <c r="G14">
-        <f>ramping_data!F14</f>
+        <f>IF(ramping_data!F14&lt;&gt;0,ramping_data!F14,"")</f>
         <v>0.15</v>
       </c>
       <c r="H14">
-        <f>ramping_data!G14</f>
+        <f>IF(ramping_data!G14&lt;&gt;0,ramping_data!G14,"")</f>
         <v>0.15</v>
       </c>
       <c r="I14">
-        <f>ramping_data!H14</f>
+        <f>IF(ramping_data!H14&lt;&gt;0,ramping_data!H14,"")</f>
         <v>0.5</v>
       </c>
-      <c r="J14">
-        <f>ramping_data!I14</f>
-        <v>0</v>
-      </c>
-      <c r="K14">
-        <f>ramping_data!J14</f>
-        <v>0</v>
+      <c r="J14" t="str">
+        <f>IF(ramping_data!I14&lt;&gt;0,ramping_data!I14,"")</f>
+        <v/>
+      </c>
+      <c r="K14" t="str">
+        <f>IF(ramping_data!J14&lt;&gt;0,ramping_data!J14,"")</f>
+        <v/>
       </c>
       <c r="L14">
-        <f>ramping_data!K14</f>
+        <f>IF(ramping_data!K14&lt;&gt;0,ramping_data!K14,"")</f>
         <v>35</v>
       </c>
       <c r="M14">
-        <f>ramping_data!L14</f>
+        <f>IF(ramping_data!L14&lt;&gt;0,ramping_data!L14,"")</f>
         <v>1000</v>
       </c>
     </row>
@@ -4566,48 +4566,48 @@
         <v>15</v>
       </c>
       <c r="C15">
-        <f>ramping_data!B15</f>
-        <v>1</v>
-      </c>
-      <c r="D15">
-        <f>ramping_data!C15</f>
-        <v>0</v>
+        <f>IF(ramping_data!B15&lt;&gt;0,ramping_data!B15,"")</f>
+        <v>1</v>
+      </c>
+      <c r="D15" t="str">
+        <f>IF(ramping_data!C15&lt;&gt;0,ramping_data!C15,"")</f>
+        <v/>
       </c>
       <c r="E15">
-        <f>ramping_data!D15</f>
-        <v>1</v>
-      </c>
-      <c r="F15">
-        <f>ramping_data!E15</f>
-        <v>0</v>
+        <f>IF(ramping_data!D15&lt;&gt;0,ramping_data!D15,"")</f>
+        <v>1</v>
+      </c>
+      <c r="F15" t="str">
+        <f>IF(ramping_data!E15&lt;&gt;0,ramping_data!E15,"")</f>
+        <v/>
       </c>
       <c r="G15">
-        <f>ramping_data!F15</f>
+        <f>IF(ramping_data!F15&lt;&gt;0,ramping_data!F15,"")</f>
         <v>1</v>
       </c>
       <c r="H15">
-        <f>ramping_data!G15</f>
-        <v>1</v>
-      </c>
-      <c r="I15">
-        <f>ramping_data!H15</f>
-        <v>0</v>
+        <f>IF(ramping_data!G15&lt;&gt;0,ramping_data!G15,"")</f>
+        <v>1</v>
+      </c>
+      <c r="I15" t="str">
+        <f>IF(ramping_data!H15&lt;&gt;0,ramping_data!H15,"")</f>
+        <v/>
       </c>
       <c r="J15">
-        <f>ramping_data!I15</f>
+        <f>IF(ramping_data!I15&lt;&gt;0,ramping_data!I15,"")</f>
         <v>1</v>
       </c>
       <c r="K15">
-        <f>ramping_data!J15</f>
-        <v>1</v>
-      </c>
-      <c r="L15">
-        <f>ramping_data!K15</f>
-        <v>0</v>
-      </c>
-      <c r="M15">
-        <f>ramping_data!L15</f>
-        <v>0</v>
+        <f>IF(ramping_data!J15&lt;&gt;0,ramping_data!J15,"")</f>
+        <v>1</v>
+      </c>
+      <c r="L15" t="str">
+        <f>IF(ramping_data!K15&lt;&gt;0,ramping_data!K15,"")</f>
+        <v/>
+      </c>
+      <c r="M15" t="str">
+        <f>IF(ramping_data!L15&lt;&gt;0,ramping_data!L15,"")</f>
+        <v/>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
@@ -4619,48 +4619,48 @@
         <v>16</v>
       </c>
       <c r="C16">
-        <f>ramping_data!B16</f>
-        <v>1</v>
-      </c>
-      <c r="D16">
-        <f>ramping_data!C16</f>
-        <v>0</v>
+        <f>IF(ramping_data!B16&lt;&gt;0,ramping_data!B16,"")</f>
+        <v>1</v>
+      </c>
+      <c r="D16" t="str">
+        <f>IF(ramping_data!C16&lt;&gt;0,ramping_data!C16,"")</f>
+        <v/>
       </c>
       <c r="E16">
-        <f>ramping_data!D16</f>
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <f>ramping_data!E16</f>
-        <v>0</v>
+        <f>IF(ramping_data!D16&lt;&gt;0,ramping_data!D16,"")</f>
+        <v>1</v>
+      </c>
+      <c r="F16" t="str">
+        <f>IF(ramping_data!E16&lt;&gt;0,ramping_data!E16,"")</f>
+        <v/>
       </c>
       <c r="G16">
-        <f>ramping_data!F16</f>
+        <f>IF(ramping_data!F16&lt;&gt;0,ramping_data!F16,"")</f>
         <v>1</v>
       </c>
       <c r="H16">
-        <f>ramping_data!G16</f>
-        <v>1</v>
-      </c>
-      <c r="I16">
-        <f>ramping_data!H16</f>
-        <v>0</v>
-      </c>
-      <c r="J16">
-        <f>ramping_data!I16</f>
-        <v>0</v>
-      </c>
-      <c r="K16">
-        <f>ramping_data!J16</f>
-        <v>0</v>
-      </c>
-      <c r="L16">
-        <f>ramping_data!K16</f>
-        <v>0</v>
-      </c>
-      <c r="M16">
-        <f>ramping_data!L16</f>
-        <v>0</v>
+        <f>IF(ramping_data!G16&lt;&gt;0,ramping_data!G16,"")</f>
+        <v>1</v>
+      </c>
+      <c r="I16" t="str">
+        <f>IF(ramping_data!H16&lt;&gt;0,ramping_data!H16,"")</f>
+        <v/>
+      </c>
+      <c r="J16" t="str">
+        <f>IF(ramping_data!I16&lt;&gt;0,ramping_data!I16,"")</f>
+        <v/>
+      </c>
+      <c r="K16" t="str">
+        <f>IF(ramping_data!J16&lt;&gt;0,ramping_data!J16,"")</f>
+        <v/>
+      </c>
+      <c r="L16" t="str">
+        <f>IF(ramping_data!K16&lt;&gt;0,ramping_data!K16,"")</f>
+        <v/>
+      </c>
+      <c r="M16" t="str">
+        <f>IF(ramping_data!L16&lt;&gt;0,ramping_data!L16,"")</f>
+        <v/>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
@@ -4672,48 +4672,48 @@
         <v>17</v>
       </c>
       <c r="C17">
-        <f>ramping_data!B17</f>
-        <v>1</v>
-      </c>
-      <c r="D17">
-        <f>ramping_data!C17</f>
-        <v>0</v>
+        <f>IF(ramping_data!B17&lt;&gt;0,ramping_data!B17,"")</f>
+        <v>1</v>
+      </c>
+      <c r="D17" t="str">
+        <f>IF(ramping_data!C17&lt;&gt;0,ramping_data!C17,"")</f>
+        <v/>
       </c>
       <c r="E17">
-        <f>ramping_data!D17</f>
-        <v>1</v>
-      </c>
-      <c r="F17">
-        <f>ramping_data!E17</f>
-        <v>0</v>
+        <f>IF(ramping_data!D17&lt;&gt;0,ramping_data!D17,"")</f>
+        <v>1</v>
+      </c>
+      <c r="F17" t="str">
+        <f>IF(ramping_data!E17&lt;&gt;0,ramping_data!E17,"")</f>
+        <v/>
       </c>
       <c r="G17">
-        <f>ramping_data!F17</f>
+        <f>IF(ramping_data!F17&lt;&gt;0,ramping_data!F17,"")</f>
         <v>1</v>
       </c>
       <c r="H17">
-        <f>ramping_data!G17</f>
-        <v>1</v>
-      </c>
-      <c r="I17">
-        <f>ramping_data!H17</f>
-        <v>0</v>
-      </c>
-      <c r="J17">
-        <f>ramping_data!I17</f>
-        <v>0</v>
-      </c>
-      <c r="K17">
-        <f>ramping_data!J17</f>
-        <v>0</v>
-      </c>
-      <c r="L17">
-        <f>ramping_data!K17</f>
-        <v>0</v>
-      </c>
-      <c r="M17">
-        <f>ramping_data!L17</f>
-        <v>0</v>
+        <f>IF(ramping_data!G17&lt;&gt;0,ramping_data!G17,"")</f>
+        <v>1</v>
+      </c>
+      <c r="I17" t="str">
+        <f>IF(ramping_data!H17&lt;&gt;0,ramping_data!H17,"")</f>
+        <v/>
+      </c>
+      <c r="J17" t="str">
+        <f>IF(ramping_data!I17&lt;&gt;0,ramping_data!I17,"")</f>
+        <v/>
+      </c>
+      <c r="K17" t="str">
+        <f>IF(ramping_data!J17&lt;&gt;0,ramping_data!J17,"")</f>
+        <v/>
+      </c>
+      <c r="L17" t="str">
+        <f>IF(ramping_data!K17&lt;&gt;0,ramping_data!K17,"")</f>
+        <v/>
+      </c>
+      <c r="M17" t="str">
+        <f>IF(ramping_data!L17&lt;&gt;0,ramping_data!L17,"")</f>
+        <v/>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
@@ -4725,47 +4725,47 @@
         <v>18</v>
       </c>
       <c r="C18">
-        <f>ramping_data!B18</f>
-        <v>1</v>
-      </c>
-      <c r="D18">
-        <f>ramping_data!C18</f>
-        <v>0</v>
+        <f>IF(ramping_data!B18&lt;&gt;0,ramping_data!B18,"")</f>
+        <v>1</v>
+      </c>
+      <c r="D18" t="str">
+        <f>IF(ramping_data!C18&lt;&gt;0,ramping_data!C18,"")</f>
+        <v/>
       </c>
       <c r="E18">
-        <f>ramping_data!D18</f>
-        <v>1</v>
-      </c>
-      <c r="F18">
-        <f>ramping_data!E18</f>
-        <v>0</v>
+        <f>IF(ramping_data!D18&lt;&gt;0,ramping_data!D18,"")</f>
+        <v>1</v>
+      </c>
+      <c r="F18" t="str">
+        <f>IF(ramping_data!E18&lt;&gt;0,ramping_data!E18,"")</f>
+        <v/>
       </c>
       <c r="G18">
-        <f>ramping_data!F18</f>
+        <f>IF(ramping_data!F18&lt;&gt;0,ramping_data!F18,"")</f>
         <v>1</v>
       </c>
       <c r="H18">
-        <f>ramping_data!G18</f>
+        <f>IF(ramping_data!G18&lt;&gt;0,ramping_data!G18,"")</f>
         <v>1</v>
       </c>
       <c r="I18">
-        <f>ramping_data!H18</f>
+        <f>IF(ramping_data!H18&lt;&gt;0,ramping_data!H18,"")</f>
         <v>0.2</v>
       </c>
       <c r="J18">
-        <f>ramping_data!I18</f>
+        <f>IF(ramping_data!I18&lt;&gt;0,ramping_data!I18,"")</f>
         <v>1.8</v>
       </c>
       <c r="K18">
-        <f>ramping_data!J18</f>
+        <f>IF(ramping_data!J18&lt;&gt;0,ramping_data!J18,"")</f>
         <v>1.8</v>
       </c>
       <c r="L18">
-        <f>ramping_data!K18</f>
+        <f>IF(ramping_data!K18&lt;&gt;0,ramping_data!K18,"")</f>
         <v>36</v>
       </c>
       <c r="M18">
-        <f>ramping_data!L18</f>
+        <f>IF(ramping_data!L18&lt;&gt;0,ramping_data!L18,"")</f>
         <v>17.5</v>
       </c>
     </row>
@@ -4778,48 +4778,48 @@
         <v>19</v>
       </c>
       <c r="C19">
-        <f>ramping_data!B19</f>
-        <v>1</v>
-      </c>
-      <c r="D19">
-        <f>ramping_data!C19</f>
-        <v>0</v>
+        <f>IF(ramping_data!B19&lt;&gt;0,ramping_data!B19,"")</f>
+        <v>1</v>
+      </c>
+      <c r="D19" t="str">
+        <f>IF(ramping_data!C19&lt;&gt;0,ramping_data!C19,"")</f>
+        <v/>
       </c>
       <c r="E19">
-        <f>ramping_data!D19</f>
-        <v>1</v>
-      </c>
-      <c r="F19">
-        <f>ramping_data!E19</f>
-        <v>0</v>
+        <f>IF(ramping_data!D19&lt;&gt;0,ramping_data!D19,"")</f>
+        <v>1</v>
+      </c>
+      <c r="F19" t="str">
+        <f>IF(ramping_data!E19&lt;&gt;0,ramping_data!E19,"")</f>
+        <v/>
       </c>
       <c r="G19">
-        <f>ramping_data!F19</f>
+        <f>IF(ramping_data!F19&lt;&gt;0,ramping_data!F19,"")</f>
         <v>1</v>
       </c>
       <c r="H19">
-        <f>ramping_data!G19</f>
-        <v>1</v>
-      </c>
-      <c r="I19">
-        <f>ramping_data!H19</f>
-        <v>0</v>
-      </c>
-      <c r="J19">
-        <f>ramping_data!I19</f>
-        <v>0</v>
-      </c>
-      <c r="K19">
-        <f>ramping_data!J19</f>
-        <v>0</v>
-      </c>
-      <c r="L19">
-        <f>ramping_data!K19</f>
-        <v>0</v>
-      </c>
-      <c r="M19">
-        <f>ramping_data!L19</f>
-        <v>0</v>
+        <f>IF(ramping_data!G19&lt;&gt;0,ramping_data!G19,"")</f>
+        <v>1</v>
+      </c>
+      <c r="I19" t="str">
+        <f>IF(ramping_data!H19&lt;&gt;0,ramping_data!H19,"")</f>
+        <v/>
+      </c>
+      <c r="J19" t="str">
+        <f>IF(ramping_data!I19&lt;&gt;0,ramping_data!I19,"")</f>
+        <v/>
+      </c>
+      <c r="K19" t="str">
+        <f>IF(ramping_data!J19&lt;&gt;0,ramping_data!J19,"")</f>
+        <v/>
+      </c>
+      <c r="L19" t="str">
+        <f>IF(ramping_data!K19&lt;&gt;0,ramping_data!K19,"")</f>
+        <v/>
+      </c>
+      <c r="M19" t="str">
+        <f>IF(ramping_data!L19&lt;&gt;0,ramping_data!L19,"")</f>
+        <v/>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
@@ -4831,48 +4831,48 @@
         <v>20</v>
       </c>
       <c r="C20">
-        <f>ramping_data!B20</f>
-        <v>1</v>
-      </c>
-      <c r="D20">
-        <f>ramping_data!C20</f>
-        <v>0</v>
+        <f>IF(ramping_data!B20&lt;&gt;0,ramping_data!B20,"")</f>
+        <v>1</v>
+      </c>
+      <c r="D20" t="str">
+        <f>IF(ramping_data!C20&lt;&gt;0,ramping_data!C20,"")</f>
+        <v/>
       </c>
       <c r="E20">
-        <f>ramping_data!D20</f>
-        <v>1</v>
-      </c>
-      <c r="F20">
-        <f>ramping_data!E20</f>
-        <v>0</v>
+        <f>IF(ramping_data!D20&lt;&gt;0,ramping_data!D20,"")</f>
+        <v>1</v>
+      </c>
+      <c r="F20" t="str">
+        <f>IF(ramping_data!E20&lt;&gt;0,ramping_data!E20,"")</f>
+        <v/>
       </c>
       <c r="G20">
-        <f>ramping_data!F20</f>
+        <f>IF(ramping_data!F20&lt;&gt;0,ramping_data!F20,"")</f>
         <v>1</v>
       </c>
       <c r="H20">
-        <f>ramping_data!G20</f>
-        <v>1</v>
-      </c>
-      <c r="I20">
-        <f>ramping_data!H20</f>
-        <v>0</v>
-      </c>
-      <c r="J20">
-        <f>ramping_data!I20</f>
-        <v>0</v>
-      </c>
-      <c r="K20">
-        <f>ramping_data!J20</f>
-        <v>0</v>
-      </c>
-      <c r="L20">
-        <f>ramping_data!K20</f>
-        <v>0</v>
-      </c>
-      <c r="M20">
-        <f>ramping_data!L20</f>
-        <v>0</v>
+        <f>IF(ramping_data!G20&lt;&gt;0,ramping_data!G20,"")</f>
+        <v>1</v>
+      </c>
+      <c r="I20" t="str">
+        <f>IF(ramping_data!H20&lt;&gt;0,ramping_data!H20,"")</f>
+        <v/>
+      </c>
+      <c r="J20" t="str">
+        <f>IF(ramping_data!I20&lt;&gt;0,ramping_data!I20,"")</f>
+        <v/>
+      </c>
+      <c r="K20" t="str">
+        <f>IF(ramping_data!J20&lt;&gt;0,ramping_data!J20,"")</f>
+        <v/>
+      </c>
+      <c r="L20" t="str">
+        <f>IF(ramping_data!K20&lt;&gt;0,ramping_data!K20,"")</f>
+        <v/>
+      </c>
+      <c r="M20" t="str">
+        <f>IF(ramping_data!L20&lt;&gt;0,ramping_data!L20,"")</f>
+        <v/>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
@@ -4884,47 +4884,47 @@
         <v>27</v>
       </c>
       <c r="C21">
-        <f>ramping_data!B21</f>
-        <v>1</v>
-      </c>
-      <c r="D21">
-        <f>ramping_data!C21</f>
-        <v>0</v>
+        <f>IF(ramping_data!B21&lt;&gt;0,ramping_data!B21,"")</f>
+        <v>1</v>
+      </c>
+      <c r="D21" t="str">
+        <f>IF(ramping_data!C21&lt;&gt;0,ramping_data!C21,"")</f>
+        <v/>
       </c>
       <c r="E21">
-        <f>ramping_data!D21</f>
+        <f>IF(ramping_data!D21&lt;&gt;0,ramping_data!D21,"")</f>
         <v>0.4</v>
       </c>
-      <c r="F21">
-        <f>ramping_data!E21</f>
-        <v>0</v>
+      <c r="F21" t="str">
+        <f>IF(ramping_data!E21&lt;&gt;0,ramping_data!E21,"")</f>
+        <v/>
       </c>
       <c r="G21">
-        <f>ramping_data!F21</f>
+        <f>IF(ramping_data!F21&lt;&gt;0,ramping_data!F21,"")</f>
         <v>1</v>
       </c>
       <c r="H21">
-        <f>ramping_data!G21</f>
+        <f>IF(ramping_data!G21&lt;&gt;0,ramping_data!G21,"")</f>
         <v>1</v>
       </c>
       <c r="I21">
-        <f>ramping_data!H21</f>
+        <f>IF(ramping_data!H21&lt;&gt;0,ramping_data!H21,"")</f>
         <v>0.3</v>
       </c>
-      <c r="J21">
-        <f>ramping_data!I21</f>
-        <v>0</v>
-      </c>
-      <c r="K21">
-        <f>ramping_data!J21</f>
-        <v>0</v>
+      <c r="J21" t="str">
+        <f>IF(ramping_data!I21&lt;&gt;0,ramping_data!I21,"")</f>
+        <v/>
+      </c>
+      <c r="K21" t="str">
+        <f>IF(ramping_data!J21&lt;&gt;0,ramping_data!J21,"")</f>
+        <v/>
       </c>
       <c r="L21">
-        <f>ramping_data!K21</f>
+        <f>IF(ramping_data!K21&lt;&gt;0,ramping_data!K21,"")</f>
         <v>2.5</v>
       </c>
       <c r="M21">
-        <f>ramping_data!L21</f>
+        <f>IF(ramping_data!L21&lt;&gt;0,ramping_data!L21,"")</f>
         <v>0.25</v>
       </c>
     </row>
@@ -4938,7 +4938,7 @@
   <dimension ref="A1:M21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C2" sqref="C2:M21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -5009,47 +5009,47 @@
         <v>2</v>
       </c>
       <c r="C2">
-        <f>ramping_data!B2</f>
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <f>ramping_data!C2</f>
-        <v>0</v>
+        <f>IF(ramping_data!B2&lt;&gt;0,ramping_data!B2,"")</f>
+        <v>1</v>
+      </c>
+      <c r="D2" t="str">
+        <f>IF(ramping_data!C2&lt;&gt;0,ramping_data!C2,"")</f>
+        <v/>
       </c>
       <c r="E2">
-        <f>ramping_data!D2</f>
-        <v>1</v>
-      </c>
-      <c r="F2">
-        <f>ramping_data!E2</f>
-        <v>0</v>
+        <f>IF(ramping_data!D2&lt;&gt;0,ramping_data!D2,"")</f>
+        <v>1</v>
+      </c>
+      <c r="F2" t="str">
+        <f>IF(ramping_data!E2&lt;&gt;0,ramping_data!E2,"")</f>
+        <v/>
       </c>
       <c r="G2">
-        <f>ramping_data!F2</f>
+        <f>IF(ramping_data!F2&lt;&gt;0,ramping_data!F2,"")</f>
         <v>1</v>
       </c>
       <c r="H2">
-        <f>ramping_data!G2</f>
+        <f>IF(ramping_data!G2&lt;&gt;0,ramping_data!G2,"")</f>
         <v>1</v>
       </c>
       <c r="I2">
-        <f>ramping_data!H2</f>
+        <f>IF(ramping_data!H2&lt;&gt;0,ramping_data!H2,"")</f>
         <v>0.2</v>
       </c>
       <c r="J2">
-        <f>ramping_data!I2</f>
+        <f>IF(ramping_data!I2&lt;&gt;0,ramping_data!I2,"")</f>
         <v>1.8</v>
       </c>
       <c r="K2">
-        <f>ramping_data!J2</f>
+        <f>IF(ramping_data!J2&lt;&gt;0,ramping_data!J2,"")</f>
         <v>1.8</v>
       </c>
       <c r="L2">
-        <f>ramping_data!K2</f>
+        <f>IF(ramping_data!K2&lt;&gt;0,ramping_data!K2,"")</f>
         <v>36</v>
       </c>
       <c r="M2">
-        <f>ramping_data!L2</f>
+        <f>IF(ramping_data!L2&lt;&gt;0,ramping_data!L2,"")</f>
         <v>17.5</v>
       </c>
     </row>
@@ -5062,47 +5062,47 @@
         <v>3</v>
       </c>
       <c r="C3">
-        <f>ramping_data!B3</f>
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <f>ramping_data!C3</f>
-        <v>0</v>
+        <f>IF(ramping_data!B3&lt;&gt;0,ramping_data!B3,"")</f>
+        <v>1</v>
+      </c>
+      <c r="D3" t="str">
+        <f>IF(ramping_data!C3&lt;&gt;0,ramping_data!C3,"")</f>
+        <v/>
       </c>
       <c r="E3">
-        <f>ramping_data!D3</f>
+        <f>IF(ramping_data!D3&lt;&gt;0,ramping_data!D3,"")</f>
         <v>0.5</v>
       </c>
-      <c r="F3">
-        <f>ramping_data!E3</f>
-        <v>0</v>
+      <c r="F3" t="str">
+        <f>IF(ramping_data!E3&lt;&gt;0,ramping_data!E3,"")</f>
+        <v/>
       </c>
       <c r="G3">
-        <f>ramping_data!F3</f>
+        <f>IF(ramping_data!F3&lt;&gt;0,ramping_data!F3,"")</f>
         <v>0.5</v>
       </c>
       <c r="H3">
-        <f>ramping_data!G3</f>
+        <f>IF(ramping_data!G3&lt;&gt;0,ramping_data!G3,"")</f>
         <v>0.5</v>
       </c>
       <c r="I3">
-        <f>ramping_data!H3</f>
+        <f>IF(ramping_data!H3&lt;&gt;0,ramping_data!H3,"")</f>
         <v>0.4</v>
       </c>
       <c r="J3">
-        <f>ramping_data!I3</f>
+        <f>IF(ramping_data!I3&lt;&gt;0,ramping_data!I3,"")</f>
         <v>1.8</v>
       </c>
       <c r="K3">
-        <f>ramping_data!J3</f>
+        <f>IF(ramping_data!J3&lt;&gt;0,ramping_data!J3,"")</f>
         <v>1.8</v>
       </c>
       <c r="L3">
-        <f>ramping_data!K3</f>
+        <f>IF(ramping_data!K3&lt;&gt;0,ramping_data!K3,"")</f>
         <v>58</v>
       </c>
       <c r="M3">
-        <f>ramping_data!L3</f>
+        <f>IF(ramping_data!L3&lt;&gt;0,ramping_data!L3,"")</f>
         <v>17.5</v>
       </c>
     </row>
@@ -5115,47 +5115,47 @@
         <v>4</v>
       </c>
       <c r="C4">
-        <f>ramping_data!B4</f>
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <f>ramping_data!C4</f>
-        <v>0</v>
+        <f>IF(ramping_data!B4&lt;&gt;0,ramping_data!B4,"")</f>
+        <v>1</v>
+      </c>
+      <c r="D4" t="str">
+        <f>IF(ramping_data!C4&lt;&gt;0,ramping_data!C4,"")</f>
+        <v/>
       </c>
       <c r="E4">
-        <f>ramping_data!D4</f>
+        <f>IF(ramping_data!D4&lt;&gt;0,ramping_data!D4,"")</f>
         <v>0.5</v>
       </c>
-      <c r="F4">
-        <f>ramping_data!E4</f>
-        <v>0</v>
+      <c r="F4" t="str">
+        <f>IF(ramping_data!E4&lt;&gt;0,ramping_data!E4,"")</f>
+        <v/>
       </c>
       <c r="G4">
-        <f>ramping_data!F4</f>
+        <f>IF(ramping_data!F4&lt;&gt;0,ramping_data!F4,"")</f>
         <v>0.5</v>
       </c>
       <c r="H4">
-        <f>ramping_data!G4</f>
+        <f>IF(ramping_data!G4&lt;&gt;0,ramping_data!G4,"")</f>
         <v>0.5</v>
       </c>
       <c r="I4">
-        <f>ramping_data!H4</f>
+        <f>IF(ramping_data!H4&lt;&gt;0,ramping_data!H4,"")</f>
         <v>0.4</v>
       </c>
       <c r="J4">
-        <f>ramping_data!I4</f>
+        <f>IF(ramping_data!I4&lt;&gt;0,ramping_data!I4,"")</f>
         <v>0.52500000000000002</v>
       </c>
       <c r="K4">
-        <f>ramping_data!J4</f>
+        <f>IF(ramping_data!J4&lt;&gt;0,ramping_data!J4,"")</f>
         <v>0.52500000000000002</v>
       </c>
       <c r="L4">
-        <f>ramping_data!K4</f>
+        <f>IF(ramping_data!K4&lt;&gt;0,ramping_data!K4,"")</f>
         <v>85</v>
       </c>
       <c r="M4">
-        <f>ramping_data!L4</f>
+        <f>IF(ramping_data!L4&lt;&gt;0,ramping_data!L4,"")</f>
         <v>8.5</v>
       </c>
     </row>
@@ -5168,47 +5168,47 @@
         <v>5</v>
       </c>
       <c r="C5">
-        <f>ramping_data!B5</f>
-        <v>1</v>
-      </c>
-      <c r="D5">
-        <f>ramping_data!C5</f>
-        <v>0</v>
+        <f>IF(ramping_data!B5&lt;&gt;0,ramping_data!B5,"")</f>
+        <v>1</v>
+      </c>
+      <c r="D5" t="str">
+        <f>IF(ramping_data!C5&lt;&gt;0,ramping_data!C5,"")</f>
+        <v/>
       </c>
       <c r="E5">
-        <f>ramping_data!D5</f>
+        <f>IF(ramping_data!D5&lt;&gt;0,ramping_data!D5,"")</f>
         <v>0.5</v>
       </c>
-      <c r="F5">
-        <f>ramping_data!E5</f>
-        <v>0</v>
+      <c r="F5" t="str">
+        <f>IF(ramping_data!E5&lt;&gt;0,ramping_data!E5,"")</f>
+        <v/>
       </c>
       <c r="G5">
-        <f>ramping_data!F5</f>
+        <f>IF(ramping_data!F5&lt;&gt;0,ramping_data!F5,"")</f>
         <v>0.5</v>
       </c>
       <c r="H5">
-        <f>ramping_data!G5</f>
+        <f>IF(ramping_data!G5&lt;&gt;0,ramping_data!G5,"")</f>
         <v>0.5</v>
       </c>
       <c r="I5">
-        <f>ramping_data!H5</f>
+        <f>IF(ramping_data!H5&lt;&gt;0,ramping_data!H5,"")</f>
         <v>0.4</v>
       </c>
       <c r="J5">
-        <f>ramping_data!I5</f>
+        <f>IF(ramping_data!I5&lt;&gt;0,ramping_data!I5,"")</f>
         <v>0.52500000000000002</v>
       </c>
       <c r="K5">
-        <f>ramping_data!J5</f>
+        <f>IF(ramping_data!J5&lt;&gt;0,ramping_data!J5,"")</f>
         <v>0.52500000000000002</v>
       </c>
       <c r="L5">
-        <f>ramping_data!K5</f>
+        <f>IF(ramping_data!K5&lt;&gt;0,ramping_data!K5,"")</f>
         <v>85</v>
       </c>
       <c r="M5">
-        <f>ramping_data!L5</f>
+        <f>IF(ramping_data!L5&lt;&gt;0,ramping_data!L5,"")</f>
         <v>8.5</v>
       </c>
     </row>
@@ -5221,47 +5221,47 @@
         <v>6</v>
       </c>
       <c r="C6">
-        <f>ramping_data!B6</f>
-        <v>1</v>
-      </c>
-      <c r="D6">
-        <f>ramping_data!C6</f>
-        <v>0</v>
+        <f>IF(ramping_data!B6&lt;&gt;0,ramping_data!B6,"")</f>
+        <v>1</v>
+      </c>
+      <c r="D6" t="str">
+        <f>IF(ramping_data!C6&lt;&gt;0,ramping_data!C6,"")</f>
+        <v/>
       </c>
       <c r="E6">
-        <f>ramping_data!D6</f>
+        <f>IF(ramping_data!D6&lt;&gt;0,ramping_data!D6,"")</f>
         <v>0.3</v>
       </c>
-      <c r="F6">
-        <f>ramping_data!E6</f>
-        <v>0</v>
+      <c r="F6" t="str">
+        <f>IF(ramping_data!E6&lt;&gt;0,ramping_data!E6,"")</f>
+        <v/>
       </c>
       <c r="G6">
-        <f>ramping_data!F6</f>
+        <f>IF(ramping_data!F6&lt;&gt;0,ramping_data!F6,"")</f>
         <v>0.5</v>
       </c>
       <c r="H6">
-        <f>ramping_data!G6</f>
+        <f>IF(ramping_data!G6&lt;&gt;0,ramping_data!G6,"")</f>
         <v>0.5</v>
       </c>
       <c r="I6">
-        <f>ramping_data!H6</f>
+        <f>IF(ramping_data!H6&lt;&gt;0,ramping_data!H6,"")</f>
         <v>0.25</v>
       </c>
       <c r="J6">
-        <f>ramping_data!I6</f>
+        <f>IF(ramping_data!I6&lt;&gt;0,ramping_data!I6,"")</f>
         <v>1.8</v>
       </c>
       <c r="K6">
-        <f>ramping_data!J6</f>
+        <f>IF(ramping_data!J6&lt;&gt;0,ramping_data!J6,"")</f>
         <v>1.8</v>
       </c>
       <c r="L6">
-        <f>ramping_data!K6</f>
+        <f>IF(ramping_data!K6&lt;&gt;0,ramping_data!K6,"")</f>
         <v>35</v>
       </c>
       <c r="M6">
-        <f>ramping_data!L6</f>
+        <f>IF(ramping_data!L6&lt;&gt;0,ramping_data!L6,"")</f>
         <v>17.5</v>
       </c>
     </row>
@@ -5274,47 +5274,47 @@
         <v>7</v>
       </c>
       <c r="C7">
-        <f>ramping_data!B7</f>
-        <v>1</v>
-      </c>
-      <c r="D7">
-        <f>ramping_data!C7</f>
-        <v>0</v>
+        <f>IF(ramping_data!B7&lt;&gt;0,ramping_data!B7,"")</f>
+        <v>1</v>
+      </c>
+      <c r="D7" t="str">
+        <f>IF(ramping_data!C7&lt;&gt;0,ramping_data!C7,"")</f>
+        <v/>
       </c>
       <c r="E7">
-        <f>ramping_data!D7</f>
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <f>ramping_data!E7</f>
-        <v>0</v>
+        <f>IF(ramping_data!D7&lt;&gt;0,ramping_data!D7,"")</f>
+        <v>1</v>
+      </c>
+      <c r="F7" t="str">
+        <f>IF(ramping_data!E7&lt;&gt;0,ramping_data!E7,"")</f>
+        <v/>
       </c>
       <c r="G7">
-        <f>ramping_data!F7</f>
+        <f>IF(ramping_data!F7&lt;&gt;0,ramping_data!F7,"")</f>
         <v>1</v>
       </c>
       <c r="H7">
-        <f>ramping_data!G7</f>
+        <f>IF(ramping_data!G7&lt;&gt;0,ramping_data!G7,"")</f>
         <v>1</v>
       </c>
       <c r="I7">
-        <f>ramping_data!H7</f>
+        <f>IF(ramping_data!H7&lt;&gt;0,ramping_data!H7,"")</f>
         <v>0.3</v>
       </c>
       <c r="J7">
-        <f>ramping_data!I7</f>
+        <f>IF(ramping_data!I7&lt;&gt;0,ramping_data!I7,"")</f>
         <v>1.8</v>
       </c>
       <c r="K7">
-        <f>ramping_data!J7</f>
+        <f>IF(ramping_data!J7&lt;&gt;0,ramping_data!J7,"")</f>
         <v>1.8</v>
       </c>
       <c r="L7">
-        <f>ramping_data!K7</f>
+        <f>IF(ramping_data!K7&lt;&gt;0,ramping_data!K7,"")</f>
         <v>46</v>
       </c>
       <c r="M7">
-        <f>ramping_data!L7</f>
+        <f>IF(ramping_data!L7&lt;&gt;0,ramping_data!L7,"")</f>
         <v>17.5</v>
       </c>
     </row>
@@ -5327,47 +5327,47 @@
         <v>8</v>
       </c>
       <c r="C8">
-        <f>ramping_data!B8</f>
-        <v>1</v>
-      </c>
-      <c r="D8">
-        <f>ramping_data!C8</f>
-        <v>0</v>
+        <f>IF(ramping_data!B8&lt;&gt;0,ramping_data!B8,"")</f>
+        <v>1</v>
+      </c>
+      <c r="D8" t="str">
+        <f>IF(ramping_data!C8&lt;&gt;0,ramping_data!C8,"")</f>
+        <v/>
       </c>
       <c r="E8">
-        <f>ramping_data!D8</f>
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <f>ramping_data!E8</f>
-        <v>0</v>
+        <f>IF(ramping_data!D8&lt;&gt;0,ramping_data!D8,"")</f>
+        <v>1</v>
+      </c>
+      <c r="F8" t="str">
+        <f>IF(ramping_data!E8&lt;&gt;0,ramping_data!E8,"")</f>
+        <v/>
       </c>
       <c r="G8">
-        <f>ramping_data!F8</f>
+        <f>IF(ramping_data!F8&lt;&gt;0,ramping_data!F8,"")</f>
         <v>1</v>
       </c>
       <c r="H8">
-        <f>ramping_data!G8</f>
+        <f>IF(ramping_data!G8&lt;&gt;0,ramping_data!G8,"")</f>
         <v>1</v>
       </c>
       <c r="I8">
-        <f>ramping_data!H8</f>
+        <f>IF(ramping_data!H8&lt;&gt;0,ramping_data!H8,"")</f>
         <v>0.3</v>
       </c>
       <c r="J8">
-        <f>ramping_data!I8</f>
+        <f>IF(ramping_data!I8&lt;&gt;0,ramping_data!I8,"")</f>
         <v>1.8</v>
       </c>
       <c r="K8">
-        <f>ramping_data!J8</f>
+        <f>IF(ramping_data!J8&lt;&gt;0,ramping_data!J8,"")</f>
         <v>1.8</v>
       </c>
       <c r="L8">
-        <f>ramping_data!K8</f>
+        <f>IF(ramping_data!K8&lt;&gt;0,ramping_data!K8,"")</f>
         <v>46</v>
       </c>
       <c r="M8">
-        <f>ramping_data!L8</f>
+        <f>IF(ramping_data!L8&lt;&gt;0,ramping_data!L8,"")</f>
         <v>17.5</v>
       </c>
     </row>
@@ -5380,47 +5380,47 @@
         <v>9</v>
       </c>
       <c r="C9">
-        <f>ramping_data!B9</f>
-        <v>1</v>
-      </c>
-      <c r="D9">
-        <f>ramping_data!C9</f>
-        <v>0</v>
+        <f>IF(ramping_data!B9&lt;&gt;0,ramping_data!B9,"")</f>
+        <v>1</v>
+      </c>
+      <c r="D9" t="str">
+        <f>IF(ramping_data!C9&lt;&gt;0,ramping_data!C9,"")</f>
+        <v/>
       </c>
       <c r="E9">
-        <f>ramping_data!D9</f>
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <f>ramping_data!E9</f>
-        <v>0</v>
+        <f>IF(ramping_data!D9&lt;&gt;0,ramping_data!D9,"")</f>
+        <v>1</v>
+      </c>
+      <c r="F9" t="str">
+        <f>IF(ramping_data!E9&lt;&gt;0,ramping_data!E9,"")</f>
+        <v/>
       </c>
       <c r="G9">
-        <f>ramping_data!F9</f>
+        <f>IF(ramping_data!F9&lt;&gt;0,ramping_data!F9,"")</f>
         <v>1</v>
       </c>
       <c r="H9">
-        <f>ramping_data!G9</f>
+        <f>IF(ramping_data!G9&lt;&gt;0,ramping_data!G9,"")</f>
         <v>1</v>
       </c>
       <c r="I9">
-        <f>ramping_data!H9</f>
+        <f>IF(ramping_data!H9&lt;&gt;0,ramping_data!H9,"")</f>
         <v>0.2</v>
       </c>
       <c r="J9">
-        <f>ramping_data!I9</f>
+        <f>IF(ramping_data!I9&lt;&gt;0,ramping_data!I9,"")</f>
         <v>1.8</v>
       </c>
       <c r="K9">
-        <f>ramping_data!J9</f>
+        <f>IF(ramping_data!J9&lt;&gt;0,ramping_data!J9,"")</f>
         <v>1.8</v>
       </c>
       <c r="L9">
-        <f>ramping_data!K9</f>
+        <f>IF(ramping_data!K9&lt;&gt;0,ramping_data!K9,"")</f>
         <v>58</v>
       </c>
       <c r="M9">
-        <f>ramping_data!L9</f>
+        <f>IF(ramping_data!L9&lt;&gt;0,ramping_data!L9,"")</f>
         <v>17.5</v>
       </c>
     </row>
@@ -5433,48 +5433,48 @@
         <v>10</v>
       </c>
       <c r="C10">
-        <f>ramping_data!B10</f>
-        <v>1</v>
-      </c>
-      <c r="D10">
-        <f>ramping_data!C10</f>
-        <v>0</v>
+        <f>IF(ramping_data!B10&lt;&gt;0,ramping_data!B10,"")</f>
+        <v>1</v>
+      </c>
+      <c r="D10" t="str">
+        <f>IF(ramping_data!C10&lt;&gt;0,ramping_data!C10,"")</f>
+        <v/>
       </c>
       <c r="E10">
-        <f>ramping_data!D10</f>
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <f>ramping_data!E10</f>
-        <v>0</v>
+        <f>IF(ramping_data!D10&lt;&gt;0,ramping_data!D10,"")</f>
+        <v>1</v>
+      </c>
+      <c r="F10" t="str">
+        <f>IF(ramping_data!E10&lt;&gt;0,ramping_data!E10,"")</f>
+        <v/>
       </c>
       <c r="G10">
-        <f>ramping_data!F10</f>
+        <f>IF(ramping_data!F10&lt;&gt;0,ramping_data!F10,"")</f>
         <v>1</v>
       </c>
       <c r="H10">
-        <f>ramping_data!G10</f>
-        <v>1</v>
-      </c>
-      <c r="I10">
-        <f>ramping_data!H10</f>
-        <v>0</v>
-      </c>
-      <c r="J10">
-        <f>ramping_data!I10</f>
-        <v>0</v>
-      </c>
-      <c r="K10">
-        <f>ramping_data!J10</f>
-        <v>0</v>
-      </c>
-      <c r="L10">
-        <f>ramping_data!K10</f>
-        <v>0</v>
-      </c>
-      <c r="M10">
-        <f>ramping_data!L10</f>
-        <v>0</v>
+        <f>IF(ramping_data!G10&lt;&gt;0,ramping_data!G10,"")</f>
+        <v>1</v>
+      </c>
+      <c r="I10" t="str">
+        <f>IF(ramping_data!H10&lt;&gt;0,ramping_data!H10,"")</f>
+        <v/>
+      </c>
+      <c r="J10" t="str">
+        <f>IF(ramping_data!I10&lt;&gt;0,ramping_data!I10,"")</f>
+        <v/>
+      </c>
+      <c r="K10" t="str">
+        <f>IF(ramping_data!J10&lt;&gt;0,ramping_data!J10,"")</f>
+        <v/>
+      </c>
+      <c r="L10" t="str">
+        <f>IF(ramping_data!K10&lt;&gt;0,ramping_data!K10,"")</f>
+        <v/>
+      </c>
+      <c r="M10" t="str">
+        <f>IF(ramping_data!L10&lt;&gt;0,ramping_data!L10,"")</f>
+        <v/>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
@@ -5486,47 +5486,47 @@
         <v>11</v>
       </c>
       <c r="C11">
-        <f>ramping_data!B11</f>
-        <v>1</v>
-      </c>
-      <c r="D11">
-        <f>ramping_data!C11</f>
-        <v>0</v>
+        <f>IF(ramping_data!B11&lt;&gt;0,ramping_data!B11,"")</f>
+        <v>1</v>
+      </c>
+      <c r="D11" t="str">
+        <f>IF(ramping_data!C11&lt;&gt;0,ramping_data!C11,"")</f>
+        <v/>
       </c>
       <c r="E11">
-        <f>ramping_data!D11</f>
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <f>ramping_data!E11</f>
-        <v>0</v>
+        <f>IF(ramping_data!D11&lt;&gt;0,ramping_data!D11,"")</f>
+        <v>1</v>
+      </c>
+      <c r="F11" t="str">
+        <f>IF(ramping_data!E11&lt;&gt;0,ramping_data!E11,"")</f>
+        <v/>
       </c>
       <c r="G11">
-        <f>ramping_data!F11</f>
+        <f>IF(ramping_data!F11&lt;&gt;0,ramping_data!F11,"")</f>
         <v>1</v>
       </c>
       <c r="H11">
-        <f>ramping_data!G11</f>
+        <f>IF(ramping_data!G11&lt;&gt;0,ramping_data!G11,"")</f>
         <v>1</v>
       </c>
       <c r="I11">
-        <f>ramping_data!H11</f>
+        <f>IF(ramping_data!H11&lt;&gt;0,ramping_data!H11,"")</f>
         <v>0.3</v>
       </c>
-      <c r="J11">
-        <f>ramping_data!I11</f>
-        <v>0</v>
-      </c>
-      <c r="K11">
-        <f>ramping_data!J11</f>
-        <v>0</v>
+      <c r="J11" t="str">
+        <f>IF(ramping_data!I11&lt;&gt;0,ramping_data!I11,"")</f>
+        <v/>
+      </c>
+      <c r="K11" t="str">
+        <f>IF(ramping_data!J11&lt;&gt;0,ramping_data!J11,"")</f>
+        <v/>
       </c>
       <c r="L11">
-        <f>ramping_data!K11</f>
+        <f>IF(ramping_data!K11&lt;&gt;0,ramping_data!K11,"")</f>
         <v>2.5</v>
       </c>
       <c r="M11">
-        <f>ramping_data!L11</f>
+        <f>IF(ramping_data!L11&lt;&gt;0,ramping_data!L11,"")</f>
         <v>0.25</v>
       </c>
     </row>
@@ -5539,47 +5539,47 @@
         <v>12</v>
       </c>
       <c r="C12">
-        <f>ramping_data!B12</f>
-        <v>1</v>
-      </c>
-      <c r="D12">
-        <f>ramping_data!C12</f>
-        <v>0</v>
+        <f>IF(ramping_data!B12&lt;&gt;0,ramping_data!B12,"")</f>
+        <v>1</v>
+      </c>
+      <c r="D12" t="str">
+        <f>IF(ramping_data!C12&lt;&gt;0,ramping_data!C12,"")</f>
+        <v/>
       </c>
       <c r="E12">
-        <f>ramping_data!D12</f>
-        <v>1</v>
-      </c>
-      <c r="F12">
-        <f>ramping_data!E12</f>
-        <v>0</v>
+        <f>IF(ramping_data!D12&lt;&gt;0,ramping_data!D12,"")</f>
+        <v>1</v>
+      </c>
+      <c r="F12" t="str">
+        <f>IF(ramping_data!E12&lt;&gt;0,ramping_data!E12,"")</f>
+        <v/>
       </c>
       <c r="G12">
-        <f>ramping_data!F12</f>
+        <f>IF(ramping_data!F12&lt;&gt;0,ramping_data!F12,"")</f>
         <v>1</v>
       </c>
       <c r="H12">
-        <f>ramping_data!G12</f>
-        <v>1</v>
-      </c>
-      <c r="I12">
-        <f>ramping_data!H12</f>
-        <v>0</v>
-      </c>
-      <c r="J12">
-        <f>ramping_data!I12</f>
-        <v>0</v>
-      </c>
-      <c r="K12">
-        <f>ramping_data!J12</f>
-        <v>0</v>
+        <f>IF(ramping_data!G12&lt;&gt;0,ramping_data!G12,"")</f>
+        <v>1</v>
+      </c>
+      <c r="I12" t="str">
+        <f>IF(ramping_data!H12&lt;&gt;0,ramping_data!H12,"")</f>
+        <v/>
+      </c>
+      <c r="J12" t="str">
+        <f>IF(ramping_data!I12&lt;&gt;0,ramping_data!I12,"")</f>
+        <v/>
+      </c>
+      <c r="K12" t="str">
+        <f>IF(ramping_data!J12&lt;&gt;0,ramping_data!J12,"")</f>
+        <v/>
       </c>
       <c r="L12">
-        <f>ramping_data!K12</f>
+        <f>IF(ramping_data!K12&lt;&gt;0,ramping_data!K12,"")</f>
         <v>2.5</v>
       </c>
       <c r="M12">
-        <f>ramping_data!L12</f>
+        <f>IF(ramping_data!L12&lt;&gt;0,ramping_data!L12,"")</f>
         <v>0.25</v>
       </c>
     </row>
@@ -5592,48 +5592,48 @@
         <v>13</v>
       </c>
       <c r="C13">
-        <f>ramping_data!B13</f>
-        <v>1</v>
-      </c>
-      <c r="D13">
-        <f>ramping_data!C13</f>
-        <v>0</v>
+        <f>IF(ramping_data!B13&lt;&gt;0,ramping_data!B13,"")</f>
+        <v>1</v>
+      </c>
+      <c r="D13" t="str">
+        <f>IF(ramping_data!C13&lt;&gt;0,ramping_data!C13,"")</f>
+        <v/>
       </c>
       <c r="E13">
-        <f>ramping_data!D13</f>
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <f>ramping_data!E13</f>
-        <v>0</v>
+        <f>IF(ramping_data!D13&lt;&gt;0,ramping_data!D13,"")</f>
+        <v>1</v>
+      </c>
+      <c r="F13" t="str">
+        <f>IF(ramping_data!E13&lt;&gt;0,ramping_data!E13,"")</f>
+        <v/>
       </c>
       <c r="G13">
-        <f>ramping_data!F13</f>
+        <f>IF(ramping_data!F13&lt;&gt;0,ramping_data!F13,"")</f>
         <v>1</v>
       </c>
       <c r="H13">
-        <f>ramping_data!G13</f>
-        <v>1</v>
-      </c>
-      <c r="I13">
-        <f>ramping_data!H13</f>
-        <v>0</v>
-      </c>
-      <c r="J13">
-        <f>ramping_data!I13</f>
-        <v>0</v>
-      </c>
-      <c r="K13">
-        <f>ramping_data!J13</f>
-        <v>0</v>
-      </c>
-      <c r="L13">
-        <f>ramping_data!K13</f>
-        <v>0</v>
-      </c>
-      <c r="M13">
-        <f>ramping_data!L13</f>
-        <v>0</v>
+        <f>IF(ramping_data!G13&lt;&gt;0,ramping_data!G13,"")</f>
+        <v>1</v>
+      </c>
+      <c r="I13" t="str">
+        <f>IF(ramping_data!H13&lt;&gt;0,ramping_data!H13,"")</f>
+        <v/>
+      </c>
+      <c r="J13" t="str">
+        <f>IF(ramping_data!I13&lt;&gt;0,ramping_data!I13,"")</f>
+        <v/>
+      </c>
+      <c r="K13" t="str">
+        <f>IF(ramping_data!J13&lt;&gt;0,ramping_data!J13,"")</f>
+        <v/>
+      </c>
+      <c r="L13" t="str">
+        <f>IF(ramping_data!K13&lt;&gt;0,ramping_data!K13,"")</f>
+        <v/>
+      </c>
+      <c r="M13" t="str">
+        <f>IF(ramping_data!L13&lt;&gt;0,ramping_data!L13,"")</f>
+        <v/>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
@@ -5645,47 +5645,47 @@
         <v>14</v>
       </c>
       <c r="C14">
-        <f>ramping_data!B14</f>
-        <v>1</v>
-      </c>
-      <c r="D14">
-        <f>ramping_data!C14</f>
-        <v>0</v>
+        <f>IF(ramping_data!B14&lt;&gt;0,ramping_data!B14,"")</f>
+        <v>1</v>
+      </c>
+      <c r="D14" t="str">
+        <f>IF(ramping_data!C14&lt;&gt;0,ramping_data!C14,"")</f>
+        <v/>
       </c>
       <c r="E14">
-        <f>ramping_data!D14</f>
+        <f>IF(ramping_data!D14&lt;&gt;0,ramping_data!D14,"")</f>
         <v>0.05</v>
       </c>
-      <c r="F14">
-        <f>ramping_data!E14</f>
-        <v>0</v>
+      <c r="F14" t="str">
+        <f>IF(ramping_data!E14&lt;&gt;0,ramping_data!E14,"")</f>
+        <v/>
       </c>
       <c r="G14">
-        <f>ramping_data!F14</f>
+        <f>IF(ramping_data!F14&lt;&gt;0,ramping_data!F14,"")</f>
         <v>0.15</v>
       </c>
       <c r="H14">
-        <f>ramping_data!G14</f>
+        <f>IF(ramping_data!G14&lt;&gt;0,ramping_data!G14,"")</f>
         <v>0.15</v>
       </c>
       <c r="I14">
-        <f>ramping_data!H14</f>
+        <f>IF(ramping_data!H14&lt;&gt;0,ramping_data!H14,"")</f>
         <v>0.5</v>
       </c>
-      <c r="J14">
-        <f>ramping_data!I14</f>
-        <v>0</v>
-      </c>
-      <c r="K14">
-        <f>ramping_data!J14</f>
-        <v>0</v>
+      <c r="J14" t="str">
+        <f>IF(ramping_data!I14&lt;&gt;0,ramping_data!I14,"")</f>
+        <v/>
+      </c>
+      <c r="K14" t="str">
+        <f>IF(ramping_data!J14&lt;&gt;0,ramping_data!J14,"")</f>
+        <v/>
       </c>
       <c r="L14">
-        <f>ramping_data!K14</f>
+        <f>IF(ramping_data!K14&lt;&gt;0,ramping_data!K14,"")</f>
         <v>35</v>
       </c>
       <c r="M14">
-        <f>ramping_data!L14</f>
+        <f>IF(ramping_data!L14&lt;&gt;0,ramping_data!L14,"")</f>
         <v>1000</v>
       </c>
     </row>
@@ -5698,48 +5698,48 @@
         <v>15</v>
       </c>
       <c r="C15">
-        <f>ramping_data!B15</f>
-        <v>1</v>
-      </c>
-      <c r="D15">
-        <f>ramping_data!C15</f>
-        <v>0</v>
+        <f>IF(ramping_data!B15&lt;&gt;0,ramping_data!B15,"")</f>
+        <v>1</v>
+      </c>
+      <c r="D15" t="str">
+        <f>IF(ramping_data!C15&lt;&gt;0,ramping_data!C15,"")</f>
+        <v/>
       </c>
       <c r="E15">
-        <f>ramping_data!D15</f>
-        <v>1</v>
-      </c>
-      <c r="F15">
-        <f>ramping_data!E15</f>
-        <v>0</v>
+        <f>IF(ramping_data!D15&lt;&gt;0,ramping_data!D15,"")</f>
+        <v>1</v>
+      </c>
+      <c r="F15" t="str">
+        <f>IF(ramping_data!E15&lt;&gt;0,ramping_data!E15,"")</f>
+        <v/>
       </c>
       <c r="G15">
-        <f>ramping_data!F15</f>
+        <f>IF(ramping_data!F15&lt;&gt;0,ramping_data!F15,"")</f>
         <v>1</v>
       </c>
       <c r="H15">
-        <f>ramping_data!G15</f>
-        <v>1</v>
-      </c>
-      <c r="I15">
-        <f>ramping_data!H15</f>
-        <v>0</v>
+        <f>IF(ramping_data!G15&lt;&gt;0,ramping_data!G15,"")</f>
+        <v>1</v>
+      </c>
+      <c r="I15" t="str">
+        <f>IF(ramping_data!H15&lt;&gt;0,ramping_data!H15,"")</f>
+        <v/>
       </c>
       <c r="J15">
-        <f>ramping_data!I15</f>
+        <f>IF(ramping_data!I15&lt;&gt;0,ramping_data!I15,"")</f>
         <v>1</v>
       </c>
       <c r="K15">
-        <f>ramping_data!J15</f>
-        <v>1</v>
-      </c>
-      <c r="L15">
-        <f>ramping_data!K15</f>
-        <v>0</v>
-      </c>
-      <c r="M15">
-        <f>ramping_data!L15</f>
-        <v>0</v>
+        <f>IF(ramping_data!J15&lt;&gt;0,ramping_data!J15,"")</f>
+        <v>1</v>
+      </c>
+      <c r="L15" t="str">
+        <f>IF(ramping_data!K15&lt;&gt;0,ramping_data!K15,"")</f>
+        <v/>
+      </c>
+      <c r="M15" t="str">
+        <f>IF(ramping_data!L15&lt;&gt;0,ramping_data!L15,"")</f>
+        <v/>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
@@ -5751,48 +5751,48 @@
         <v>16</v>
       </c>
       <c r="C16">
-        <f>ramping_data!B16</f>
-        <v>1</v>
-      </c>
-      <c r="D16">
-        <f>ramping_data!C16</f>
-        <v>0</v>
+        <f>IF(ramping_data!B16&lt;&gt;0,ramping_data!B16,"")</f>
+        <v>1</v>
+      </c>
+      <c r="D16" t="str">
+        <f>IF(ramping_data!C16&lt;&gt;0,ramping_data!C16,"")</f>
+        <v/>
       </c>
       <c r="E16">
-        <f>ramping_data!D16</f>
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <f>ramping_data!E16</f>
-        <v>0</v>
+        <f>IF(ramping_data!D16&lt;&gt;0,ramping_data!D16,"")</f>
+        <v>1</v>
+      </c>
+      <c r="F16" t="str">
+        <f>IF(ramping_data!E16&lt;&gt;0,ramping_data!E16,"")</f>
+        <v/>
       </c>
       <c r="G16">
-        <f>ramping_data!F16</f>
+        <f>IF(ramping_data!F16&lt;&gt;0,ramping_data!F16,"")</f>
         <v>1</v>
       </c>
       <c r="H16">
-        <f>ramping_data!G16</f>
-        <v>1</v>
-      </c>
-      <c r="I16">
-        <f>ramping_data!H16</f>
-        <v>0</v>
-      </c>
-      <c r="J16">
-        <f>ramping_data!I16</f>
-        <v>0</v>
-      </c>
-      <c r="K16">
-        <f>ramping_data!J16</f>
-        <v>0</v>
-      </c>
-      <c r="L16">
-        <f>ramping_data!K16</f>
-        <v>0</v>
-      </c>
-      <c r="M16">
-        <f>ramping_data!L16</f>
-        <v>0</v>
+        <f>IF(ramping_data!G16&lt;&gt;0,ramping_data!G16,"")</f>
+        <v>1</v>
+      </c>
+      <c r="I16" t="str">
+        <f>IF(ramping_data!H16&lt;&gt;0,ramping_data!H16,"")</f>
+        <v/>
+      </c>
+      <c r="J16" t="str">
+        <f>IF(ramping_data!I16&lt;&gt;0,ramping_data!I16,"")</f>
+        <v/>
+      </c>
+      <c r="K16" t="str">
+        <f>IF(ramping_data!J16&lt;&gt;0,ramping_data!J16,"")</f>
+        <v/>
+      </c>
+      <c r="L16" t="str">
+        <f>IF(ramping_data!K16&lt;&gt;0,ramping_data!K16,"")</f>
+        <v/>
+      </c>
+      <c r="M16" t="str">
+        <f>IF(ramping_data!L16&lt;&gt;0,ramping_data!L16,"")</f>
+        <v/>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
@@ -5804,48 +5804,48 @@
         <v>17</v>
       </c>
       <c r="C17">
-        <f>ramping_data!B17</f>
-        <v>1</v>
-      </c>
-      <c r="D17">
-        <f>ramping_data!C17</f>
-        <v>0</v>
+        <f>IF(ramping_data!B17&lt;&gt;0,ramping_data!B17,"")</f>
+        <v>1</v>
+      </c>
+      <c r="D17" t="str">
+        <f>IF(ramping_data!C17&lt;&gt;0,ramping_data!C17,"")</f>
+        <v/>
       </c>
       <c r="E17">
-        <f>ramping_data!D17</f>
-        <v>1</v>
-      </c>
-      <c r="F17">
-        <f>ramping_data!E17</f>
-        <v>0</v>
+        <f>IF(ramping_data!D17&lt;&gt;0,ramping_data!D17,"")</f>
+        <v>1</v>
+      </c>
+      <c r="F17" t="str">
+        <f>IF(ramping_data!E17&lt;&gt;0,ramping_data!E17,"")</f>
+        <v/>
       </c>
       <c r="G17">
-        <f>ramping_data!F17</f>
+        <f>IF(ramping_data!F17&lt;&gt;0,ramping_data!F17,"")</f>
         <v>1</v>
       </c>
       <c r="H17">
-        <f>ramping_data!G17</f>
-        <v>1</v>
-      </c>
-      <c r="I17">
-        <f>ramping_data!H17</f>
-        <v>0</v>
-      </c>
-      <c r="J17">
-        <f>ramping_data!I17</f>
-        <v>0</v>
-      </c>
-      <c r="K17">
-        <f>ramping_data!J17</f>
-        <v>0</v>
-      </c>
-      <c r="L17">
-        <f>ramping_data!K17</f>
-        <v>0</v>
-      </c>
-      <c r="M17">
-        <f>ramping_data!L17</f>
-        <v>0</v>
+        <f>IF(ramping_data!G17&lt;&gt;0,ramping_data!G17,"")</f>
+        <v>1</v>
+      </c>
+      <c r="I17" t="str">
+        <f>IF(ramping_data!H17&lt;&gt;0,ramping_data!H17,"")</f>
+        <v/>
+      </c>
+      <c r="J17" t="str">
+        <f>IF(ramping_data!I17&lt;&gt;0,ramping_data!I17,"")</f>
+        <v/>
+      </c>
+      <c r="K17" t="str">
+        <f>IF(ramping_data!J17&lt;&gt;0,ramping_data!J17,"")</f>
+        <v/>
+      </c>
+      <c r="L17" t="str">
+        <f>IF(ramping_data!K17&lt;&gt;0,ramping_data!K17,"")</f>
+        <v/>
+      </c>
+      <c r="M17" t="str">
+        <f>IF(ramping_data!L17&lt;&gt;0,ramping_data!L17,"")</f>
+        <v/>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
@@ -5857,47 +5857,47 @@
         <v>18</v>
       </c>
       <c r="C18">
-        <f>ramping_data!B18</f>
-        <v>1</v>
-      </c>
-      <c r="D18">
-        <f>ramping_data!C18</f>
-        <v>0</v>
+        <f>IF(ramping_data!B18&lt;&gt;0,ramping_data!B18,"")</f>
+        <v>1</v>
+      </c>
+      <c r="D18" t="str">
+        <f>IF(ramping_data!C18&lt;&gt;0,ramping_data!C18,"")</f>
+        <v/>
       </c>
       <c r="E18">
-        <f>ramping_data!D18</f>
-        <v>1</v>
-      </c>
-      <c r="F18">
-        <f>ramping_data!E18</f>
-        <v>0</v>
+        <f>IF(ramping_data!D18&lt;&gt;0,ramping_data!D18,"")</f>
+        <v>1</v>
+      </c>
+      <c r="F18" t="str">
+        <f>IF(ramping_data!E18&lt;&gt;0,ramping_data!E18,"")</f>
+        <v/>
       </c>
       <c r="G18">
-        <f>ramping_data!F18</f>
+        <f>IF(ramping_data!F18&lt;&gt;0,ramping_data!F18,"")</f>
         <v>1</v>
       </c>
       <c r="H18">
-        <f>ramping_data!G18</f>
+        <f>IF(ramping_data!G18&lt;&gt;0,ramping_data!G18,"")</f>
         <v>1</v>
       </c>
       <c r="I18">
-        <f>ramping_data!H18</f>
+        <f>IF(ramping_data!H18&lt;&gt;0,ramping_data!H18,"")</f>
         <v>0.2</v>
       </c>
       <c r="J18">
-        <f>ramping_data!I18</f>
+        <f>IF(ramping_data!I18&lt;&gt;0,ramping_data!I18,"")</f>
         <v>1.8</v>
       </c>
       <c r="K18">
-        <f>ramping_data!J18</f>
+        <f>IF(ramping_data!J18&lt;&gt;0,ramping_data!J18,"")</f>
         <v>1.8</v>
       </c>
       <c r="L18">
-        <f>ramping_data!K18</f>
+        <f>IF(ramping_data!K18&lt;&gt;0,ramping_data!K18,"")</f>
         <v>36</v>
       </c>
       <c r="M18">
-        <f>ramping_data!L18</f>
+        <f>IF(ramping_data!L18&lt;&gt;0,ramping_data!L18,"")</f>
         <v>17.5</v>
       </c>
     </row>
@@ -5910,48 +5910,48 @@
         <v>19</v>
       </c>
       <c r="C19">
-        <f>ramping_data!B19</f>
-        <v>1</v>
-      </c>
-      <c r="D19">
-        <f>ramping_data!C19</f>
-        <v>0</v>
+        <f>IF(ramping_data!B19&lt;&gt;0,ramping_data!B19,"")</f>
+        <v>1</v>
+      </c>
+      <c r="D19" t="str">
+        <f>IF(ramping_data!C19&lt;&gt;0,ramping_data!C19,"")</f>
+        <v/>
       </c>
       <c r="E19">
-        <f>ramping_data!D19</f>
-        <v>1</v>
-      </c>
-      <c r="F19">
-        <f>ramping_data!E19</f>
-        <v>0</v>
+        <f>IF(ramping_data!D19&lt;&gt;0,ramping_data!D19,"")</f>
+        <v>1</v>
+      </c>
+      <c r="F19" t="str">
+        <f>IF(ramping_data!E19&lt;&gt;0,ramping_data!E19,"")</f>
+        <v/>
       </c>
       <c r="G19">
-        <f>ramping_data!F19</f>
+        <f>IF(ramping_data!F19&lt;&gt;0,ramping_data!F19,"")</f>
         <v>1</v>
       </c>
       <c r="H19">
-        <f>ramping_data!G19</f>
-        <v>1</v>
-      </c>
-      <c r="I19">
-        <f>ramping_data!H19</f>
-        <v>0</v>
-      </c>
-      <c r="J19">
-        <f>ramping_data!I19</f>
-        <v>0</v>
-      </c>
-      <c r="K19">
-        <f>ramping_data!J19</f>
-        <v>0</v>
-      </c>
-      <c r="L19">
-        <f>ramping_data!K19</f>
-        <v>0</v>
-      </c>
-      <c r="M19">
-        <f>ramping_data!L19</f>
-        <v>0</v>
+        <f>IF(ramping_data!G19&lt;&gt;0,ramping_data!G19,"")</f>
+        <v>1</v>
+      </c>
+      <c r="I19" t="str">
+        <f>IF(ramping_data!H19&lt;&gt;0,ramping_data!H19,"")</f>
+        <v/>
+      </c>
+      <c r="J19" t="str">
+        <f>IF(ramping_data!I19&lt;&gt;0,ramping_data!I19,"")</f>
+        <v/>
+      </c>
+      <c r="K19" t="str">
+        <f>IF(ramping_data!J19&lt;&gt;0,ramping_data!J19,"")</f>
+        <v/>
+      </c>
+      <c r="L19" t="str">
+        <f>IF(ramping_data!K19&lt;&gt;0,ramping_data!K19,"")</f>
+        <v/>
+      </c>
+      <c r="M19" t="str">
+        <f>IF(ramping_data!L19&lt;&gt;0,ramping_data!L19,"")</f>
+        <v/>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
@@ -5963,48 +5963,48 @@
         <v>20</v>
       </c>
       <c r="C20">
-        <f>ramping_data!B20</f>
-        <v>1</v>
-      </c>
-      <c r="D20">
-        <f>ramping_data!C20</f>
-        <v>0</v>
+        <f>IF(ramping_data!B20&lt;&gt;0,ramping_data!B20,"")</f>
+        <v>1</v>
+      </c>
+      <c r="D20" t="str">
+        <f>IF(ramping_data!C20&lt;&gt;0,ramping_data!C20,"")</f>
+        <v/>
       </c>
       <c r="E20">
-        <f>ramping_data!D20</f>
-        <v>1</v>
-      </c>
-      <c r="F20">
-        <f>ramping_data!E20</f>
-        <v>0</v>
+        <f>IF(ramping_data!D20&lt;&gt;0,ramping_data!D20,"")</f>
+        <v>1</v>
+      </c>
+      <c r="F20" t="str">
+        <f>IF(ramping_data!E20&lt;&gt;0,ramping_data!E20,"")</f>
+        <v/>
       </c>
       <c r="G20">
-        <f>ramping_data!F20</f>
+        <f>IF(ramping_data!F20&lt;&gt;0,ramping_data!F20,"")</f>
         <v>1</v>
       </c>
       <c r="H20">
-        <f>ramping_data!G20</f>
-        <v>1</v>
-      </c>
-      <c r="I20">
-        <f>ramping_data!H20</f>
-        <v>0</v>
-      </c>
-      <c r="J20">
-        <f>ramping_data!I20</f>
-        <v>0</v>
-      </c>
-      <c r="K20">
-        <f>ramping_data!J20</f>
-        <v>0</v>
-      </c>
-      <c r="L20">
-        <f>ramping_data!K20</f>
-        <v>0</v>
-      </c>
-      <c r="M20">
-        <f>ramping_data!L20</f>
-        <v>0</v>
+        <f>IF(ramping_data!G20&lt;&gt;0,ramping_data!G20,"")</f>
+        <v>1</v>
+      </c>
+      <c r="I20" t="str">
+        <f>IF(ramping_data!H20&lt;&gt;0,ramping_data!H20,"")</f>
+        <v/>
+      </c>
+      <c r="J20" t="str">
+        <f>IF(ramping_data!I20&lt;&gt;0,ramping_data!I20,"")</f>
+        <v/>
+      </c>
+      <c r="K20" t="str">
+        <f>IF(ramping_data!J20&lt;&gt;0,ramping_data!J20,"")</f>
+        <v/>
+      </c>
+      <c r="L20" t="str">
+        <f>IF(ramping_data!K20&lt;&gt;0,ramping_data!K20,"")</f>
+        <v/>
+      </c>
+      <c r="M20" t="str">
+        <f>IF(ramping_data!L20&lt;&gt;0,ramping_data!L20,"")</f>
+        <v/>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
@@ -6016,47 +6016,47 @@
         <v>27</v>
       </c>
       <c r="C21">
-        <f>ramping_data!B21</f>
-        <v>1</v>
-      </c>
-      <c r="D21">
-        <f>ramping_data!C21</f>
-        <v>0</v>
+        <f>IF(ramping_data!B21&lt;&gt;0,ramping_data!B21,"")</f>
+        <v>1</v>
+      </c>
+      <c r="D21" t="str">
+        <f>IF(ramping_data!C21&lt;&gt;0,ramping_data!C21,"")</f>
+        <v/>
       </c>
       <c r="E21">
-        <f>ramping_data!D21</f>
+        <f>IF(ramping_data!D21&lt;&gt;0,ramping_data!D21,"")</f>
         <v>0.4</v>
       </c>
-      <c r="F21">
-        <f>ramping_data!E21</f>
-        <v>0</v>
+      <c r="F21" t="str">
+        <f>IF(ramping_data!E21&lt;&gt;0,ramping_data!E21,"")</f>
+        <v/>
       </c>
       <c r="G21">
-        <f>ramping_data!F21</f>
+        <f>IF(ramping_data!F21&lt;&gt;0,ramping_data!F21,"")</f>
         <v>1</v>
       </c>
       <c r="H21">
-        <f>ramping_data!G21</f>
+        <f>IF(ramping_data!G21&lt;&gt;0,ramping_data!G21,"")</f>
         <v>1</v>
       </c>
       <c r="I21">
-        <f>ramping_data!H21</f>
+        <f>IF(ramping_data!H21&lt;&gt;0,ramping_data!H21,"")</f>
         <v>0.3</v>
       </c>
-      <c r="J21">
-        <f>ramping_data!I21</f>
-        <v>0</v>
-      </c>
-      <c r="K21">
-        <f>ramping_data!J21</f>
-        <v>0</v>
+      <c r="J21" t="str">
+        <f>IF(ramping_data!I21&lt;&gt;0,ramping_data!I21,"")</f>
+        <v/>
+      </c>
+      <c r="K21" t="str">
+        <f>IF(ramping_data!J21&lt;&gt;0,ramping_data!J21,"")</f>
+        <v/>
       </c>
       <c r="L21">
-        <f>ramping_data!K21</f>
+        <f>IF(ramping_data!K21&lt;&gt;0,ramping_data!K21,"")</f>
         <v>2.5</v>
       </c>
       <c r="M21">
-        <f>ramping_data!L21</f>
+        <f>IF(ramping_data!L21&lt;&gt;0,ramping_data!L21,"")</f>
         <v>0.25</v>
       </c>
     </row>
@@ -6069,8 +6069,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB96295C-BD32-6F47-8A38-40C16F9B0550}">
   <dimension ref="A1:M21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:M21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -6141,47 +6141,47 @@
         <v>2</v>
       </c>
       <c r="C2">
-        <f>ramping_data!B2</f>
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <f>ramping_data!C2</f>
-        <v>0</v>
+        <f>IF(ramping_data!B2&lt;&gt;0,ramping_data!B2,"")</f>
+        <v>1</v>
+      </c>
+      <c r="D2" t="str">
+        <f>IF(ramping_data!C2&lt;&gt;0,ramping_data!C2,"")</f>
+        <v/>
       </c>
       <c r="E2">
-        <f>ramping_data!D2</f>
-        <v>1</v>
-      </c>
-      <c r="F2">
-        <f>ramping_data!E2</f>
-        <v>0</v>
+        <f>IF(ramping_data!D2&lt;&gt;0,ramping_data!D2,"")</f>
+        <v>1</v>
+      </c>
+      <c r="F2" t="str">
+        <f>IF(ramping_data!E2&lt;&gt;0,ramping_data!E2,"")</f>
+        <v/>
       </c>
       <c r="G2">
-        <f>ramping_data!F2</f>
+        <f>IF(ramping_data!F2&lt;&gt;0,ramping_data!F2,"")</f>
         <v>1</v>
       </c>
       <c r="H2">
-        <f>ramping_data!G2</f>
+        <f>IF(ramping_data!G2&lt;&gt;0,ramping_data!G2,"")</f>
         <v>1</v>
       </c>
       <c r="I2">
-        <f>ramping_data!H2</f>
+        <f>IF(ramping_data!H2&lt;&gt;0,ramping_data!H2,"")</f>
         <v>0.2</v>
       </c>
       <c r="J2">
-        <f>ramping_data!I2</f>
+        <f>IF(ramping_data!I2&lt;&gt;0,ramping_data!I2,"")</f>
         <v>1.8</v>
       </c>
       <c r="K2">
-        <f>ramping_data!J2</f>
+        <f>IF(ramping_data!J2&lt;&gt;0,ramping_data!J2,"")</f>
         <v>1.8</v>
       </c>
       <c r="L2">
-        <f>ramping_data!K2</f>
+        <f>IF(ramping_data!K2&lt;&gt;0,ramping_data!K2,"")</f>
         <v>36</v>
       </c>
       <c r="M2">
-        <f>ramping_data!L2</f>
+        <f>IF(ramping_data!L2&lt;&gt;0,ramping_data!L2,"")</f>
         <v>17.5</v>
       </c>
     </row>
@@ -6194,47 +6194,47 @@
         <v>3</v>
       </c>
       <c r="C3">
-        <f>ramping_data!B3</f>
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <f>ramping_data!C3</f>
-        <v>0</v>
+        <f>IF(ramping_data!B3&lt;&gt;0,ramping_data!B3,"")</f>
+        <v>1</v>
+      </c>
+      <c r="D3" t="str">
+        <f>IF(ramping_data!C3&lt;&gt;0,ramping_data!C3,"")</f>
+        <v/>
       </c>
       <c r="E3">
-        <f>ramping_data!D3</f>
+        <f>IF(ramping_data!D3&lt;&gt;0,ramping_data!D3,"")</f>
         <v>0.5</v>
       </c>
-      <c r="F3">
-        <f>ramping_data!E3</f>
-        <v>0</v>
+      <c r="F3" t="str">
+        <f>IF(ramping_data!E3&lt;&gt;0,ramping_data!E3,"")</f>
+        <v/>
       </c>
       <c r="G3">
-        <f>ramping_data!F3</f>
+        <f>IF(ramping_data!F3&lt;&gt;0,ramping_data!F3,"")</f>
         <v>0.5</v>
       </c>
       <c r="H3">
-        <f>ramping_data!G3</f>
+        <f>IF(ramping_data!G3&lt;&gt;0,ramping_data!G3,"")</f>
         <v>0.5</v>
       </c>
       <c r="I3">
-        <f>ramping_data!H3</f>
+        <f>IF(ramping_data!H3&lt;&gt;0,ramping_data!H3,"")</f>
         <v>0.4</v>
       </c>
       <c r="J3">
-        <f>ramping_data!I3</f>
+        <f>IF(ramping_data!I3&lt;&gt;0,ramping_data!I3,"")</f>
         <v>1.8</v>
       </c>
       <c r="K3">
-        <f>ramping_data!J3</f>
+        <f>IF(ramping_data!J3&lt;&gt;0,ramping_data!J3,"")</f>
         <v>1.8</v>
       </c>
       <c r="L3">
-        <f>ramping_data!K3</f>
+        <f>IF(ramping_data!K3&lt;&gt;0,ramping_data!K3,"")</f>
         <v>58</v>
       </c>
       <c r="M3">
-        <f>ramping_data!L3</f>
+        <f>IF(ramping_data!L3&lt;&gt;0,ramping_data!L3,"")</f>
         <v>17.5</v>
       </c>
     </row>
@@ -6247,47 +6247,47 @@
         <v>4</v>
       </c>
       <c r="C4">
-        <f>ramping_data!B4</f>
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <f>ramping_data!C4</f>
-        <v>0</v>
+        <f>IF(ramping_data!B4&lt;&gt;0,ramping_data!B4,"")</f>
+        <v>1</v>
+      </c>
+      <c r="D4" t="str">
+        <f>IF(ramping_data!C4&lt;&gt;0,ramping_data!C4,"")</f>
+        <v/>
       </c>
       <c r="E4">
-        <f>ramping_data!D4</f>
+        <f>IF(ramping_data!D4&lt;&gt;0,ramping_data!D4,"")</f>
         <v>0.5</v>
       </c>
-      <c r="F4">
-        <f>ramping_data!E4</f>
-        <v>0</v>
+      <c r="F4" t="str">
+        <f>IF(ramping_data!E4&lt;&gt;0,ramping_data!E4,"")</f>
+        <v/>
       </c>
       <c r="G4">
-        <f>ramping_data!F4</f>
+        <f>IF(ramping_data!F4&lt;&gt;0,ramping_data!F4,"")</f>
         <v>0.5</v>
       </c>
       <c r="H4">
-        <f>ramping_data!G4</f>
+        <f>IF(ramping_data!G4&lt;&gt;0,ramping_data!G4,"")</f>
         <v>0.5</v>
       </c>
       <c r="I4">
-        <f>ramping_data!H4</f>
+        <f>IF(ramping_data!H4&lt;&gt;0,ramping_data!H4,"")</f>
         <v>0.4</v>
       </c>
       <c r="J4">
-        <f>ramping_data!I4</f>
+        <f>IF(ramping_data!I4&lt;&gt;0,ramping_data!I4,"")</f>
         <v>0.52500000000000002</v>
       </c>
       <c r="K4">
-        <f>ramping_data!J4</f>
+        <f>IF(ramping_data!J4&lt;&gt;0,ramping_data!J4,"")</f>
         <v>0.52500000000000002</v>
       </c>
       <c r="L4">
-        <f>ramping_data!K4</f>
+        <f>IF(ramping_data!K4&lt;&gt;0,ramping_data!K4,"")</f>
         <v>85</v>
       </c>
       <c r="M4">
-        <f>ramping_data!L4</f>
+        <f>IF(ramping_data!L4&lt;&gt;0,ramping_data!L4,"")</f>
         <v>8.5</v>
       </c>
     </row>
@@ -6300,47 +6300,47 @@
         <v>5</v>
       </c>
       <c r="C5">
-        <f>ramping_data!B5</f>
-        <v>1</v>
-      </c>
-      <c r="D5">
-        <f>ramping_data!C5</f>
-        <v>0</v>
+        <f>IF(ramping_data!B5&lt;&gt;0,ramping_data!B5,"")</f>
+        <v>1</v>
+      </c>
+      <c r="D5" t="str">
+        <f>IF(ramping_data!C5&lt;&gt;0,ramping_data!C5,"")</f>
+        <v/>
       </c>
       <c r="E5">
-        <f>ramping_data!D5</f>
+        <f>IF(ramping_data!D5&lt;&gt;0,ramping_data!D5,"")</f>
         <v>0.5</v>
       </c>
-      <c r="F5">
-        <f>ramping_data!E5</f>
-        <v>0</v>
+      <c r="F5" t="str">
+        <f>IF(ramping_data!E5&lt;&gt;0,ramping_data!E5,"")</f>
+        <v/>
       </c>
       <c r="G5">
-        <f>ramping_data!F5</f>
+        <f>IF(ramping_data!F5&lt;&gt;0,ramping_data!F5,"")</f>
         <v>0.5</v>
       </c>
       <c r="H5">
-        <f>ramping_data!G5</f>
+        <f>IF(ramping_data!G5&lt;&gt;0,ramping_data!G5,"")</f>
         <v>0.5</v>
       </c>
       <c r="I5">
-        <f>ramping_data!H5</f>
+        <f>IF(ramping_data!H5&lt;&gt;0,ramping_data!H5,"")</f>
         <v>0.4</v>
       </c>
       <c r="J5">
-        <f>ramping_data!I5</f>
+        <f>IF(ramping_data!I5&lt;&gt;0,ramping_data!I5,"")</f>
         <v>0.52500000000000002</v>
       </c>
       <c r="K5">
-        <f>ramping_data!J5</f>
+        <f>IF(ramping_data!J5&lt;&gt;0,ramping_data!J5,"")</f>
         <v>0.52500000000000002</v>
       </c>
       <c r="L5">
-        <f>ramping_data!K5</f>
+        <f>IF(ramping_data!K5&lt;&gt;0,ramping_data!K5,"")</f>
         <v>85</v>
       </c>
       <c r="M5">
-        <f>ramping_data!L5</f>
+        <f>IF(ramping_data!L5&lt;&gt;0,ramping_data!L5,"")</f>
         <v>8.5</v>
       </c>
     </row>
@@ -6353,47 +6353,47 @@
         <v>6</v>
       </c>
       <c r="C6">
-        <f>ramping_data!B6</f>
-        <v>1</v>
-      </c>
-      <c r="D6">
-        <f>ramping_data!C6</f>
-        <v>0</v>
+        <f>IF(ramping_data!B6&lt;&gt;0,ramping_data!B6,"")</f>
+        <v>1</v>
+      </c>
+      <c r="D6" t="str">
+        <f>IF(ramping_data!C6&lt;&gt;0,ramping_data!C6,"")</f>
+        <v/>
       </c>
       <c r="E6">
-        <f>ramping_data!D6</f>
+        <f>IF(ramping_data!D6&lt;&gt;0,ramping_data!D6,"")</f>
         <v>0.3</v>
       </c>
-      <c r="F6">
-        <f>ramping_data!E6</f>
-        <v>0</v>
+      <c r="F6" t="str">
+        <f>IF(ramping_data!E6&lt;&gt;0,ramping_data!E6,"")</f>
+        <v/>
       </c>
       <c r="G6">
-        <f>ramping_data!F6</f>
+        <f>IF(ramping_data!F6&lt;&gt;0,ramping_data!F6,"")</f>
         <v>0.5</v>
       </c>
       <c r="H6">
-        <f>ramping_data!G6</f>
+        <f>IF(ramping_data!G6&lt;&gt;0,ramping_data!G6,"")</f>
         <v>0.5</v>
       </c>
       <c r="I6">
-        <f>ramping_data!H6</f>
+        <f>IF(ramping_data!H6&lt;&gt;0,ramping_data!H6,"")</f>
         <v>0.25</v>
       </c>
       <c r="J6">
-        <f>ramping_data!I6</f>
+        <f>IF(ramping_data!I6&lt;&gt;0,ramping_data!I6,"")</f>
         <v>1.8</v>
       </c>
       <c r="K6">
-        <f>ramping_data!J6</f>
+        <f>IF(ramping_data!J6&lt;&gt;0,ramping_data!J6,"")</f>
         <v>1.8</v>
       </c>
       <c r="L6">
-        <f>ramping_data!K6</f>
+        <f>IF(ramping_data!K6&lt;&gt;0,ramping_data!K6,"")</f>
         <v>35</v>
       </c>
       <c r="M6">
-        <f>ramping_data!L6</f>
+        <f>IF(ramping_data!L6&lt;&gt;0,ramping_data!L6,"")</f>
         <v>17.5</v>
       </c>
     </row>
@@ -6406,47 +6406,47 @@
         <v>7</v>
       </c>
       <c r="C7">
-        <f>ramping_data!B7</f>
-        <v>1</v>
-      </c>
-      <c r="D7">
-        <f>ramping_data!C7</f>
-        <v>0</v>
+        <f>IF(ramping_data!B7&lt;&gt;0,ramping_data!B7,"")</f>
+        <v>1</v>
+      </c>
+      <c r="D7" t="str">
+        <f>IF(ramping_data!C7&lt;&gt;0,ramping_data!C7,"")</f>
+        <v/>
       </c>
       <c r="E7">
-        <f>ramping_data!D7</f>
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <f>ramping_data!E7</f>
-        <v>0</v>
+        <f>IF(ramping_data!D7&lt;&gt;0,ramping_data!D7,"")</f>
+        <v>1</v>
+      </c>
+      <c r="F7" t="str">
+        <f>IF(ramping_data!E7&lt;&gt;0,ramping_data!E7,"")</f>
+        <v/>
       </c>
       <c r="G7">
-        <f>ramping_data!F7</f>
+        <f>IF(ramping_data!F7&lt;&gt;0,ramping_data!F7,"")</f>
         <v>1</v>
       </c>
       <c r="H7">
-        <f>ramping_data!G7</f>
+        <f>IF(ramping_data!G7&lt;&gt;0,ramping_data!G7,"")</f>
         <v>1</v>
       </c>
       <c r="I7">
-        <f>ramping_data!H7</f>
+        <f>IF(ramping_data!H7&lt;&gt;0,ramping_data!H7,"")</f>
         <v>0.3</v>
       </c>
       <c r="J7">
-        <f>ramping_data!I7</f>
+        <f>IF(ramping_data!I7&lt;&gt;0,ramping_data!I7,"")</f>
         <v>1.8</v>
       </c>
       <c r="K7">
-        <f>ramping_data!J7</f>
+        <f>IF(ramping_data!J7&lt;&gt;0,ramping_data!J7,"")</f>
         <v>1.8</v>
       </c>
       <c r="L7">
-        <f>ramping_data!K7</f>
+        <f>IF(ramping_data!K7&lt;&gt;0,ramping_data!K7,"")</f>
         <v>46</v>
       </c>
       <c r="M7">
-        <f>ramping_data!L7</f>
+        <f>IF(ramping_data!L7&lt;&gt;0,ramping_data!L7,"")</f>
         <v>17.5</v>
       </c>
     </row>
@@ -6459,47 +6459,47 @@
         <v>8</v>
       </c>
       <c r="C8">
-        <f>ramping_data!B8</f>
-        <v>1</v>
-      </c>
-      <c r="D8">
-        <f>ramping_data!C8</f>
-        <v>0</v>
+        <f>IF(ramping_data!B8&lt;&gt;0,ramping_data!B8,"")</f>
+        <v>1</v>
+      </c>
+      <c r="D8" t="str">
+        <f>IF(ramping_data!C8&lt;&gt;0,ramping_data!C8,"")</f>
+        <v/>
       </c>
       <c r="E8">
-        <f>ramping_data!D8</f>
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <f>ramping_data!E8</f>
-        <v>0</v>
+        <f>IF(ramping_data!D8&lt;&gt;0,ramping_data!D8,"")</f>
+        <v>1</v>
+      </c>
+      <c r="F8" t="str">
+        <f>IF(ramping_data!E8&lt;&gt;0,ramping_data!E8,"")</f>
+        <v/>
       </c>
       <c r="G8">
-        <f>ramping_data!F8</f>
+        <f>IF(ramping_data!F8&lt;&gt;0,ramping_data!F8,"")</f>
         <v>1</v>
       </c>
       <c r="H8">
-        <f>ramping_data!G8</f>
+        <f>IF(ramping_data!G8&lt;&gt;0,ramping_data!G8,"")</f>
         <v>1</v>
       </c>
       <c r="I8">
-        <f>ramping_data!H8</f>
+        <f>IF(ramping_data!H8&lt;&gt;0,ramping_data!H8,"")</f>
         <v>0.3</v>
       </c>
       <c r="J8">
-        <f>ramping_data!I8</f>
+        <f>IF(ramping_data!I8&lt;&gt;0,ramping_data!I8,"")</f>
         <v>1.8</v>
       </c>
       <c r="K8">
-        <f>ramping_data!J8</f>
+        <f>IF(ramping_data!J8&lt;&gt;0,ramping_data!J8,"")</f>
         <v>1.8</v>
       </c>
       <c r="L8">
-        <f>ramping_data!K8</f>
+        <f>IF(ramping_data!K8&lt;&gt;0,ramping_data!K8,"")</f>
         <v>46</v>
       </c>
       <c r="M8">
-        <f>ramping_data!L8</f>
+        <f>IF(ramping_data!L8&lt;&gt;0,ramping_data!L8,"")</f>
         <v>17.5</v>
       </c>
     </row>
@@ -6512,47 +6512,47 @@
         <v>9</v>
       </c>
       <c r="C9">
-        <f>ramping_data!B9</f>
-        <v>1</v>
-      </c>
-      <c r="D9">
-        <f>ramping_data!C9</f>
-        <v>0</v>
+        <f>IF(ramping_data!B9&lt;&gt;0,ramping_data!B9,"")</f>
+        <v>1</v>
+      </c>
+      <c r="D9" t="str">
+        <f>IF(ramping_data!C9&lt;&gt;0,ramping_data!C9,"")</f>
+        <v/>
       </c>
       <c r="E9">
-        <f>ramping_data!D9</f>
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <f>ramping_data!E9</f>
-        <v>0</v>
+        <f>IF(ramping_data!D9&lt;&gt;0,ramping_data!D9,"")</f>
+        <v>1</v>
+      </c>
+      <c r="F9" t="str">
+        <f>IF(ramping_data!E9&lt;&gt;0,ramping_data!E9,"")</f>
+        <v/>
       </c>
       <c r="G9">
-        <f>ramping_data!F9</f>
+        <f>IF(ramping_data!F9&lt;&gt;0,ramping_data!F9,"")</f>
         <v>1</v>
       </c>
       <c r="H9">
-        <f>ramping_data!G9</f>
+        <f>IF(ramping_data!G9&lt;&gt;0,ramping_data!G9,"")</f>
         <v>1</v>
       </c>
       <c r="I9">
-        <f>ramping_data!H9</f>
+        <f>IF(ramping_data!H9&lt;&gt;0,ramping_data!H9,"")</f>
         <v>0.2</v>
       </c>
       <c r="J9">
-        <f>ramping_data!I9</f>
+        <f>IF(ramping_data!I9&lt;&gt;0,ramping_data!I9,"")</f>
         <v>1.8</v>
       </c>
       <c r="K9">
-        <f>ramping_data!J9</f>
+        <f>IF(ramping_data!J9&lt;&gt;0,ramping_data!J9,"")</f>
         <v>1.8</v>
       </c>
       <c r="L9">
-        <f>ramping_data!K9</f>
+        <f>IF(ramping_data!K9&lt;&gt;0,ramping_data!K9,"")</f>
         <v>58</v>
       </c>
       <c r="M9">
-        <f>ramping_data!L9</f>
+        <f>IF(ramping_data!L9&lt;&gt;0,ramping_data!L9,"")</f>
         <v>17.5</v>
       </c>
     </row>
@@ -6565,48 +6565,48 @@
         <v>10</v>
       </c>
       <c r="C10">
-        <f>ramping_data!B10</f>
-        <v>1</v>
-      </c>
-      <c r="D10">
-        <f>ramping_data!C10</f>
-        <v>0</v>
+        <f>IF(ramping_data!B10&lt;&gt;0,ramping_data!B10,"")</f>
+        <v>1</v>
+      </c>
+      <c r="D10" t="str">
+        <f>IF(ramping_data!C10&lt;&gt;0,ramping_data!C10,"")</f>
+        <v/>
       </c>
       <c r="E10">
-        <f>ramping_data!D10</f>
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <f>ramping_data!E10</f>
-        <v>0</v>
+        <f>IF(ramping_data!D10&lt;&gt;0,ramping_data!D10,"")</f>
+        <v>1</v>
+      </c>
+      <c r="F10" t="str">
+        <f>IF(ramping_data!E10&lt;&gt;0,ramping_data!E10,"")</f>
+        <v/>
       </c>
       <c r="G10">
-        <f>ramping_data!F10</f>
+        <f>IF(ramping_data!F10&lt;&gt;0,ramping_data!F10,"")</f>
         <v>1</v>
       </c>
       <c r="H10">
-        <f>ramping_data!G10</f>
-        <v>1</v>
-      </c>
-      <c r="I10">
-        <f>ramping_data!H10</f>
-        <v>0</v>
-      </c>
-      <c r="J10">
-        <f>ramping_data!I10</f>
-        <v>0</v>
-      </c>
-      <c r="K10">
-        <f>ramping_data!J10</f>
-        <v>0</v>
-      </c>
-      <c r="L10">
-        <f>ramping_data!K10</f>
-        <v>0</v>
-      </c>
-      <c r="M10">
-        <f>ramping_data!L10</f>
-        <v>0</v>
+        <f>IF(ramping_data!G10&lt;&gt;0,ramping_data!G10,"")</f>
+        <v>1</v>
+      </c>
+      <c r="I10" t="str">
+        <f>IF(ramping_data!H10&lt;&gt;0,ramping_data!H10,"")</f>
+        <v/>
+      </c>
+      <c r="J10" t="str">
+        <f>IF(ramping_data!I10&lt;&gt;0,ramping_data!I10,"")</f>
+        <v/>
+      </c>
+      <c r="K10" t="str">
+        <f>IF(ramping_data!J10&lt;&gt;0,ramping_data!J10,"")</f>
+        <v/>
+      </c>
+      <c r="L10" t="str">
+        <f>IF(ramping_data!K10&lt;&gt;0,ramping_data!K10,"")</f>
+        <v/>
+      </c>
+      <c r="M10" t="str">
+        <f>IF(ramping_data!L10&lt;&gt;0,ramping_data!L10,"")</f>
+        <v/>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
@@ -6618,47 +6618,47 @@
         <v>11</v>
       </c>
       <c r="C11">
-        <f>ramping_data!B11</f>
-        <v>1</v>
-      </c>
-      <c r="D11">
-        <f>ramping_data!C11</f>
-        <v>0</v>
+        <f>IF(ramping_data!B11&lt;&gt;0,ramping_data!B11,"")</f>
+        <v>1</v>
+      </c>
+      <c r="D11" t="str">
+        <f>IF(ramping_data!C11&lt;&gt;0,ramping_data!C11,"")</f>
+        <v/>
       </c>
       <c r="E11">
-        <f>ramping_data!D11</f>
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <f>ramping_data!E11</f>
-        <v>0</v>
+        <f>IF(ramping_data!D11&lt;&gt;0,ramping_data!D11,"")</f>
+        <v>1</v>
+      </c>
+      <c r="F11" t="str">
+        <f>IF(ramping_data!E11&lt;&gt;0,ramping_data!E11,"")</f>
+        <v/>
       </c>
       <c r="G11">
-        <f>ramping_data!F11</f>
+        <f>IF(ramping_data!F11&lt;&gt;0,ramping_data!F11,"")</f>
         <v>1</v>
       </c>
       <c r="H11">
-        <f>ramping_data!G11</f>
+        <f>IF(ramping_data!G11&lt;&gt;0,ramping_data!G11,"")</f>
         <v>1</v>
       </c>
       <c r="I11">
-        <f>ramping_data!H11</f>
+        <f>IF(ramping_data!H11&lt;&gt;0,ramping_data!H11,"")</f>
         <v>0.3</v>
       </c>
-      <c r="J11">
-        <f>ramping_data!I11</f>
-        <v>0</v>
-      </c>
-      <c r="K11">
-        <f>ramping_data!J11</f>
-        <v>0</v>
+      <c r="J11" t="str">
+        <f>IF(ramping_data!I11&lt;&gt;0,ramping_data!I11,"")</f>
+        <v/>
+      </c>
+      <c r="K11" t="str">
+        <f>IF(ramping_data!J11&lt;&gt;0,ramping_data!J11,"")</f>
+        <v/>
       </c>
       <c r="L11">
-        <f>ramping_data!K11</f>
+        <f>IF(ramping_data!K11&lt;&gt;0,ramping_data!K11,"")</f>
         <v>2.5</v>
       </c>
       <c r="M11">
-        <f>ramping_data!L11</f>
+        <f>IF(ramping_data!L11&lt;&gt;0,ramping_data!L11,"")</f>
         <v>0.25</v>
       </c>
     </row>
@@ -6671,47 +6671,47 @@
         <v>12</v>
       </c>
       <c r="C12">
-        <f>ramping_data!B12</f>
-        <v>1</v>
-      </c>
-      <c r="D12">
-        <f>ramping_data!C12</f>
-        <v>0</v>
+        <f>IF(ramping_data!B12&lt;&gt;0,ramping_data!B12,"")</f>
+        <v>1</v>
+      </c>
+      <c r="D12" t="str">
+        <f>IF(ramping_data!C12&lt;&gt;0,ramping_data!C12,"")</f>
+        <v/>
       </c>
       <c r="E12">
-        <f>ramping_data!D12</f>
-        <v>1</v>
-      </c>
-      <c r="F12">
-        <f>ramping_data!E12</f>
-        <v>0</v>
+        <f>IF(ramping_data!D12&lt;&gt;0,ramping_data!D12,"")</f>
+        <v>1</v>
+      </c>
+      <c r="F12" t="str">
+        <f>IF(ramping_data!E12&lt;&gt;0,ramping_data!E12,"")</f>
+        <v/>
       </c>
       <c r="G12">
-        <f>ramping_data!F12</f>
+        <f>IF(ramping_data!F12&lt;&gt;0,ramping_data!F12,"")</f>
         <v>1</v>
       </c>
       <c r="H12">
-        <f>ramping_data!G12</f>
-        <v>1</v>
-      </c>
-      <c r="I12">
-        <f>ramping_data!H12</f>
-        <v>0</v>
-      </c>
-      <c r="J12">
-        <f>ramping_data!I12</f>
-        <v>0</v>
-      </c>
-      <c r="K12">
-        <f>ramping_data!J12</f>
-        <v>0</v>
+        <f>IF(ramping_data!G12&lt;&gt;0,ramping_data!G12,"")</f>
+        <v>1</v>
+      </c>
+      <c r="I12" t="str">
+        <f>IF(ramping_data!H12&lt;&gt;0,ramping_data!H12,"")</f>
+        <v/>
+      </c>
+      <c r="J12" t="str">
+        <f>IF(ramping_data!I12&lt;&gt;0,ramping_data!I12,"")</f>
+        <v/>
+      </c>
+      <c r="K12" t="str">
+        <f>IF(ramping_data!J12&lt;&gt;0,ramping_data!J12,"")</f>
+        <v/>
       </c>
       <c r="L12">
-        <f>ramping_data!K12</f>
+        <f>IF(ramping_data!K12&lt;&gt;0,ramping_data!K12,"")</f>
         <v>2.5</v>
       </c>
       <c r="M12">
-        <f>ramping_data!L12</f>
+        <f>IF(ramping_data!L12&lt;&gt;0,ramping_data!L12,"")</f>
         <v>0.25</v>
       </c>
     </row>
@@ -6724,48 +6724,48 @@
         <v>13</v>
       </c>
       <c r="C13">
-        <f>ramping_data!B13</f>
-        <v>1</v>
-      </c>
-      <c r="D13">
-        <f>ramping_data!C13</f>
-        <v>0</v>
+        <f>IF(ramping_data!B13&lt;&gt;0,ramping_data!B13,"")</f>
+        <v>1</v>
+      </c>
+      <c r="D13" t="str">
+        <f>IF(ramping_data!C13&lt;&gt;0,ramping_data!C13,"")</f>
+        <v/>
       </c>
       <c r="E13">
-        <f>ramping_data!D13</f>
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <f>ramping_data!E13</f>
-        <v>0</v>
+        <f>IF(ramping_data!D13&lt;&gt;0,ramping_data!D13,"")</f>
+        <v>1</v>
+      </c>
+      <c r="F13" t="str">
+        <f>IF(ramping_data!E13&lt;&gt;0,ramping_data!E13,"")</f>
+        <v/>
       </c>
       <c r="G13">
-        <f>ramping_data!F13</f>
+        <f>IF(ramping_data!F13&lt;&gt;0,ramping_data!F13,"")</f>
         <v>1</v>
       </c>
       <c r="H13">
-        <f>ramping_data!G13</f>
-        <v>1</v>
-      </c>
-      <c r="I13">
-        <f>ramping_data!H13</f>
-        <v>0</v>
-      </c>
-      <c r="J13">
-        <f>ramping_data!I13</f>
-        <v>0</v>
-      </c>
-      <c r="K13">
-        <f>ramping_data!J13</f>
-        <v>0</v>
-      </c>
-      <c r="L13">
-        <f>ramping_data!K13</f>
-        <v>0</v>
-      </c>
-      <c r="M13">
-        <f>ramping_data!L13</f>
-        <v>0</v>
+        <f>IF(ramping_data!G13&lt;&gt;0,ramping_data!G13,"")</f>
+        <v>1</v>
+      </c>
+      <c r="I13" t="str">
+        <f>IF(ramping_data!H13&lt;&gt;0,ramping_data!H13,"")</f>
+        <v/>
+      </c>
+      <c r="J13" t="str">
+        <f>IF(ramping_data!I13&lt;&gt;0,ramping_data!I13,"")</f>
+        <v/>
+      </c>
+      <c r="K13" t="str">
+        <f>IF(ramping_data!J13&lt;&gt;0,ramping_data!J13,"")</f>
+        <v/>
+      </c>
+      <c r="L13" t="str">
+        <f>IF(ramping_data!K13&lt;&gt;0,ramping_data!K13,"")</f>
+        <v/>
+      </c>
+      <c r="M13" t="str">
+        <f>IF(ramping_data!L13&lt;&gt;0,ramping_data!L13,"")</f>
+        <v/>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
@@ -6777,47 +6777,47 @@
         <v>14</v>
       </c>
       <c r="C14">
-        <f>ramping_data!B14</f>
-        <v>1</v>
-      </c>
-      <c r="D14">
-        <f>ramping_data!C14</f>
-        <v>0</v>
+        <f>IF(ramping_data!B14&lt;&gt;0,ramping_data!B14,"")</f>
+        <v>1</v>
+      </c>
+      <c r="D14" t="str">
+        <f>IF(ramping_data!C14&lt;&gt;0,ramping_data!C14,"")</f>
+        <v/>
       </c>
       <c r="E14">
-        <f>ramping_data!D14</f>
+        <f>IF(ramping_data!D14&lt;&gt;0,ramping_data!D14,"")</f>
         <v>0.05</v>
       </c>
-      <c r="F14">
-        <f>ramping_data!E14</f>
-        <v>0</v>
+      <c r="F14" t="str">
+        <f>IF(ramping_data!E14&lt;&gt;0,ramping_data!E14,"")</f>
+        <v/>
       </c>
       <c r="G14">
-        <f>ramping_data!F14</f>
+        <f>IF(ramping_data!F14&lt;&gt;0,ramping_data!F14,"")</f>
         <v>0.15</v>
       </c>
       <c r="H14">
-        <f>ramping_data!G14</f>
+        <f>IF(ramping_data!G14&lt;&gt;0,ramping_data!G14,"")</f>
         <v>0.15</v>
       </c>
       <c r="I14">
-        <f>ramping_data!H14</f>
+        <f>IF(ramping_data!H14&lt;&gt;0,ramping_data!H14,"")</f>
         <v>0.5</v>
       </c>
-      <c r="J14">
-        <f>ramping_data!I14</f>
-        <v>0</v>
-      </c>
-      <c r="K14">
-        <f>ramping_data!J14</f>
-        <v>0</v>
+      <c r="J14" t="str">
+        <f>IF(ramping_data!I14&lt;&gt;0,ramping_data!I14,"")</f>
+        <v/>
+      </c>
+      <c r="K14" t="str">
+        <f>IF(ramping_data!J14&lt;&gt;0,ramping_data!J14,"")</f>
+        <v/>
       </c>
       <c r="L14">
-        <f>ramping_data!K14</f>
+        <f>IF(ramping_data!K14&lt;&gt;0,ramping_data!K14,"")</f>
         <v>35</v>
       </c>
       <c r="M14">
-        <f>ramping_data!L14</f>
+        <f>IF(ramping_data!L14&lt;&gt;0,ramping_data!L14,"")</f>
         <v>1000</v>
       </c>
     </row>
@@ -6830,48 +6830,48 @@
         <v>15</v>
       </c>
       <c r="C15">
-        <f>ramping_data!B15</f>
-        <v>1</v>
-      </c>
-      <c r="D15">
-        <f>ramping_data!C15</f>
-        <v>0</v>
+        <f>IF(ramping_data!B15&lt;&gt;0,ramping_data!B15,"")</f>
+        <v>1</v>
+      </c>
+      <c r="D15" t="str">
+        <f>IF(ramping_data!C15&lt;&gt;0,ramping_data!C15,"")</f>
+        <v/>
       </c>
       <c r="E15">
-        <f>ramping_data!D15</f>
-        <v>1</v>
-      </c>
-      <c r="F15">
-        <f>ramping_data!E15</f>
-        <v>0</v>
+        <f>IF(ramping_data!D15&lt;&gt;0,ramping_data!D15,"")</f>
+        <v>1</v>
+      </c>
+      <c r="F15" t="str">
+        <f>IF(ramping_data!E15&lt;&gt;0,ramping_data!E15,"")</f>
+        <v/>
       </c>
       <c r="G15">
-        <f>ramping_data!F15</f>
+        <f>IF(ramping_data!F15&lt;&gt;0,ramping_data!F15,"")</f>
         <v>1</v>
       </c>
       <c r="H15">
-        <f>ramping_data!G15</f>
-        <v>1</v>
-      </c>
-      <c r="I15">
-        <f>ramping_data!H15</f>
-        <v>0</v>
+        <f>IF(ramping_data!G15&lt;&gt;0,ramping_data!G15,"")</f>
+        <v>1</v>
+      </c>
+      <c r="I15" t="str">
+        <f>IF(ramping_data!H15&lt;&gt;0,ramping_data!H15,"")</f>
+        <v/>
       </c>
       <c r="J15">
-        <f>ramping_data!I15</f>
+        <f>IF(ramping_data!I15&lt;&gt;0,ramping_data!I15,"")</f>
         <v>1</v>
       </c>
       <c r="K15">
-        <f>ramping_data!J15</f>
-        <v>1</v>
-      </c>
-      <c r="L15">
-        <f>ramping_data!K15</f>
-        <v>0</v>
-      </c>
-      <c r="M15">
-        <f>ramping_data!L15</f>
-        <v>0</v>
+        <f>IF(ramping_data!J15&lt;&gt;0,ramping_data!J15,"")</f>
+        <v>1</v>
+      </c>
+      <c r="L15" t="str">
+        <f>IF(ramping_data!K15&lt;&gt;0,ramping_data!K15,"")</f>
+        <v/>
+      </c>
+      <c r="M15" t="str">
+        <f>IF(ramping_data!L15&lt;&gt;0,ramping_data!L15,"")</f>
+        <v/>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
@@ -6883,48 +6883,48 @@
         <v>16</v>
       </c>
       <c r="C16">
-        <f>ramping_data!B16</f>
-        <v>1</v>
-      </c>
-      <c r="D16">
-        <f>ramping_data!C16</f>
-        <v>0</v>
+        <f>IF(ramping_data!B16&lt;&gt;0,ramping_data!B16,"")</f>
+        <v>1</v>
+      </c>
+      <c r="D16" t="str">
+        <f>IF(ramping_data!C16&lt;&gt;0,ramping_data!C16,"")</f>
+        <v/>
       </c>
       <c r="E16">
-        <f>ramping_data!D16</f>
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <f>ramping_data!E16</f>
-        <v>0</v>
+        <f>IF(ramping_data!D16&lt;&gt;0,ramping_data!D16,"")</f>
+        <v>1</v>
+      </c>
+      <c r="F16" t="str">
+        <f>IF(ramping_data!E16&lt;&gt;0,ramping_data!E16,"")</f>
+        <v/>
       </c>
       <c r="G16">
-        <f>ramping_data!F16</f>
+        <f>IF(ramping_data!F16&lt;&gt;0,ramping_data!F16,"")</f>
         <v>1</v>
       </c>
       <c r="H16">
-        <f>ramping_data!G16</f>
-        <v>1</v>
-      </c>
-      <c r="I16">
-        <f>ramping_data!H16</f>
-        <v>0</v>
-      </c>
-      <c r="J16">
-        <f>ramping_data!I16</f>
-        <v>0</v>
-      </c>
-      <c r="K16">
-        <f>ramping_data!J16</f>
-        <v>0</v>
-      </c>
-      <c r="L16">
-        <f>ramping_data!K16</f>
-        <v>0</v>
-      </c>
-      <c r="M16">
-        <f>ramping_data!L16</f>
-        <v>0</v>
+        <f>IF(ramping_data!G16&lt;&gt;0,ramping_data!G16,"")</f>
+        <v>1</v>
+      </c>
+      <c r="I16" t="str">
+        <f>IF(ramping_data!H16&lt;&gt;0,ramping_data!H16,"")</f>
+        <v/>
+      </c>
+      <c r="J16" t="str">
+        <f>IF(ramping_data!I16&lt;&gt;0,ramping_data!I16,"")</f>
+        <v/>
+      </c>
+      <c r="K16" t="str">
+        <f>IF(ramping_data!J16&lt;&gt;0,ramping_data!J16,"")</f>
+        <v/>
+      </c>
+      <c r="L16" t="str">
+        <f>IF(ramping_data!K16&lt;&gt;0,ramping_data!K16,"")</f>
+        <v/>
+      </c>
+      <c r="M16" t="str">
+        <f>IF(ramping_data!L16&lt;&gt;0,ramping_data!L16,"")</f>
+        <v/>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
@@ -6936,48 +6936,48 @@
         <v>17</v>
       </c>
       <c r="C17">
-        <f>ramping_data!B17</f>
-        <v>1</v>
-      </c>
-      <c r="D17">
-        <f>ramping_data!C17</f>
-        <v>0</v>
+        <f>IF(ramping_data!B17&lt;&gt;0,ramping_data!B17,"")</f>
+        <v>1</v>
+      </c>
+      <c r="D17" t="str">
+        <f>IF(ramping_data!C17&lt;&gt;0,ramping_data!C17,"")</f>
+        <v/>
       </c>
       <c r="E17">
-        <f>ramping_data!D17</f>
-        <v>1</v>
-      </c>
-      <c r="F17">
-        <f>ramping_data!E17</f>
-        <v>0</v>
+        <f>IF(ramping_data!D17&lt;&gt;0,ramping_data!D17,"")</f>
+        <v>1</v>
+      </c>
+      <c r="F17" t="str">
+        <f>IF(ramping_data!E17&lt;&gt;0,ramping_data!E17,"")</f>
+        <v/>
       </c>
       <c r="G17">
-        <f>ramping_data!F17</f>
+        <f>IF(ramping_data!F17&lt;&gt;0,ramping_data!F17,"")</f>
         <v>1</v>
       </c>
       <c r="H17">
-        <f>ramping_data!G17</f>
-        <v>1</v>
-      </c>
-      <c r="I17">
-        <f>ramping_data!H17</f>
-        <v>0</v>
-      </c>
-      <c r="J17">
-        <f>ramping_data!I17</f>
-        <v>0</v>
-      </c>
-      <c r="K17">
-        <f>ramping_data!J17</f>
-        <v>0</v>
-      </c>
-      <c r="L17">
-        <f>ramping_data!K17</f>
-        <v>0</v>
-      </c>
-      <c r="M17">
-        <f>ramping_data!L17</f>
-        <v>0</v>
+        <f>IF(ramping_data!G17&lt;&gt;0,ramping_data!G17,"")</f>
+        <v>1</v>
+      </c>
+      <c r="I17" t="str">
+        <f>IF(ramping_data!H17&lt;&gt;0,ramping_data!H17,"")</f>
+        <v/>
+      </c>
+      <c r="J17" t="str">
+        <f>IF(ramping_data!I17&lt;&gt;0,ramping_data!I17,"")</f>
+        <v/>
+      </c>
+      <c r="K17" t="str">
+        <f>IF(ramping_data!J17&lt;&gt;0,ramping_data!J17,"")</f>
+        <v/>
+      </c>
+      <c r="L17" t="str">
+        <f>IF(ramping_data!K17&lt;&gt;0,ramping_data!K17,"")</f>
+        <v/>
+      </c>
+      <c r="M17" t="str">
+        <f>IF(ramping_data!L17&lt;&gt;0,ramping_data!L17,"")</f>
+        <v/>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
@@ -6989,47 +6989,47 @@
         <v>18</v>
       </c>
       <c r="C18">
-        <f>ramping_data!B18</f>
-        <v>1</v>
-      </c>
-      <c r="D18">
-        <f>ramping_data!C18</f>
-        <v>0</v>
+        <f>IF(ramping_data!B18&lt;&gt;0,ramping_data!B18,"")</f>
+        <v>1</v>
+      </c>
+      <c r="D18" t="str">
+        <f>IF(ramping_data!C18&lt;&gt;0,ramping_data!C18,"")</f>
+        <v/>
       </c>
       <c r="E18">
-        <f>ramping_data!D18</f>
-        <v>1</v>
-      </c>
-      <c r="F18">
-        <f>ramping_data!E18</f>
-        <v>0</v>
+        <f>IF(ramping_data!D18&lt;&gt;0,ramping_data!D18,"")</f>
+        <v>1</v>
+      </c>
+      <c r="F18" t="str">
+        <f>IF(ramping_data!E18&lt;&gt;0,ramping_data!E18,"")</f>
+        <v/>
       </c>
       <c r="G18">
-        <f>ramping_data!F18</f>
+        <f>IF(ramping_data!F18&lt;&gt;0,ramping_data!F18,"")</f>
         <v>1</v>
       </c>
       <c r="H18">
-        <f>ramping_data!G18</f>
+        <f>IF(ramping_data!G18&lt;&gt;0,ramping_data!G18,"")</f>
         <v>1</v>
       </c>
       <c r="I18">
-        <f>ramping_data!H18</f>
+        <f>IF(ramping_data!H18&lt;&gt;0,ramping_data!H18,"")</f>
         <v>0.2</v>
       </c>
       <c r="J18">
-        <f>ramping_data!I18</f>
+        <f>IF(ramping_data!I18&lt;&gt;0,ramping_data!I18,"")</f>
         <v>1.8</v>
       </c>
       <c r="K18">
-        <f>ramping_data!J18</f>
+        <f>IF(ramping_data!J18&lt;&gt;0,ramping_data!J18,"")</f>
         <v>1.8</v>
       </c>
       <c r="L18">
-        <f>ramping_data!K18</f>
+        <f>IF(ramping_data!K18&lt;&gt;0,ramping_data!K18,"")</f>
         <v>36</v>
       </c>
       <c r="M18">
-        <f>ramping_data!L18</f>
+        <f>IF(ramping_data!L18&lt;&gt;0,ramping_data!L18,"")</f>
         <v>17.5</v>
       </c>
     </row>
@@ -7042,48 +7042,48 @@
         <v>19</v>
       </c>
       <c r="C19">
-        <f>ramping_data!B19</f>
-        <v>1</v>
-      </c>
-      <c r="D19">
-        <f>ramping_data!C19</f>
-        <v>0</v>
+        <f>IF(ramping_data!B19&lt;&gt;0,ramping_data!B19,"")</f>
+        <v>1</v>
+      </c>
+      <c r="D19" t="str">
+        <f>IF(ramping_data!C19&lt;&gt;0,ramping_data!C19,"")</f>
+        <v/>
       </c>
       <c r="E19">
-        <f>ramping_data!D19</f>
-        <v>1</v>
-      </c>
-      <c r="F19">
-        <f>ramping_data!E19</f>
-        <v>0</v>
+        <f>IF(ramping_data!D19&lt;&gt;0,ramping_data!D19,"")</f>
+        <v>1</v>
+      </c>
+      <c r="F19" t="str">
+        <f>IF(ramping_data!E19&lt;&gt;0,ramping_data!E19,"")</f>
+        <v/>
       </c>
       <c r="G19">
-        <f>ramping_data!F19</f>
+        <f>IF(ramping_data!F19&lt;&gt;0,ramping_data!F19,"")</f>
         <v>1</v>
       </c>
       <c r="H19">
-        <f>ramping_data!G19</f>
-        <v>1</v>
-      </c>
-      <c r="I19">
-        <f>ramping_data!H19</f>
-        <v>0</v>
-      </c>
-      <c r="J19">
-        <f>ramping_data!I19</f>
-        <v>0</v>
-      </c>
-      <c r="K19">
-        <f>ramping_data!J19</f>
-        <v>0</v>
-      </c>
-      <c r="L19">
-        <f>ramping_data!K19</f>
-        <v>0</v>
-      </c>
-      <c r="M19">
-        <f>ramping_data!L19</f>
-        <v>0</v>
+        <f>IF(ramping_data!G19&lt;&gt;0,ramping_data!G19,"")</f>
+        <v>1</v>
+      </c>
+      <c r="I19" t="str">
+        <f>IF(ramping_data!H19&lt;&gt;0,ramping_data!H19,"")</f>
+        <v/>
+      </c>
+      <c r="J19" t="str">
+        <f>IF(ramping_data!I19&lt;&gt;0,ramping_data!I19,"")</f>
+        <v/>
+      </c>
+      <c r="K19" t="str">
+        <f>IF(ramping_data!J19&lt;&gt;0,ramping_data!J19,"")</f>
+        <v/>
+      </c>
+      <c r="L19" t="str">
+        <f>IF(ramping_data!K19&lt;&gt;0,ramping_data!K19,"")</f>
+        <v/>
+      </c>
+      <c r="M19" t="str">
+        <f>IF(ramping_data!L19&lt;&gt;0,ramping_data!L19,"")</f>
+        <v/>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
@@ -7095,48 +7095,48 @@
         <v>20</v>
       </c>
       <c r="C20">
-        <f>ramping_data!B20</f>
-        <v>1</v>
-      </c>
-      <c r="D20">
-        <f>ramping_data!C20</f>
-        <v>0</v>
+        <f>IF(ramping_data!B20&lt;&gt;0,ramping_data!B20,"")</f>
+        <v>1</v>
+      </c>
+      <c r="D20" t="str">
+        <f>IF(ramping_data!C20&lt;&gt;0,ramping_data!C20,"")</f>
+        <v/>
       </c>
       <c r="E20">
-        <f>ramping_data!D20</f>
-        <v>1</v>
-      </c>
-      <c r="F20">
-        <f>ramping_data!E20</f>
-        <v>0</v>
+        <f>IF(ramping_data!D20&lt;&gt;0,ramping_data!D20,"")</f>
+        <v>1</v>
+      </c>
+      <c r="F20" t="str">
+        <f>IF(ramping_data!E20&lt;&gt;0,ramping_data!E20,"")</f>
+        <v/>
       </c>
       <c r="G20">
-        <f>ramping_data!F20</f>
+        <f>IF(ramping_data!F20&lt;&gt;0,ramping_data!F20,"")</f>
         <v>1</v>
       </c>
       <c r="H20">
-        <f>ramping_data!G20</f>
-        <v>1</v>
-      </c>
-      <c r="I20">
-        <f>ramping_data!H20</f>
-        <v>0</v>
-      </c>
-      <c r="J20">
-        <f>ramping_data!I20</f>
-        <v>0</v>
-      </c>
-      <c r="K20">
-        <f>ramping_data!J20</f>
-        <v>0</v>
-      </c>
-      <c r="L20">
-        <f>ramping_data!K20</f>
-        <v>0</v>
-      </c>
-      <c r="M20">
-        <f>ramping_data!L20</f>
-        <v>0</v>
+        <f>IF(ramping_data!G20&lt;&gt;0,ramping_data!G20,"")</f>
+        <v>1</v>
+      </c>
+      <c r="I20" t="str">
+        <f>IF(ramping_data!H20&lt;&gt;0,ramping_data!H20,"")</f>
+        <v/>
+      </c>
+      <c r="J20" t="str">
+        <f>IF(ramping_data!I20&lt;&gt;0,ramping_data!I20,"")</f>
+        <v/>
+      </c>
+      <c r="K20" t="str">
+        <f>IF(ramping_data!J20&lt;&gt;0,ramping_data!J20,"")</f>
+        <v/>
+      </c>
+      <c r="L20" t="str">
+        <f>IF(ramping_data!K20&lt;&gt;0,ramping_data!K20,"")</f>
+        <v/>
+      </c>
+      <c r="M20" t="str">
+        <f>IF(ramping_data!L20&lt;&gt;0,ramping_data!L20,"")</f>
+        <v/>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
@@ -7148,47 +7148,47 @@
         <v>27</v>
       </c>
       <c r="C21">
-        <f>ramping_data!B21</f>
-        <v>1</v>
-      </c>
-      <c r="D21">
-        <f>ramping_data!C21</f>
-        <v>0</v>
+        <f>IF(ramping_data!B21&lt;&gt;0,ramping_data!B21,"")</f>
+        <v>1</v>
+      </c>
+      <c r="D21" t="str">
+        <f>IF(ramping_data!C21&lt;&gt;0,ramping_data!C21,"")</f>
+        <v/>
       </c>
       <c r="E21">
-        <f>ramping_data!D21</f>
+        <f>IF(ramping_data!D21&lt;&gt;0,ramping_data!D21,"")</f>
         <v>0.4</v>
       </c>
-      <c r="F21">
-        <f>ramping_data!E21</f>
-        <v>0</v>
+      <c r="F21" t="str">
+        <f>IF(ramping_data!E21&lt;&gt;0,ramping_data!E21,"")</f>
+        <v/>
       </c>
       <c r="G21">
-        <f>ramping_data!F21</f>
+        <f>IF(ramping_data!F21&lt;&gt;0,ramping_data!F21,"")</f>
         <v>1</v>
       </c>
       <c r="H21">
-        <f>ramping_data!G21</f>
+        <f>IF(ramping_data!G21&lt;&gt;0,ramping_data!G21,"")</f>
         <v>1</v>
       </c>
       <c r="I21">
-        <f>ramping_data!H21</f>
+        <f>IF(ramping_data!H21&lt;&gt;0,ramping_data!H21,"")</f>
         <v>0.3</v>
       </c>
-      <c r="J21">
-        <f>ramping_data!I21</f>
-        <v>0</v>
-      </c>
-      <c r="K21">
-        <f>ramping_data!J21</f>
-        <v>0</v>
+      <c r="J21" t="str">
+        <f>IF(ramping_data!I21&lt;&gt;0,ramping_data!I21,"")</f>
+        <v/>
+      </c>
+      <c r="K21" t="str">
+        <f>IF(ramping_data!J21&lt;&gt;0,ramping_data!J21,"")</f>
+        <v/>
       </c>
       <c r="L21">
-        <f>ramping_data!K21</f>
+        <f>IF(ramping_data!K21&lt;&gt;0,ramping_data!K21,"")</f>
         <v>2.5</v>
       </c>
       <c r="M21">
-        <f>ramping_data!L21</f>
+        <f>IF(ramping_data!L21&lt;&gt;0,ramping_data!L21,"")</f>
         <v>0.25</v>
       </c>
     </row>
